--- a/Listado COMVEN LID AFIP.xlsx
+++ b/Listado COMVEN LID AFIP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga COMVEN LID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086C129D-9F81-4111-AEAC-9DA5278B809D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809A3E10-FF11-42F7-AD45-C78CAECB6BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$R$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$T$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="26">
   <si>
     <t>Nro</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t>C:\Users\Agustin Bustos\Desktop\TEST</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Por Comprobante</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -200,1355 +218,19 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
+      <sheetName val="Control"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2" t="str">
-            <v>CUIT AFIP</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>CUIT Contrib</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>Clave</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>27061302838</v>
-          </cell>
-          <cell r="K3">
-            <v>27061302838</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>Acostadelia101</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>23183086499</v>
-          </cell>
-          <cell r="K4">
-            <v>30709419567</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>Horacio310</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>20203385197</v>
-          </cell>
-          <cell r="K5">
-            <v>20203385197</v>
-          </cell>
-          <cell r="L5" t="str">
-            <v>JCAmarilla2272</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>20170395167</v>
-          </cell>
-          <cell r="K6">
-            <v>30592932446</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>Hugohope209</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>20114794083</v>
-          </cell>
-          <cell r="K7">
-            <v>30708553715</v>
-          </cell>
-          <cell r="L7" t="str">
-            <v>Victordf2022</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>20208992032</v>
-          </cell>
-          <cell r="K8">
-            <v>20208992032</v>
-          </cell>
-          <cell r="L8" t="str">
-            <v>ASTgerardo22</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K9">
-            <v>20175255819</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>23183086499</v>
-          </cell>
-          <cell r="K10">
-            <v>23183086499</v>
-          </cell>
-          <cell r="L10" t="str">
-            <v>Horacio310</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>20416948926</v>
-          </cell>
-          <cell r="K11">
-            <v>20416948926</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>Beitia2022</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>20398190727</v>
-          </cell>
-          <cell r="K12">
-            <v>20398190727</v>
-          </cell>
-          <cell r="L12" t="str">
-            <v>Unaibeitia207</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>20246008109</v>
-          </cell>
-          <cell r="K13">
-            <v>20246008109</v>
-          </cell>
-          <cell r="L13" t="str">
-            <v>L@rrygrb209</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>20168291281</v>
-          </cell>
-          <cell r="K14">
-            <v>20168291281</v>
-          </cell>
-          <cell r="L14" t="str">
-            <v>busTos1964</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>20147130202</v>
-          </cell>
-          <cell r="K15">
-            <v>30650940667</v>
-          </cell>
-          <cell r="L15" t="str">
-            <v>Martinb204</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16">
-            <v>20147130202</v>
-          </cell>
-          <cell r="K16">
-            <v>20147130202</v>
-          </cell>
-          <cell r="L16" t="str">
-            <v>Martinb202</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17">
-            <v>27148268105</v>
-          </cell>
-          <cell r="K17">
-            <v>27148268105</v>
-          </cell>
-          <cell r="L17" t="str">
-            <v>Gracielac275</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18">
-            <v>27261827366</v>
-          </cell>
-          <cell r="K18">
-            <v>27261827366</v>
-          </cell>
-          <cell r="L18" t="str">
-            <v>CarballoG12</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19">
-            <v>23149462074</v>
-          </cell>
-          <cell r="K19">
-            <v>30707912223</v>
-          </cell>
-          <cell r="L19" t="str">
-            <v>Gabriela2023</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="J20">
-            <v>20082750488</v>
-          </cell>
-          <cell r="K20">
-            <v>20082750488</v>
-          </cell>
-          <cell r="L20" t="str">
-            <v>CastroC210</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="J21">
-            <v>20303980378</v>
-          </cell>
-          <cell r="K21">
-            <v>20303980378</v>
-          </cell>
-          <cell r="L21" t="str">
-            <v>Sinclair.208</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="J22">
-            <v>20277690323</v>
-          </cell>
-          <cell r="K22">
-            <v>20277690323</v>
-          </cell>
-          <cell r="L22" t="str">
-            <v>Julian79</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23">
-            <v>20174123072</v>
-          </cell>
-          <cell r="K23">
-            <v>30672372697</v>
-          </cell>
-          <cell r="L23" t="str">
-            <v>Carlos2111</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24">
-            <v>27222731416</v>
-          </cell>
-          <cell r="K24">
-            <v>30712026797</v>
-          </cell>
-          <cell r="L24" t="str">
-            <v>Nonona2022</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="J25">
-            <v>23351897074</v>
-          </cell>
-          <cell r="K25">
-            <v>30715085409</v>
-          </cell>
-          <cell r="L25" t="str">
-            <v>Lucila2022</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="J26">
-            <v>27109797257</v>
-          </cell>
-          <cell r="K26">
-            <v>30717059111</v>
-          </cell>
-          <cell r="L26" t="str">
-            <v>Olgascotto279</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="J27">
-            <v>27171709925</v>
-          </cell>
-          <cell r="K27">
-            <v>27171709925</v>
-          </cell>
-          <cell r="L27" t="str">
-            <v>Coronasm275</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28">
-            <v>20208993462</v>
-          </cell>
-          <cell r="K28">
-            <v>20208993462</v>
-          </cell>
-          <cell r="L28" t="str">
-            <v>corrales46</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29">
-            <v>20168291680</v>
-          </cell>
-          <cell r="K29">
-            <v>20168291680</v>
-          </cell>
-          <cell r="L29" t="str">
-            <v>Luisc30001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30">
-            <v>20114794083</v>
-          </cell>
-          <cell r="K30">
-            <v>30672355393</v>
-          </cell>
-          <cell r="L30" t="str">
-            <v>Victordf2022</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31">
-            <v>27055761685</v>
-          </cell>
-          <cell r="K31">
-            <v>27055761685</v>
-          </cell>
-          <cell r="L31" t="str">
-            <v>AngelaC275</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32">
-            <v>23267800499</v>
-          </cell>
-          <cell r="K32">
-            <v>23267800499</v>
-          </cell>
-          <cell r="L32" t="str">
-            <v>diego10</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33">
-            <v>23051636864</v>
-          </cell>
-          <cell r="K33">
-            <v>23051636864</v>
-          </cell>
-          <cell r="L33" t="str">
-            <v>LUCILA10</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34">
-            <v>27201178776</v>
-          </cell>
-          <cell r="K34">
-            <v>30717537153</v>
-          </cell>
-          <cell r="L34" t="str">
-            <v>Monicaszy11</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35">
-            <v>20149462601</v>
-          </cell>
-          <cell r="K35">
-            <v>30709431834</v>
-          </cell>
-          <cell r="L35" t="str">
-            <v>Marcelo202</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K36">
-            <v>30568711420</v>
-          </cell>
-          <cell r="L36" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37">
-            <v>20361947674</v>
-          </cell>
-          <cell r="K37">
-            <v>20361947674</v>
-          </cell>
-          <cell r="L37" t="str">
-            <v>Cesare2021</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38">
-            <v>20149466356</v>
-          </cell>
-          <cell r="K38">
-            <v>20149466356</v>
-          </cell>
-          <cell r="L38" t="str">
-            <v>REEnriquez207</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39">
-            <v>20169933031</v>
-          </cell>
-          <cell r="K39">
-            <v>20169933031</v>
-          </cell>
-          <cell r="L39" t="str">
-            <v>Estudio2022</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40">
-            <v>20168296011</v>
-          </cell>
-          <cell r="K40">
-            <v>33653520439</v>
-          </cell>
-          <cell r="L40" t="str">
-            <v>Jcmayol2022</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41">
-            <v>20170395167</v>
-          </cell>
-          <cell r="K41">
-            <v>30672356381</v>
-          </cell>
-          <cell r="L41" t="str">
-            <v>Hugohope209</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="J42">
-            <v>27182653972</v>
-          </cell>
-          <cell r="K42">
-            <v>27182653972</v>
-          </cell>
-          <cell r="L42" t="str">
-            <v>Chabuca273</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43">
-            <v>20168291834</v>
-          </cell>
-          <cell r="K43">
-            <v>20168291834</v>
-          </cell>
-          <cell r="L43" t="str">
-            <v>TOfi04041965</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44">
-            <v>20133762761</v>
-          </cell>
-          <cell r="K44">
-            <v>20133762761</v>
-          </cell>
-          <cell r="L44" t="str">
-            <v>Cferreyra59</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45">
-            <v>20327623967</v>
-          </cell>
-          <cell r="K45">
-            <v>20327623967</v>
-          </cell>
-          <cell r="L45" t="str">
-            <v>Candresferreyra86</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46">
-            <v>23342751644</v>
-          </cell>
-          <cell r="K46">
-            <v>23342751644</v>
-          </cell>
-          <cell r="L46" t="str">
-            <v>CVFerreyra89</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47">
-            <v>20170394845</v>
-          </cell>
-          <cell r="K47">
-            <v>20170394845</v>
-          </cell>
-          <cell r="L47" t="str">
-            <v>Mferreyra64</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48">
-            <v>23173121539</v>
-          </cell>
-          <cell r="K48">
-            <v>30715347926</v>
-          </cell>
-          <cell r="L48" t="str">
-            <v>Posadas4601</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K49">
-            <v>30708878762</v>
-          </cell>
-          <cell r="L49" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K50">
-            <v>30708626348</v>
-          </cell>
-          <cell r="L50" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K51">
-            <v>30701299538</v>
-          </cell>
-          <cell r="L51" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="J52">
-            <v>20203387882</v>
-          </cell>
-          <cell r="K52">
-            <v>20203387882</v>
-          </cell>
-          <cell r="L52" t="str">
-            <v>FREAZA01</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="J53">
-            <v>20149466356</v>
-          </cell>
-          <cell r="K53">
-            <v>30710404131</v>
-          </cell>
-          <cell r="L53" t="str">
-            <v>REEnriquez207</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="J54">
-            <v>27111482476</v>
-          </cell>
-          <cell r="K54">
-            <v>27111482476</v>
-          </cell>
-          <cell r="L54" t="str">
-            <v>DORA2716</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="J55">
-            <v>20170395167</v>
-          </cell>
-          <cell r="K55">
-            <v>20170395167</v>
-          </cell>
-          <cell r="L55" t="str">
-            <v>Hugohope209</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56">
-            <v>27343669262</v>
-          </cell>
-          <cell r="K56">
-            <v>27343669262</v>
-          </cell>
-          <cell r="L56" t="str">
-            <v>Jessica2022</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="J57">
-            <v>27364071359</v>
-          </cell>
-          <cell r="K57">
-            <v>27364071359</v>
-          </cell>
-          <cell r="L57" t="str">
-            <v>MelissaH1104</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="J58">
-            <v>20149466739</v>
-          </cell>
-          <cell r="K58">
-            <v>20149466739</v>
-          </cell>
-          <cell r="L58" t="str">
-            <v>Ricardo212</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K59">
-            <v>33712529909</v>
-          </cell>
-          <cell r="L59" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="J60">
-            <v>20174123072</v>
-          </cell>
-          <cell r="K60">
-            <v>20174123072</v>
-          </cell>
-          <cell r="L60" t="str">
-            <v>Carlos2111</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61">
-            <v>20408973598</v>
-          </cell>
-          <cell r="K61">
-            <v>20408973598</v>
-          </cell>
-          <cell r="L61" t="str">
-            <v>Matiasinsa209</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62">
-            <v>23377046129</v>
-          </cell>
-          <cell r="K62">
-            <v>23377046129</v>
-          </cell>
-          <cell r="L62" t="str">
-            <v>Nicolas240</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="J63">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K63">
-            <v>20100325048</v>
-          </cell>
-          <cell r="L63" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="J64">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K64">
-            <v>33712370829</v>
-          </cell>
-          <cell r="L64" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="J65">
-            <v>27045207388</v>
-          </cell>
-          <cell r="K65">
-            <v>27045207388</v>
-          </cell>
-          <cell r="L65" t="str">
-            <v>Anamaria2022</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="J66">
-            <v>27222731416</v>
-          </cell>
-          <cell r="K66">
-            <v>27222731416</v>
-          </cell>
-          <cell r="L66" t="str">
-            <v>Nonona2022</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="J67">
-            <v>27058846916</v>
-          </cell>
-          <cell r="K67">
-            <v>27058846916</v>
-          </cell>
-          <cell r="L67" t="str">
-            <v>Lazcozh277</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="J68">
-            <v>23385665709</v>
-          </cell>
-          <cell r="K68">
-            <v>23385665709</v>
-          </cell>
-          <cell r="L68" t="str">
-            <v>Dallas5058</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="J69">
-            <v>23120538209</v>
-          </cell>
-          <cell r="K69">
-            <v>23120538209</v>
-          </cell>
-          <cell r="L69" t="str">
-            <v>Pliniolin239</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="J70">
-            <v>27173878309</v>
-          </cell>
-          <cell r="K70">
-            <v>27173878309</v>
-          </cell>
-          <cell r="L70" t="str">
-            <v>Lionettoc280</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="J71">
-            <v>20203385049</v>
-          </cell>
-          <cell r="K71">
-            <v>20203385049</v>
-          </cell>
-          <cell r="L71" t="str">
-            <v>Posadas4601</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="J72">
-            <v>23173121539</v>
-          </cell>
-          <cell r="K72">
-            <v>23173121539</v>
-          </cell>
-          <cell r="L72" t="str">
-            <v>Posadas4602</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="J73">
-            <v>23173121539</v>
-          </cell>
-          <cell r="K73">
-            <v>23173121539</v>
-          </cell>
-          <cell r="L73" t="str">
-            <v>Posadas4602</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="J74">
-            <v>23246015139</v>
-          </cell>
-          <cell r="K74">
-            <v>23246015139</v>
-          </cell>
-          <cell r="L74" t="str">
-            <v>Posadas4919</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="J75">
-            <v>27163651918</v>
-          </cell>
-          <cell r="K75">
-            <v>27163651918</v>
-          </cell>
-          <cell r="L75" t="str">
-            <v>Martina2783</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="J76">
-            <v>20168296011</v>
-          </cell>
-          <cell r="K76">
-            <v>20168296011</v>
-          </cell>
-          <cell r="L76" t="str">
-            <v>Jcmayol2022</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="J77">
-            <v>20203383666</v>
-          </cell>
-          <cell r="K77">
-            <v>20203383666</v>
-          </cell>
-          <cell r="L77" t="str">
-            <v>Rmayol2022</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="J78">
-            <v>20133762761</v>
-          </cell>
-          <cell r="K78">
-            <v>30657146850</v>
-          </cell>
-          <cell r="L78" t="str">
-            <v>Cferreyra59</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="J79">
-            <v>27128520851</v>
-          </cell>
-          <cell r="K79">
-            <v>27128520851</v>
-          </cell>
-          <cell r="L79" t="str">
-            <v>Molaspatricia272</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="J80">
-            <v>20077065637</v>
-          </cell>
-          <cell r="K80">
-            <v>20077065637</v>
-          </cell>
-          <cell r="L80" t="str">
-            <v>PEnsaanibal208</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="J81">
-            <v>20343667966</v>
-          </cell>
-          <cell r="K81">
-            <v>20343667966</v>
-          </cell>
-          <cell r="L81" t="str">
-            <v>bruno206</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="J82">
-            <v>20075878495</v>
-          </cell>
-          <cell r="K82">
-            <v>20075878495</v>
-          </cell>
-          <cell r="L82" t="str">
-            <v>Roberto205</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="J83">
-            <v>20334250327</v>
-          </cell>
-          <cell r="K83">
-            <v>20334250327</v>
-          </cell>
-          <cell r="L83" t="str">
-            <v>Pensalu208</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="J84">
-            <v>27354872183</v>
-          </cell>
-          <cell r="K84">
-            <v>27354872183</v>
-          </cell>
-          <cell r="L84" t="str">
-            <v>Peugenia275</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="J85">
-            <v>20085452291</v>
-          </cell>
-          <cell r="K85">
-            <v>20085452291</v>
-          </cell>
-          <cell r="L85" t="str">
-            <v>Oscarp2022</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="J86">
-            <v>20334250327</v>
-          </cell>
-          <cell r="K86">
-            <v>30716503816</v>
-          </cell>
-          <cell r="L86" t="str">
-            <v>Pensalu208</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="J87">
-            <v>27176756751</v>
-          </cell>
-          <cell r="K87" t="e">
-            <v>#VALUE!</v>
-          </cell>
-          <cell r="L87" t="str">
-            <v>aTHENUCHI06</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="J88">
-            <v>20172521771</v>
-          </cell>
-          <cell r="K88">
-            <v>20172521771</v>
-          </cell>
-          <cell r="L88" t="str">
-            <v>Pereyra2022</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="J89">
-            <v>20115533003</v>
-          </cell>
-          <cell r="K89">
-            <v>20115533003</v>
-          </cell>
-          <cell r="L89" t="str">
-            <v>Jorgefer2021</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="J90">
-            <v>27169311027</v>
-          </cell>
-          <cell r="K90">
-            <v>27169311027</v>
-          </cell>
-          <cell r="L90" t="str">
-            <v>Piasentinia277</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="J91">
-            <v>27176756751</v>
-          </cell>
-          <cell r="K91">
-            <v>27176756751</v>
-          </cell>
-          <cell r="L91" t="str">
-            <v>aTHENUCHI06</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="J92">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K92">
-            <v>30708370122</v>
-          </cell>
-          <cell r="L92" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="J93">
-            <v>20109908852</v>
-          </cell>
-          <cell r="K93">
-            <v>30687910636</v>
-          </cell>
-          <cell r="L93" t="str">
-            <v>Robertob2330</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="J94">
-            <v>20168291931</v>
-          </cell>
-          <cell r="K94">
-            <v>30709206695</v>
-          </cell>
-          <cell r="L94" t="str">
-            <v>apipeAPIPE789</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="J95">
-            <v>20309592159</v>
-          </cell>
-          <cell r="K95">
-            <v>20309592159</v>
-          </cell>
-          <cell r="L95" t="str">
-            <v>Rieraariel209</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="J96">
-            <v>20121182832</v>
-          </cell>
-          <cell r="K96">
-            <v>20121182832</v>
-          </cell>
-          <cell r="L96" t="str">
-            <v>RieraManuel202</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="J97">
-            <v>20173120282</v>
-          </cell>
-          <cell r="K97">
-            <v>20173120282</v>
-          </cell>
-          <cell r="L97" t="str">
-            <v>Marcelo2021</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="J98">
-            <v>27217236547</v>
-          </cell>
-          <cell r="K98">
-            <v>27217236547</v>
-          </cell>
-          <cell r="L98" t="str">
-            <v>Florencia2000</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="J99">
-            <v>20116452023</v>
-          </cell>
-          <cell r="K99">
-            <v>30510926583</v>
-          </cell>
-          <cell r="L99" t="str">
-            <v>Ljrc421992</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="J100">
-            <v>23351897074</v>
-          </cell>
-          <cell r="K100">
-            <v>23351897074</v>
-          </cell>
-          <cell r="L100" t="str">
-            <v>Lucila2022</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="J101">
-            <v>27109797257</v>
-          </cell>
-          <cell r="K101">
-            <v>27109797257</v>
-          </cell>
-          <cell r="L101" t="str">
-            <v>Olgascotto279</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="J102">
-            <v>27068286323</v>
-          </cell>
-          <cell r="K102">
-            <v>27068286323</v>
-          </cell>
-          <cell r="L102" t="str">
-            <v>Sesmero2022</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="J103">
-            <v>27067089680</v>
-          </cell>
-          <cell r="K103">
-            <v>27067089680</v>
-          </cell>
-          <cell r="L103" t="str">
-            <v>Tsesmero271</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="J104">
-            <v>23149462074</v>
-          </cell>
-          <cell r="K104">
-            <v>23149462074</v>
-          </cell>
-          <cell r="L104" t="str">
-            <v>Gabriela2023</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="J105">
-            <v>23248265159</v>
-          </cell>
-          <cell r="K105">
-            <v>23248265159</v>
-          </cell>
-          <cell r="L105" t="str">
-            <v>Sebastian10</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="J106">
-            <v>23242946669</v>
-          </cell>
-          <cell r="K106">
-            <v>23242946669</v>
-          </cell>
-          <cell r="L106" t="str">
-            <v>Miguelsoto666</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="J107">
-            <v>27201932268</v>
-          </cell>
-          <cell r="K107">
-            <v>27201932268</v>
-          </cell>
-          <cell r="L107" t="str">
-            <v>Samanta1035</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="J108">
-            <v>27201178776</v>
-          </cell>
-          <cell r="K108">
-            <v>27201178776</v>
-          </cell>
-          <cell r="L108" t="str">
-            <v>Monicaszy11</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="J109">
-            <v>27348916942</v>
-          </cell>
-          <cell r="K109">
-            <v>27348916942</v>
-          </cell>
-          <cell r="L109" t="str">
-            <v>karen580</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="J110">
-            <v>20149462601</v>
-          </cell>
-          <cell r="K110">
-            <v>20149462601</v>
-          </cell>
-          <cell r="L110" t="str">
-            <v>Marcelo202</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="J111">
-            <v>20074827455</v>
-          </cell>
-          <cell r="K111">
-            <v>20074827455</v>
-          </cell>
-          <cell r="L111" t="str">
-            <v>Ricardo103</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="J112">
-            <v>20130056637</v>
-          </cell>
-          <cell r="K112">
-            <v>20130056637</v>
-          </cell>
-          <cell r="L112" t="str">
-            <v>Tabbiae207</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="J113">
-            <v>20133762761</v>
-          </cell>
-          <cell r="K113">
-            <v>30715577743</v>
-          </cell>
-          <cell r="L113" t="str">
-            <v>Cferreyra59</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="J114">
-            <v>27236873744</v>
-          </cell>
-          <cell r="K114">
-            <v>27236873744</v>
-          </cell>
-          <cell r="L114" t="str">
-            <v>Sotomalena0818</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="J115">
-            <v>20051985967</v>
-          </cell>
-          <cell r="K115">
-            <v>20051985967</v>
-          </cell>
-          <cell r="L115" t="str">
-            <v>Andres5967</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="J116">
-            <v>20230966738</v>
-          </cell>
-          <cell r="K116">
-            <v>20230966738</v>
-          </cell>
-          <cell r="L116" t="str">
-            <v>Durrutia4440</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="J117">
-            <v>27116976620</v>
-          </cell>
-          <cell r="K117">
-            <v>27116976620</v>
-          </cell>
-          <cell r="L117" t="str">
-            <v>Miriamu272</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="J118">
-            <v>20044483441</v>
-          </cell>
-          <cell r="K118" t="e">
-            <v>#VALUE!</v>
-          </cell>
-          <cell r="L118" t="str">
-            <v>Calafate2022</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="J119">
-            <v>20315731330</v>
-          </cell>
-          <cell r="K119">
-            <v>20315731330</v>
-          </cell>
-          <cell r="L119" t="str">
-            <v>AngelGV200</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="J120">
-            <v>20110780525</v>
-          </cell>
-          <cell r="K120">
-            <v>20110780525</v>
-          </cell>
-          <cell r="L120" t="str">
-            <v>vare205</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="J121">
-            <v>20301650087</v>
-          </cell>
-          <cell r="K121">
-            <v>20301650087</v>
-          </cell>
-          <cell r="L121" t="str">
-            <v>VarenizaLeo208</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="J122">
-            <v>20334250327</v>
-          </cell>
-          <cell r="K122">
-            <v>30715795864</v>
-          </cell>
-          <cell r="L122" t="str">
-            <v>Pensalu208</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="J123">
-            <v>27142090959</v>
-          </cell>
-          <cell r="K123">
-            <v>27142090959</v>
-          </cell>
-          <cell r="L123" t="str">
-            <v>Trapito5058</v>
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Fila</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Control</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1561,19 +243,1355 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Control"/>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Fila</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Control</v>
+        <row r="2">
+          <cell r="J2" t="str">
+            <v>CUIT AFIP</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>CUIT Contrib</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>Clave</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3">
+            <v>27061302838</v>
+          </cell>
+          <cell r="K3">
+            <v>27061302838</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>Acostadelia101</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>23183086499</v>
+          </cell>
+          <cell r="K4">
+            <v>30709419567</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>Horacio310</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>20203385197</v>
+          </cell>
+          <cell r="K5">
+            <v>20203385197</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>JCAmarilla2272</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>20170395167</v>
+          </cell>
+          <cell r="K6">
+            <v>30592932446</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>Hugohope209</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>20114794083</v>
+          </cell>
+          <cell r="K7">
+            <v>30708553715</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>Victordf2022</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>20208992032</v>
+          </cell>
+          <cell r="K8">
+            <v>20208992032</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>ASTgerardo22</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>20175255819</v>
+          </cell>
+          <cell r="K9">
+            <v>20175255819</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>Crispin2022</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10">
+            <v>23183086499</v>
+          </cell>
+          <cell r="K10">
+            <v>23183086499</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>Horacio310</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>20416948926</v>
+          </cell>
+          <cell r="K11">
+            <v>20416948926</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>Beitia2022</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12">
+            <v>20398190727</v>
+          </cell>
+          <cell r="K12">
+            <v>20398190727</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>Unaibeitia207</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13">
+            <v>20246008109</v>
+          </cell>
+          <cell r="K13">
+            <v>20246008109</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>L@rrygrb209</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14">
+            <v>20168291281</v>
+          </cell>
+          <cell r="K14">
+            <v>20168291281</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>busTos1964</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="J15">
+            <v>20147130202</v>
+          </cell>
+          <cell r="K15">
+            <v>30650940667</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>Martinb204</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="J16">
+            <v>20147130202</v>
+          </cell>
+          <cell r="K16">
+            <v>20147130202</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>Martinb202</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="J17">
+            <v>27148268105</v>
+          </cell>
+          <cell r="K17">
+            <v>27148268105</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>Gracielac275</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18">
+            <v>27261827366</v>
+          </cell>
+          <cell r="K18">
+            <v>27261827366</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>CarballoG12</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="J19">
+            <v>23149462074</v>
+          </cell>
+          <cell r="K19">
+            <v>30707912223</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>Gabriela2023</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="J20">
+            <v>20082750488</v>
+          </cell>
+          <cell r="K20">
+            <v>20082750488</v>
+          </cell>
+          <cell r="L20" t="str">
+            <v>CastroC210</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="J21">
+            <v>20303980378</v>
+          </cell>
+          <cell r="K21">
+            <v>20303980378</v>
+          </cell>
+          <cell r="L21" t="str">
+            <v>Sinclair.208</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="J22">
+            <v>20277690323</v>
+          </cell>
+          <cell r="K22">
+            <v>20277690323</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>Julian79</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="J23">
+            <v>20174123072</v>
+          </cell>
+          <cell r="K23">
+            <v>30672372697</v>
+          </cell>
+          <cell r="L23" t="str">
+            <v>Carlos2111</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="J24">
+            <v>27222731416</v>
+          </cell>
+          <cell r="K24">
+            <v>30712026797</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>Nonona2022</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25">
+            <v>23351897074</v>
+          </cell>
+          <cell r="K25">
+            <v>30715085409</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>Lucila2022</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="J26">
+            <v>27109797257</v>
+          </cell>
+          <cell r="K26">
+            <v>30717059111</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>Olgascotto279</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="J27">
+            <v>27171709925</v>
+          </cell>
+          <cell r="K27">
+            <v>27171709925</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>Coronasm275</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="J28">
+            <v>20208993462</v>
+          </cell>
+          <cell r="K28">
+            <v>20208993462</v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>corrales46</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="J29">
+            <v>20168291680</v>
+          </cell>
+          <cell r="K29">
+            <v>20168291680</v>
+          </cell>
+          <cell r="L29" t="str">
+            <v>Luisc30001</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="J30">
+            <v>20114794083</v>
+          </cell>
+          <cell r="K30">
+            <v>30672355393</v>
+          </cell>
+          <cell r="L30" t="str">
+            <v>Victordf2022</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="J31">
+            <v>27055761685</v>
+          </cell>
+          <cell r="K31">
+            <v>27055761685</v>
+          </cell>
+          <cell r="L31" t="str">
+            <v>AngelaC275</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="J32">
+            <v>23267800499</v>
+          </cell>
+          <cell r="K32">
+            <v>23267800499</v>
+          </cell>
+          <cell r="L32" t="str">
+            <v>diego10</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="J33">
+            <v>23051636864</v>
+          </cell>
+          <cell r="K33">
+            <v>23051636864</v>
+          </cell>
+          <cell r="L33" t="str">
+            <v>LUCILA10</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="J34">
+            <v>27201178776</v>
+          </cell>
+          <cell r="K34">
+            <v>30717537153</v>
+          </cell>
+          <cell r="L34" t="str">
+            <v>Monicaszy11</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="J35">
+            <v>20149462601</v>
+          </cell>
+          <cell r="K35">
+            <v>30709431834</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>Marcelo202</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="J36">
+            <v>20175255819</v>
+          </cell>
+          <cell r="K36">
+            <v>30568711420</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>Crispin2022</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="J37">
+            <v>20361947674</v>
+          </cell>
+          <cell r="K37">
+            <v>20361947674</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>Cesare2021</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="J38">
+            <v>20149466356</v>
+          </cell>
+          <cell r="K38">
+            <v>20149466356</v>
+          </cell>
+          <cell r="L38" t="str">
+            <v>REEnriquez207</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="J39">
+            <v>20169933031</v>
+          </cell>
+          <cell r="K39">
+            <v>20169933031</v>
+          </cell>
+          <cell r="L39" t="str">
+            <v>Estudio2022</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="J40">
+            <v>20168296011</v>
+          </cell>
+          <cell r="K40">
+            <v>33653520439</v>
+          </cell>
+          <cell r="L40" t="str">
+            <v>Jcmayol2022</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="J41">
+            <v>20170395167</v>
+          </cell>
+          <cell r="K41">
+            <v>30672356381</v>
+          </cell>
+          <cell r="L41" t="str">
+            <v>Hugohope209</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="J42">
+            <v>27182653972</v>
+          </cell>
+          <cell r="K42">
+            <v>27182653972</v>
+          </cell>
+          <cell r="L42" t="str">
+            <v>Chabuca273</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="J43">
+            <v>20168291834</v>
+          </cell>
+          <cell r="K43">
+            <v>20168291834</v>
+          </cell>
+          <cell r="L43" t="str">
+            <v>TOfi04041965</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="J44">
+            <v>20133762761</v>
+          </cell>
+          <cell r="K44">
+            <v>20133762761</v>
+          </cell>
+          <cell r="L44" t="str">
+            <v>Cferreyra59</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="J45">
+            <v>20327623967</v>
+          </cell>
+          <cell r="K45">
+            <v>20327623967</v>
+          </cell>
+          <cell r="L45" t="str">
+            <v>Candresferreyra86</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="J46">
+            <v>23342751644</v>
+          </cell>
+          <cell r="K46">
+            <v>23342751644</v>
+          </cell>
+          <cell r="L46" t="str">
+            <v>CVFerreyra89</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="J47">
+            <v>20170394845</v>
+          </cell>
+          <cell r="K47">
+            <v>20170394845</v>
+          </cell>
+          <cell r="L47" t="str">
+            <v>Mferreyra64</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="J48">
+            <v>23173121539</v>
+          </cell>
+          <cell r="K48">
+            <v>30715347926</v>
+          </cell>
+          <cell r="L48" t="str">
+            <v>Posadas4601</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="J49">
+            <v>20100325048</v>
+          </cell>
+          <cell r="K49">
+            <v>30708878762</v>
+          </cell>
+          <cell r="L49" t="str">
+            <v>Jouliae1356</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="J50">
+            <v>20100325048</v>
+          </cell>
+          <cell r="K50">
+            <v>30708626348</v>
+          </cell>
+          <cell r="L50" t="str">
+            <v>Jouliae1356</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="J51">
+            <v>20175255819</v>
+          </cell>
+          <cell r="K51">
+            <v>30701299538</v>
+          </cell>
+          <cell r="L51" t="str">
+            <v>Crispin2022</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="J52">
+            <v>20203387882</v>
+          </cell>
+          <cell r="K52">
+            <v>20203387882</v>
+          </cell>
+          <cell r="L52" t="str">
+            <v>FREAZA01</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="J53">
+            <v>20149466356</v>
+          </cell>
+          <cell r="K53">
+            <v>30710404131</v>
+          </cell>
+          <cell r="L53" t="str">
+            <v>REEnriquez207</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="J54">
+            <v>27111482476</v>
+          </cell>
+          <cell r="K54">
+            <v>27111482476</v>
+          </cell>
+          <cell r="L54" t="str">
+            <v>DORA2716</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="J55">
+            <v>20170395167</v>
+          </cell>
+          <cell r="K55">
+            <v>20170395167</v>
+          </cell>
+          <cell r="L55" t="str">
+            <v>Hugohope209</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="J56">
+            <v>27343669262</v>
+          </cell>
+          <cell r="K56">
+            <v>27343669262</v>
+          </cell>
+          <cell r="L56" t="str">
+            <v>Jessica2022</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="J57">
+            <v>27364071359</v>
+          </cell>
+          <cell r="K57">
+            <v>27364071359</v>
+          </cell>
+          <cell r="L57" t="str">
+            <v>MelissaH1104</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="J58">
+            <v>20149466739</v>
+          </cell>
+          <cell r="K58">
+            <v>20149466739</v>
+          </cell>
+          <cell r="L58" t="str">
+            <v>Ricardo212</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="J59">
+            <v>20175255819</v>
+          </cell>
+          <cell r="K59">
+            <v>33712529909</v>
+          </cell>
+          <cell r="L59" t="str">
+            <v>Crispin2022</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="J60">
+            <v>20174123072</v>
+          </cell>
+          <cell r="K60">
+            <v>20174123072</v>
+          </cell>
+          <cell r="L60" t="str">
+            <v>Carlos2111</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="J61">
+            <v>20408973598</v>
+          </cell>
+          <cell r="K61">
+            <v>20408973598</v>
+          </cell>
+          <cell r="L61" t="str">
+            <v>Matiasinsa209</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="J62">
+            <v>23377046129</v>
+          </cell>
+          <cell r="K62">
+            <v>23377046129</v>
+          </cell>
+          <cell r="L62" t="str">
+            <v>Nicolas240</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="J63">
+            <v>20100325048</v>
+          </cell>
+          <cell r="K63">
+            <v>20100325048</v>
+          </cell>
+          <cell r="L63" t="str">
+            <v>Jouliae1356</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="J64">
+            <v>20175255819</v>
+          </cell>
+          <cell r="K64">
+            <v>33712370829</v>
+          </cell>
+          <cell r="L64" t="str">
+            <v>Crispin2022</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="J65">
+            <v>27045207388</v>
+          </cell>
+          <cell r="K65">
+            <v>27045207388</v>
+          </cell>
+          <cell r="L65" t="str">
+            <v>Anamaria2022</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="J66">
+            <v>27222731416</v>
+          </cell>
+          <cell r="K66">
+            <v>27222731416</v>
+          </cell>
+          <cell r="L66" t="str">
+            <v>Nonona2022</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="J67">
+            <v>27058846916</v>
+          </cell>
+          <cell r="K67">
+            <v>27058846916</v>
+          </cell>
+          <cell r="L67" t="str">
+            <v>Lazcozh277</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="J68">
+            <v>23385665709</v>
+          </cell>
+          <cell r="K68">
+            <v>23385665709</v>
+          </cell>
+          <cell r="L68" t="str">
+            <v>Dallas5058</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="J69">
+            <v>23120538209</v>
+          </cell>
+          <cell r="K69">
+            <v>23120538209</v>
+          </cell>
+          <cell r="L69" t="str">
+            <v>Pliniolin239</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="J70">
+            <v>27173878309</v>
+          </cell>
+          <cell r="K70">
+            <v>27173878309</v>
+          </cell>
+          <cell r="L70" t="str">
+            <v>Lionettoc280</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="J71">
+            <v>20203385049</v>
+          </cell>
+          <cell r="K71">
+            <v>20203385049</v>
+          </cell>
+          <cell r="L71" t="str">
+            <v>Posadas4601</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="J72">
+            <v>23173121539</v>
+          </cell>
+          <cell r="K72">
+            <v>23173121539</v>
+          </cell>
+          <cell r="L72" t="str">
+            <v>Posadas4602</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="J73">
+            <v>23173121539</v>
+          </cell>
+          <cell r="K73">
+            <v>23173121539</v>
+          </cell>
+          <cell r="L73" t="str">
+            <v>Posadas4602</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="J74">
+            <v>23246015139</v>
+          </cell>
+          <cell r="K74">
+            <v>23246015139</v>
+          </cell>
+          <cell r="L74" t="str">
+            <v>Posadas4919</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="J75">
+            <v>27163651918</v>
+          </cell>
+          <cell r="K75">
+            <v>27163651918</v>
+          </cell>
+          <cell r="L75" t="str">
+            <v>Martina2783</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="J76">
+            <v>20168296011</v>
+          </cell>
+          <cell r="K76">
+            <v>20168296011</v>
+          </cell>
+          <cell r="L76" t="str">
+            <v>Jcmayol2022</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="J77">
+            <v>20203383666</v>
+          </cell>
+          <cell r="K77">
+            <v>20203383666</v>
+          </cell>
+          <cell r="L77" t="str">
+            <v>Rmayol2022</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="J78">
+            <v>20133762761</v>
+          </cell>
+          <cell r="K78">
+            <v>30657146850</v>
+          </cell>
+          <cell r="L78" t="str">
+            <v>Cferreyra59</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="J79">
+            <v>27128520851</v>
+          </cell>
+          <cell r="K79">
+            <v>27128520851</v>
+          </cell>
+          <cell r="L79" t="str">
+            <v>Molaspatricia272</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="J80">
+            <v>20077065637</v>
+          </cell>
+          <cell r="K80">
+            <v>20077065637</v>
+          </cell>
+          <cell r="L80" t="str">
+            <v>PEnsaanibal208</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="J81">
+            <v>20343667966</v>
+          </cell>
+          <cell r="K81">
+            <v>20343667966</v>
+          </cell>
+          <cell r="L81" t="str">
+            <v>bruno206</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="J82">
+            <v>20075878495</v>
+          </cell>
+          <cell r="K82">
+            <v>20075878495</v>
+          </cell>
+          <cell r="L82" t="str">
+            <v>Roberto205</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="J83">
+            <v>20334250327</v>
+          </cell>
+          <cell r="K83">
+            <v>20334250327</v>
+          </cell>
+          <cell r="L83" t="str">
+            <v>Pensalu208</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="J84">
+            <v>27354872183</v>
+          </cell>
+          <cell r="K84">
+            <v>27354872183</v>
+          </cell>
+          <cell r="L84" t="str">
+            <v>Peugenia275</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="J85">
+            <v>20085452291</v>
+          </cell>
+          <cell r="K85">
+            <v>20085452291</v>
+          </cell>
+          <cell r="L85" t="str">
+            <v>Oscarp2022</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="J86">
+            <v>20334250327</v>
+          </cell>
+          <cell r="K86">
+            <v>30716503816</v>
+          </cell>
+          <cell r="L86" t="str">
+            <v>Pensalu208</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="J87">
+            <v>27176756751</v>
+          </cell>
+          <cell r="K87" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L87" t="str">
+            <v>aTHENUCHI06</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="J88">
+            <v>20172521771</v>
+          </cell>
+          <cell r="K88">
+            <v>20172521771</v>
+          </cell>
+          <cell r="L88" t="str">
+            <v>Pereyra2022</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="J89">
+            <v>20115533003</v>
+          </cell>
+          <cell r="K89">
+            <v>20115533003</v>
+          </cell>
+          <cell r="L89" t="str">
+            <v>Jorgefer2021</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="J90">
+            <v>27169311027</v>
+          </cell>
+          <cell r="K90">
+            <v>27169311027</v>
+          </cell>
+          <cell r="L90" t="str">
+            <v>Piasentinia277</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="J91">
+            <v>27176756751</v>
+          </cell>
+          <cell r="K91">
+            <v>27176756751</v>
+          </cell>
+          <cell r="L91" t="str">
+            <v>aTHENUCHI06</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="J92">
+            <v>20100325048</v>
+          </cell>
+          <cell r="K92">
+            <v>30708370122</v>
+          </cell>
+          <cell r="L92" t="str">
+            <v>Jouliae1356</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="J93">
+            <v>20109908852</v>
+          </cell>
+          <cell r="K93">
+            <v>30687910636</v>
+          </cell>
+          <cell r="L93" t="str">
+            <v>Robertob2330</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="J94">
+            <v>20168291931</v>
+          </cell>
+          <cell r="K94">
+            <v>30709206695</v>
+          </cell>
+          <cell r="L94" t="str">
+            <v>apipeAPIPE789</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="J95">
+            <v>20309592159</v>
+          </cell>
+          <cell r="K95">
+            <v>20309592159</v>
+          </cell>
+          <cell r="L95" t="str">
+            <v>Rieraariel209</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="J96">
+            <v>20121182832</v>
+          </cell>
+          <cell r="K96">
+            <v>20121182832</v>
+          </cell>
+          <cell r="L96" t="str">
+            <v>RieraManuel202</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="J97">
+            <v>20173120282</v>
+          </cell>
+          <cell r="K97">
+            <v>20173120282</v>
+          </cell>
+          <cell r="L97" t="str">
+            <v>Marcelo2021</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="J98">
+            <v>27217236547</v>
+          </cell>
+          <cell r="K98">
+            <v>27217236547</v>
+          </cell>
+          <cell r="L98" t="str">
+            <v>Florencia2000</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="J99">
+            <v>20116452023</v>
+          </cell>
+          <cell r="K99">
+            <v>30510926583</v>
+          </cell>
+          <cell r="L99" t="str">
+            <v>Ljrc421992</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="J100">
+            <v>23351897074</v>
+          </cell>
+          <cell r="K100">
+            <v>23351897074</v>
+          </cell>
+          <cell r="L100" t="str">
+            <v>Lucila2022</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="J101">
+            <v>27109797257</v>
+          </cell>
+          <cell r="K101">
+            <v>27109797257</v>
+          </cell>
+          <cell r="L101" t="str">
+            <v>Olgascotto279</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="J102">
+            <v>27068286323</v>
+          </cell>
+          <cell r="K102">
+            <v>27068286323</v>
+          </cell>
+          <cell r="L102" t="str">
+            <v>Sesmero2022</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="J103">
+            <v>27067089680</v>
+          </cell>
+          <cell r="K103">
+            <v>27067089680</v>
+          </cell>
+          <cell r="L103" t="str">
+            <v>Tsesmero271</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="J104">
+            <v>23149462074</v>
+          </cell>
+          <cell r="K104">
+            <v>23149462074</v>
+          </cell>
+          <cell r="L104" t="str">
+            <v>Gabriela2023</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="J105">
+            <v>23248265159</v>
+          </cell>
+          <cell r="K105">
+            <v>23248265159</v>
+          </cell>
+          <cell r="L105" t="str">
+            <v>Sebastian10</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="J106">
+            <v>23242946669</v>
+          </cell>
+          <cell r="K106">
+            <v>23242946669</v>
+          </cell>
+          <cell r="L106" t="str">
+            <v>Miguelsoto666</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="J107">
+            <v>27201932268</v>
+          </cell>
+          <cell r="K107">
+            <v>27201932268</v>
+          </cell>
+          <cell r="L107" t="str">
+            <v>Samanta1035</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="J108">
+            <v>27201178776</v>
+          </cell>
+          <cell r="K108">
+            <v>27201178776</v>
+          </cell>
+          <cell r="L108" t="str">
+            <v>Monicaszy11</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="J109">
+            <v>27348916942</v>
+          </cell>
+          <cell r="K109">
+            <v>27348916942</v>
+          </cell>
+          <cell r="L109" t="str">
+            <v>karen580</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="J110">
+            <v>20149462601</v>
+          </cell>
+          <cell r="K110">
+            <v>20149462601</v>
+          </cell>
+          <cell r="L110" t="str">
+            <v>Marcelo202</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="J111">
+            <v>20074827455</v>
+          </cell>
+          <cell r="K111">
+            <v>20074827455</v>
+          </cell>
+          <cell r="L111" t="str">
+            <v>Ricardo103</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="J112">
+            <v>20130056637</v>
+          </cell>
+          <cell r="K112">
+            <v>20130056637</v>
+          </cell>
+          <cell r="L112" t="str">
+            <v>Tabbiae207</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="J113">
+            <v>20133762761</v>
+          </cell>
+          <cell r="K113">
+            <v>30715577743</v>
+          </cell>
+          <cell r="L113" t="str">
+            <v>Cferreyra59</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="J114">
+            <v>27236873744</v>
+          </cell>
+          <cell r="K114">
+            <v>27236873744</v>
+          </cell>
+          <cell r="L114" t="str">
+            <v>Sotomalena0818</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="J115">
+            <v>20051985967</v>
+          </cell>
+          <cell r="K115">
+            <v>20051985967</v>
+          </cell>
+          <cell r="L115" t="str">
+            <v>Andres5967</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="J116">
+            <v>20230966738</v>
+          </cell>
+          <cell r="K116">
+            <v>20230966738</v>
+          </cell>
+          <cell r="L116" t="str">
+            <v>Durrutia4440</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="J117">
+            <v>27116976620</v>
+          </cell>
+          <cell r="K117">
+            <v>27116976620</v>
+          </cell>
+          <cell r="L117" t="str">
+            <v>Miriamu272</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="J118">
+            <v>20044483441</v>
+          </cell>
+          <cell r="K118" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L118" t="str">
+            <v>Calafate2022</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="J119">
+            <v>20315731330</v>
+          </cell>
+          <cell r="K119">
+            <v>20315731330</v>
+          </cell>
+          <cell r="L119" t="str">
+            <v>AngelGV200</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="J120">
+            <v>20110780525</v>
+          </cell>
+          <cell r="K120">
+            <v>20110780525</v>
+          </cell>
+          <cell r="L120" t="str">
+            <v>vare205</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="J121">
+            <v>20301650087</v>
+          </cell>
+          <cell r="K121">
+            <v>20301650087</v>
+          </cell>
+          <cell r="L121" t="str">
+            <v>VarenizaLeo208</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="J122">
+            <v>20334250327</v>
+          </cell>
+          <cell r="K122">
+            <v>30715795864</v>
+          </cell>
+          <cell r="L122" t="str">
+            <v>Pensalu208</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="J123">
+            <v>27142090959</v>
+          </cell>
+          <cell r="K123">
+            <v>27142090959</v>
+          </cell>
+          <cell r="L123" t="str">
+            <v>Trapito5058</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1842,11 +1860,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,14 +1874,14 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1883,43 +1901,49 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1942,52 +1966,58 @@
       <c r="F2" s="3">
         <v>44986</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="str">
-        <f>CONCATENATE(H2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
+      <c r="K2" s="2" t="str">
+        <f>CONCATENATE(J2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 2\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:J50" si="1">CONCATENATE(TEXT(A2,"0"),"  - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="L2" s="2" t="str">
+        <f t="shared" ref="L2:L50" si="1">CONCATENATE(TEXT(A2,"0"),"  - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0  - 202303 - 20000000000 - Cliente 2</v>
       </c>
-      <c r="K2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N2,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P2,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L2" s="4" t="e">
-        <f>VLOOKUP(C2,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M2" s="5" t="e">
-        <f t="shared" ref="M2:M33" si="2">IF(EXACT(L2,E2),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" ref="N2:N33" si="3">ROW(A2)</f>
+      <c r="N2" s="4" t="e">
+        <f>VLOOKUP(C2,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O2" s="5" t="e">
+        <f t="shared" ref="O2:O33" si="2">IF(EXACT(N2,E2),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" ref="P2:P33" si="3">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="O2" s="4" t="str">
-        <f t="shared" ref="O2:O33" si="4">TEXT(F2,"MM/AAAA")</f>
+      <c r="Q2" s="4" t="str">
+        <f t="shared" ref="Q2:Q33" si="4">TEXT(F2,"MM/AAAA")</f>
         <v>03/2023</v>
       </c>
-      <c r="P2" s="4">
-        <f t="shared" ref="P2:P33" si="5">IF(C2=C1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q33" si="6">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="R2" s="4">
-        <f t="shared" ref="R2:R33" si="7">SUM(P2:Q2)</f>
+        <f t="shared" ref="R2:R33" si="5">IF(C2=C1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" ref="S2:S33" si="6">IF(C2=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" ref="T2:T33" si="7">SUM(R2:S2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2010,52 +2040,58 @@
       <c r="F3" s="3">
         <v>44986</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I66" si="10">CONCATENATE(H3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K66" si="10">CONCATENATE(J3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 3\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="L3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 20000000000 - Cliente 3</v>
       </c>
-      <c r="K3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N3,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P3,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L3" s="4" t="e">
-        <f>VLOOKUP(C3,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M3" s="5" t="e">
+      <c r="N3" s="4" t="e">
+        <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O3" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O3" s="4" t="str">
+      <c r="Q3" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P3" s="4">
+      <c r="R3" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="S3" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R3" s="4">
+      <c r="T3" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2078,52 +2114,58 @@
       <c r="F4" s="3">
         <v>44986</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="K4" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 4\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="L4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 20000000000 - Cliente 4</v>
       </c>
-      <c r="K4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N4,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P4,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L4" s="4" t="e">
-        <f>VLOOKUP(C4,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M4" s="5" t="e">
+      <c r="N4" s="4" t="e">
+        <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O4" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O4" s="4" t="str">
+      <c r="Q4" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P4" s="4">
+      <c r="R4" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R4" s="4">
+      <c r="T4" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2145,52 +2187,58 @@
       <c r="F5" s="3">
         <v>44986</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="K5" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 5\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="L5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 5</v>
       </c>
-      <c r="K5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N5,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P5,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L5" s="4" t="e">
-        <f>VLOOKUP(C5,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M5" s="5" t="e">
+      <c r="N5" s="4" t="e">
+        <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O5" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="O5" s="4" t="str">
+      <c r="Q5" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P5" s="4">
+      <c r="R5" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="S5" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2212,52 +2260,58 @@
       <c r="F6" s="3">
         <v>44986</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="K6" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 6\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="L6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 6</v>
       </c>
-      <c r="K6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N6,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P6,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L6" s="4" t="e">
-        <f>VLOOKUP(C6,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M6" s="5" t="e">
+      <c r="N6" s="4" t="e">
+        <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O6" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="O6" s="4" t="str">
+      <c r="Q6" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P6" s="4">
+      <c r="R6" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="S6" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2279,52 +2333,58 @@
       <c r="F7" s="3">
         <v>44986</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="K7" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 7\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="L7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 7</v>
       </c>
-      <c r="K7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N7,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P7,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L7" s="4" t="e">
-        <f>VLOOKUP(C7,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M7" s="5" t="e">
+      <c r="N7" s="4" t="e">
+        <f>VLOOKUP(C7,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O7" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O7" s="4" t="str">
+      <c r="Q7" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P7" s="4">
+      <c r="R7" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2346,52 +2406,58 @@
       <c r="F8" s="3">
         <v>44986</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="K8" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 8\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="L8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 8</v>
       </c>
-      <c r="K8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N8,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P8,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L8" s="4" t="e">
-        <f>VLOOKUP(C8,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="5" t="e">
+      <c r="N8" s="4" t="e">
+        <f>VLOOKUP(C8,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O8" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="O8" s="4" t="str">
+      <c r="Q8" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P8" s="4">
+      <c r="R8" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="S8" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2413,52 +2479,58 @@
       <c r="F9" s="3">
         <v>44986</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="K9" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 9\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 9</v>
       </c>
-      <c r="K9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N9,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P9,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L9" s="4" t="e">
-        <f>VLOOKUP(C9,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" s="5" t="e">
+      <c r="N9" s="4" t="e">
+        <f>VLOOKUP(C9,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O9" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O9" s="4" t="str">
+      <c r="Q9" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P9" s="4">
+      <c r="R9" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2480,52 +2552,58 @@
       <c r="F10" s="3">
         <v>44986</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="K10" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 10\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="L10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 10</v>
       </c>
-      <c r="K10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N10,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P10,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L10" s="4" t="e">
-        <f>VLOOKUP(C10,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" s="5" t="e">
+      <c r="N10" s="4" t="e">
+        <f>VLOOKUP(C10,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O10" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="O10" s="4" t="str">
+      <c r="Q10" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P10" s="4">
+      <c r="R10" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2547,52 +2625,58 @@
       <c r="F11" s="3">
         <v>44986</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="K11" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 11\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="L11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 11</v>
       </c>
-      <c r="K11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N11,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P11,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L11" s="4" t="e">
-        <f>VLOOKUP(C11,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" s="5" t="e">
+      <c r="N11" s="4" t="e">
+        <f>VLOOKUP(C11,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O11" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="O11" s="4" t="str">
+      <c r="Q11" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P11" s="4">
+      <c r="R11" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R11" s="4">
+      <c r="T11" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2614,52 +2698,58 @@
       <c r="F12" s="3">
         <v>44986</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="K12" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 12\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="L12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 12</v>
       </c>
-      <c r="K12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N12,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P12,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L12" s="4" t="e">
-        <f>VLOOKUP(C12,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="5" t="e">
+      <c r="N12" s="4" t="e">
+        <f>VLOOKUP(C12,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O12" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="O12" s="4" t="str">
+      <c r="Q12" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P12" s="4">
+      <c r="R12" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="S12" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R12" s="4">
+      <c r="T12" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2681,52 +2771,58 @@
       <c r="F13" s="3">
         <v>44986</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="2" t="str">
+      <c r="K13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 13\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="L13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 13</v>
       </c>
-      <c r="K13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N13,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P13,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L13" s="4" t="e">
-        <f>VLOOKUP(C13,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="5" t="e">
+      <c r="N13" s="4" t="e">
+        <f>VLOOKUP(C13,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O13" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O13" s="4" t="str">
+      <c r="Q13" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P13" s="4">
+      <c r="R13" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="S13" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R13" s="4">
+      <c r="T13" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2748,52 +2844,58 @@
       <c r="F14" s="3">
         <v>44986</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="K14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 14\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="L14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 14</v>
       </c>
-      <c r="K14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N14,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P14,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L14" s="4" t="e">
-        <f>VLOOKUP(C14,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="5" t="e">
+      <c r="N14" s="4" t="e">
+        <f>VLOOKUP(C14,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O14" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="O14" s="4" t="str">
+      <c r="Q14" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P14" s="4">
+      <c r="R14" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="S14" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R14" s="4">
+      <c r="T14" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2815,52 +2917,58 @@
       <c r="F15" s="3">
         <v>44986</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="K15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 15\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="L15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 15</v>
       </c>
-      <c r="K15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N15,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P15,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L15" s="4" t="e">
-        <f>VLOOKUP(C15,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="5" t="e">
+      <c r="N15" s="4" t="e">
+        <f>VLOOKUP(C15,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O15" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="O15" s="4" t="str">
+      <c r="Q15" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P15" s="4">
+      <c r="R15" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="S15" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R15" s="4">
+      <c r="T15" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2882,52 +2990,58 @@
       <c r="F16" s="3">
         <v>44986</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="2" t="str">
+      <c r="K16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 16\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J16" s="2" t="str">
+      <c r="L16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 16</v>
       </c>
-      <c r="K16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N16,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P16,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L16" s="4" t="e">
-        <f>VLOOKUP(C16,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M16" s="5" t="e">
+      <c r="N16" s="4" t="e">
+        <f>VLOOKUP(C16,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O16" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="O16" s="4" t="str">
+      <c r="Q16" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P16" s="4">
+      <c r="R16" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="S16" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R16" s="4">
+      <c r="T16" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2949,52 +3063,58 @@
       <c r="F17" s="3">
         <v>44986</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="2" t="str">
+      <c r="K17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 17\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J17" s="2" t="str">
+      <c r="L17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 17</v>
       </c>
-      <c r="K17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N17,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P17,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L17" s="4" t="e">
-        <f>VLOOKUP(C17,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M17" s="5" t="e">
+      <c r="N17" s="4" t="e">
+        <f>VLOOKUP(C17,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O17" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="O17" s="4" t="str">
+      <c r="Q17" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P17" s="4">
+      <c r="R17" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="S17" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R17" s="4">
+      <c r="T17" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3016,52 +3136,58 @@
       <c r="F18" s="3">
         <v>44986</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="2" t="str">
+      <c r="K18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 18\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J18" s="2" t="str">
+      <c r="L18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 18</v>
       </c>
-      <c r="K18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N18,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P18,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L18" s="4" t="e">
-        <f>VLOOKUP(C18,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M18" s="5" t="e">
+      <c r="N18" s="4" t="e">
+        <f>VLOOKUP(C18,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O18" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="O18" s="4" t="str">
+      <c r="Q18" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P18" s="4">
+      <c r="R18" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="S18" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R18" s="4">
+      <c r="T18" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3083,52 +3209,58 @@
       <c r="F19" s="3">
         <v>44986</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="2" t="str">
+      <c r="K19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 19\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J19" s="2" t="str">
+      <c r="L19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 19</v>
       </c>
-      <c r="K19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N19,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P19,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L19" s="4" t="e">
-        <f>VLOOKUP(C19,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M19" s="5" t="e">
+      <c r="N19" s="4" t="e">
+        <f>VLOOKUP(C19,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="O19" s="4" t="str">
+      <c r="Q19" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P19" s="4">
+      <c r="R19" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="S19" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R19" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3150,52 +3282,58 @@
       <c r="F20" s="3">
         <v>44986</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="2" t="str">
+      <c r="K20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 20\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J20" s="2" t="str">
+      <c r="L20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 20</v>
       </c>
-      <c r="K20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N20,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P20,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L20" s="4" t="e">
-        <f>VLOOKUP(C20,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M20" s="5" t="e">
+      <c r="N20" s="4" t="e">
+        <f>VLOOKUP(C20,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O20" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="O20" s="4" t="str">
+      <c r="Q20" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P20" s="4">
+      <c r="R20" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="S20" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R20" s="4">
+      <c r="T20" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3217,52 +3355,58 @@
       <c r="F21" s="3">
         <v>44986</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="2" t="str">
+      <c r="K21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 21\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J21" s="2" t="str">
+      <c r="L21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 21</v>
       </c>
-      <c r="K21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N21,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P21,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L21" s="4" t="e">
-        <f>VLOOKUP(C21,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M21" s="5" t="e">
+      <c r="N21" s="4" t="e">
+        <f>VLOOKUP(C21,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O21" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="O21" s="4" t="str">
+      <c r="Q21" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P21" s="4">
+      <c r="R21" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="S21" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R21" s="4">
+      <c r="T21" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3284,52 +3428,58 @@
       <c r="F22" s="3">
         <v>44986</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="2" t="str">
+      <c r="K22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 22\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J22" s="2" t="str">
+      <c r="L22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 22</v>
       </c>
-      <c r="K22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N22,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P22,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L22" s="4" t="e">
-        <f>VLOOKUP(C22,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="5" t="e">
+      <c r="N22" s="4" t="e">
+        <f>VLOOKUP(C22,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N22" s="4">
+      <c r="P22" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="O22" s="4" t="str">
+      <c r="Q22" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P22" s="4">
+      <c r="R22" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="S22" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R22" s="4">
+      <c r="T22" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3351,52 +3501,58 @@
       <c r="F23" s="3">
         <v>44986</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="2" t="str">
+      <c r="K23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 23\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J23" s="2" t="str">
+      <c r="L23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 23</v>
       </c>
-      <c r="K23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N23,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P23,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L23" s="4" t="e">
-        <f>VLOOKUP(C23,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M23" s="5" t="e">
+      <c r="N23" s="4" t="e">
+        <f>VLOOKUP(C23,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O23" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N23" s="4">
+      <c r="P23" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="O23" s="4" t="str">
+      <c r="Q23" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P23" s="4">
+      <c r="R23" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="S23" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R23" s="4">
+      <c r="T23" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3418,52 +3574,58 @@
       <c r="F24" s="3">
         <v>44986</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="2" t="str">
+      <c r="K24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 24\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J24" s="2" t="str">
+      <c r="L24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 24</v>
       </c>
-      <c r="K24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N24,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P24,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L24" s="4" t="e">
-        <f>VLOOKUP(C24,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M24" s="5" t="e">
+      <c r="N24" s="4" t="e">
+        <f>VLOOKUP(C24,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O24" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N24" s="4">
+      <c r="P24" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="O24" s="4" t="str">
+      <c r="Q24" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P24" s="4">
+      <c r="R24" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="S24" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R24" s="4">
+      <c r="T24" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3485,52 +3647,58 @@
       <c r="F25" s="3">
         <v>44986</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="2" t="str">
+      <c r="K25" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 25\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J25" s="2" t="str">
+      <c r="L25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 25</v>
       </c>
-      <c r="K25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N25,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P25,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L25" s="4" t="e">
-        <f>VLOOKUP(C25,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M25" s="5" t="e">
+      <c r="N25" s="4" t="e">
+        <f>VLOOKUP(C25,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O25" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N25" s="4">
+      <c r="P25" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="O25" s="4" t="str">
+      <c r="Q25" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P25" s="4">
+      <c r="R25" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="S25" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R25" s="4">
+      <c r="T25" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3552,52 +3720,58 @@
       <c r="F26" s="3">
         <v>44986</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="2" t="str">
+      <c r="K26" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 26\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J26" s="2" t="str">
+      <c r="L26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 26</v>
       </c>
-      <c r="K26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N26,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P26,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L26" s="4" t="e">
-        <f>VLOOKUP(C26,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M26" s="5" t="e">
+      <c r="N26" s="4" t="e">
+        <f>VLOOKUP(C26,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O26" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N26" s="4">
+      <c r="P26" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="O26" s="4" t="str">
+      <c r="Q26" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P26" s="4">
+      <c r="R26" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="S26" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R26" s="4">
+      <c r="T26" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3619,52 +3793,58 @@
       <c r="F27" s="3">
         <v>44986</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="2" t="str">
+      <c r="K27" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 27\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J27" s="2" t="str">
+      <c r="L27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 27</v>
       </c>
-      <c r="K27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N27,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P27,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L27" s="4" t="e">
-        <f>VLOOKUP(C27,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M27" s="5" t="e">
+      <c r="N27" s="4" t="e">
+        <f>VLOOKUP(C27,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O27" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N27" s="4">
+      <c r="P27" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="O27" s="4" t="str">
+      <c r="Q27" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P27" s="4">
+      <c r="R27" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="S27" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R27" s="4">
+      <c r="T27" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3686,52 +3866,58 @@
       <c r="F28" s="3">
         <v>44986</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="2" t="str">
+      <c r="K28" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 28\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J28" s="2" t="str">
+      <c r="L28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 28</v>
       </c>
-      <c r="K28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N28,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P28,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L28" s="4" t="e">
-        <f>VLOOKUP(C28,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M28" s="5" t="e">
+      <c r="N28" s="4" t="e">
+        <f>VLOOKUP(C28,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O28" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N28" s="4">
+      <c r="P28" s="4">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="O28" s="4" t="str">
+      <c r="Q28" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P28" s="4">
+      <c r="R28" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="S28" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R28" s="4">
+      <c r="T28" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3753,52 +3939,58 @@
       <c r="F29" s="3">
         <v>44986</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="2" t="str">
+      <c r="K29" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 29\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J29" s="2" t="str">
+      <c r="L29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 29</v>
       </c>
-      <c r="K29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N29,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P29,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L29" s="4" t="e">
-        <f>VLOOKUP(C29,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M29" s="5" t="e">
+      <c r="N29" s="4" t="e">
+        <f>VLOOKUP(C29,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O29" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N29" s="4">
+      <c r="P29" s="4">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="O29" s="4" t="str">
+      <c r="Q29" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P29" s="4">
+      <c r="R29" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="S29" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R29" s="4">
+      <c r="T29" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3820,52 +4012,58 @@
       <c r="F30" s="3">
         <v>44986</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
+      <c r="G30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="2" t="str">
+      <c r="K30" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 30\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J30" s="2" t="str">
+      <c r="L30" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 30</v>
       </c>
-      <c r="K30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N30,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P30,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L30" s="4" t="e">
-        <f>VLOOKUP(C30,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M30" s="5" t="e">
+      <c r="N30" s="4" t="e">
+        <f>VLOOKUP(C30,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O30" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N30" s="4">
+      <c r="P30" s="4">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="O30" s="4" t="str">
+      <c r="Q30" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P30" s="4">
+      <c r="R30" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="S30" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R30" s="4">
+      <c r="T30" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3887,52 +4085,58 @@
       <c r="F31" s="3">
         <v>44986</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
+      <c r="G31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="2" t="str">
+      <c r="K31" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 31\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J31" s="2" t="str">
+      <c r="L31" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 31</v>
       </c>
-      <c r="K31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N31,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P31,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L31" s="4" t="e">
-        <f>VLOOKUP(C31,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M31" s="5" t="e">
+      <c r="N31" s="4" t="e">
+        <f>VLOOKUP(C31,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O31" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N31" s="4">
+      <c r="P31" s="4">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="O31" s="4" t="str">
+      <c r="Q31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P31" s="4">
+      <c r="R31" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="S31" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R31" s="4">
+      <c r="T31" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3954,52 +4158,58 @@
       <c r="F32" s="3">
         <v>44986</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="2" t="str">
+      <c r="K32" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 32\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J32" s="2" t="str">
+      <c r="L32" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 32</v>
       </c>
-      <c r="K32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N32,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P32,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L32" s="4" t="e">
-        <f>VLOOKUP(C32,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M32" s="5" t="e">
+      <c r="N32" s="4" t="e">
+        <f>VLOOKUP(C32,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O32" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N32" s="4">
+      <c r="P32" s="4">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="O32" s="4" t="str">
+      <c r="Q32" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P32" s="4">
+      <c r="R32" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="S32" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R32" s="4">
+      <c r="T32" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4021,52 +4231,58 @@
       <c r="F33" s="3">
         <v>44986</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="2" t="str">
+      <c r="K33" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 33\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J33" s="2" t="str">
+      <c r="L33" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 33</v>
       </c>
-      <c r="K33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N33,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P33,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L33" s="4" t="e">
-        <f>VLOOKUP(C33,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M33" s="5" t="e">
+      <c r="N33" s="4" t="e">
+        <f>VLOOKUP(C33,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O33" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N33" s="4">
+      <c r="P33" s="4">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="O33" s="4" t="str">
+      <c r="Q33" s="4" t="str">
         <f t="shared" si="4"/>
         <v>03/2023</v>
       </c>
-      <c r="P33" s="4">
+      <c r="R33" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="S33" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R33" s="4">
+      <c r="T33" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" ref="A34:A69" si="11">RIGHT(D34,1)</f>
         <v>0</v>
@@ -4088,52 +4304,58 @@
       <c r="F34" s="3">
         <v>44986</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
+      <c r="G34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="2" t="str">
+      <c r="K34" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 34\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J34" s="2" t="str">
+      <c r="L34" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 34</v>
       </c>
-      <c r="K34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N34,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P34,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L34" s="4" t="e">
-        <f>VLOOKUP(C34,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M34" s="5" t="e">
-        <f t="shared" ref="M34:M65" si="12">IF(EXACT(L34,E34),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N34" s="4">
-        <f t="shared" ref="N34:N69" si="13">ROW(A34)</f>
+      <c r="N34" s="4" t="e">
+        <f>VLOOKUP(C34,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O34" s="5" t="e">
+        <f t="shared" ref="O34:O65" si="12">IF(EXACT(N34,E34),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" ref="P34:P69" si="13">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="O34" s="4" t="str">
-        <f t="shared" ref="O34:O69" si="14">TEXT(F34,"MM/AAAA")</f>
+      <c r="Q34" s="4" t="str">
+        <f t="shared" ref="Q34:Q69" si="14">TEXT(F34,"MM/AAAA")</f>
         <v>03/2023</v>
       </c>
-      <c r="P34" s="4">
-        <f t="shared" ref="P34:P69" si="15">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q69" si="16">IF(C34=C35,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="R34" s="4">
-        <f t="shared" ref="R34:R65" si="17">SUM(P34:Q34)</f>
+        <f t="shared" ref="R34:R69" si="15">IF(C34=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" ref="S34:S69" si="16">IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" ref="T34:T65" si="17">SUM(R34:S34)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4155,52 +4377,58 @@
       <c r="F35" s="3">
         <v>44986</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="2" t="str">
+      <c r="K35" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 35\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J35" s="2" t="str">
+      <c r="L35" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 35</v>
       </c>
-      <c r="K35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N35,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P35,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L35" s="4" t="e">
-        <f>VLOOKUP(C35,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M35" s="5" t="e">
+      <c r="N35" s="4" t="e">
+        <f>VLOOKUP(C35,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O35" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N35" s="4">
+      <c r="P35" s="4">
         <f t="shared" si="13"/>
         <v>35</v>
       </c>
-      <c r="O35" s="4" t="str">
+      <c r="Q35" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P35" s="4">
+      <c r="R35" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="S35" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R35" s="4">
+      <c r="T35" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4222,52 +4450,58 @@
       <c r="F36" s="3">
         <v>44986</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="2" t="str">
+      <c r="K36" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 36\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J36" s="2" t="str">
+      <c r="L36" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 36</v>
       </c>
-      <c r="K36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N36,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P36,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L36" s="4" t="e">
-        <f>VLOOKUP(C36,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M36" s="5" t="e">
+      <c r="N36" s="4" t="e">
+        <f>VLOOKUP(C36,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O36" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N36" s="4">
+      <c r="P36" s="4">
         <f t="shared" si="13"/>
         <v>36</v>
       </c>
-      <c r="O36" s="4" t="str">
+      <c r="Q36" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P36" s="4">
+      <c r="R36" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="S36" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R36" s="4">
+      <c r="T36" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4289,52 +4523,58 @@
       <c r="F37" s="3">
         <v>44986</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3" t="s">
+      <c r="G37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="2" t="str">
+      <c r="K37" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 37\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J37" s="2" t="str">
+      <c r="L37" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 37</v>
       </c>
-      <c r="K37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N37,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P37,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L37" s="4" t="e">
-        <f>VLOOKUP(C37,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M37" s="5" t="e">
+      <c r="N37" s="4" t="e">
+        <f>VLOOKUP(C37,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O37" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N37" s="4">
+      <c r="P37" s="4">
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
-      <c r="O37" s="4" t="str">
+      <c r="Q37" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P37" s="4">
+      <c r="R37" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="S37" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R37" s="4">
+      <c r="T37" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4356,52 +4596,58 @@
       <c r="F38" s="3">
         <v>44986</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
+      <c r="G38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="2" t="str">
+      <c r="K38" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 38\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J38" s="2" t="str">
+      <c r="L38" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 38</v>
       </c>
-      <c r="K38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N38,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P38,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L38" s="4" t="e">
-        <f>VLOOKUP(C38,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M38" s="5" t="e">
+      <c r="N38" s="4" t="e">
+        <f>VLOOKUP(C38,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O38" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N38" s="4">
+      <c r="P38" s="4">
         <f t="shared" si="13"/>
         <v>38</v>
       </c>
-      <c r="O38" s="4" t="str">
+      <c r="Q38" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P38" s="4">
+      <c r="R38" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="S38" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R38" s="4">
+      <c r="T38" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4423,52 +4669,58 @@
       <c r="F39" s="3">
         <v>44986</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
+      <c r="G39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="2" t="str">
+      <c r="K39" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 39\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J39" s="2" t="str">
+      <c r="L39" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 39</v>
       </c>
-      <c r="K39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N39,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P39,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L39" s="4" t="e">
-        <f>VLOOKUP(C39,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M39" s="5" t="e">
+      <c r="N39" s="4" t="e">
+        <f>VLOOKUP(C39,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O39" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N39" s="4">
+      <c r="P39" s="4">
         <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="O39" s="4" t="str">
+      <c r="Q39" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P39" s="4">
+      <c r="R39" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="S39" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R39" s="4">
+      <c r="T39" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4490,52 +4742,58 @@
       <c r="F40" s="3">
         <v>44986</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3" t="s">
+      <c r="G40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="2" t="str">
+      <c r="K40" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 40\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J40" s="2" t="str">
+      <c r="L40" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 40</v>
       </c>
-      <c r="K40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N40,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P40,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L40" s="4" t="e">
-        <f>VLOOKUP(C40,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M40" s="5" t="e">
+      <c r="N40" s="4" t="e">
+        <f>VLOOKUP(C40,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O40" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N40" s="4">
+      <c r="P40" s="4">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="O40" s="4" t="str">
+      <c r="Q40" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P40" s="4">
+      <c r="R40" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="S40" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R40" s="4">
+      <c r="T40" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4557,52 +4815,58 @@
       <c r="F41" s="3">
         <v>44986</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3" t="s">
+      <c r="G41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="2" t="str">
+      <c r="K41" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 41\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J41" s="2" t="str">
+      <c r="L41" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 41</v>
       </c>
-      <c r="K41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N41,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P41,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L41" s="4" t="e">
-        <f>VLOOKUP(C41,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M41" s="5" t="e">
+      <c r="N41" s="4" t="e">
+        <f>VLOOKUP(C41,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O41" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N41" s="4">
+      <c r="P41" s="4">
         <f t="shared" si="13"/>
         <v>41</v>
       </c>
-      <c r="O41" s="4" t="str">
+      <c r="Q41" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P41" s="4">
+      <c r="R41" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="S41" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R41" s="4">
+      <c r="T41" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4624,52 +4888,58 @@
       <c r="F42" s="3">
         <v>44986</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3" t="s">
+      <c r="G42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="2" t="str">
+      <c r="K42" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 42\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J42" s="2" t="str">
+      <c r="L42" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 42</v>
       </c>
-      <c r="K42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N42,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P42,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L42" s="4" t="e">
-        <f>VLOOKUP(C42,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M42" s="5" t="e">
+      <c r="N42" s="4" t="e">
+        <f>VLOOKUP(C42,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O42" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N42" s="4">
+      <c r="P42" s="4">
         <f t="shared" si="13"/>
         <v>42</v>
       </c>
-      <c r="O42" s="4" t="str">
+      <c r="Q42" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P42" s="4">
+      <c r="R42" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="S42" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R42" s="4">
+      <c r="T42" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4691,52 +4961,58 @@
       <c r="F43" s="3">
         <v>44986</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3" t="s">
+      <c r="G43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="2" t="str">
+      <c r="K43" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 43\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J43" s="2" t="str">
+      <c r="L43" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 43</v>
       </c>
-      <c r="K43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N43,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P43,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L43" s="4" t="e">
-        <f>VLOOKUP(C43,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M43" s="5" t="e">
+      <c r="N43" s="4" t="e">
+        <f>VLOOKUP(C43,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O43" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N43" s="4">
+      <c r="P43" s="4">
         <f t="shared" si="13"/>
         <v>43</v>
       </c>
-      <c r="O43" s="4" t="str">
+      <c r="Q43" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P43" s="4">
+      <c r="R43" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="S43" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R43" s="4">
+      <c r="T43" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4758,52 +5034,58 @@
       <c r="F44" s="3">
         <v>44986</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3" t="s">
+      <c r="G44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="2" t="str">
+      <c r="K44" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 44\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J44" s="2" t="str">
+      <c r="L44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 44</v>
       </c>
-      <c r="K44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N44,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P44,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L44" s="4" t="e">
-        <f>VLOOKUP(C44,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M44" s="5" t="e">
+      <c r="N44" s="4" t="e">
+        <f>VLOOKUP(C44,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O44" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N44" s="4">
+      <c r="P44" s="4">
         <f t="shared" si="13"/>
         <v>44</v>
       </c>
-      <c r="O44" s="4" t="str">
+      <c r="Q44" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P44" s="4">
+      <c r="R44" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="S44" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R44" s="4">
+      <c r="T44" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4825,52 +5107,58 @@
       <c r="F45" s="3">
         <v>44986</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3" t="s">
+      <c r="G45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="2" t="str">
+      <c r="K45" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 45\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J45" s="2" t="str">
+      <c r="L45" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 45</v>
       </c>
-      <c r="K45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N45,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P45,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L45" s="4" t="e">
-        <f>VLOOKUP(C45,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M45" s="5" t="e">
+      <c r="N45" s="4" t="e">
+        <f>VLOOKUP(C45,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O45" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N45" s="4">
+      <c r="P45" s="4">
         <f t="shared" si="13"/>
         <v>45</v>
       </c>
-      <c r="O45" s="4" t="str">
+      <c r="Q45" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P45" s="4">
+      <c r="R45" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="S45" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R45" s="4">
+      <c r="T45" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4892,52 +5180,58 @@
       <c r="F46" s="3">
         <v>44986</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3" t="s">
+      <c r="G46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="2" t="str">
+      <c r="K46" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 46\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J46" s="2" t="str">
+      <c r="L46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 46</v>
       </c>
-      <c r="K46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N46,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P46,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L46" s="4" t="e">
-        <f>VLOOKUP(C46,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M46" s="5" t="e">
+      <c r="N46" s="4" t="e">
+        <f>VLOOKUP(C46,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O46" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N46" s="4">
+      <c r="P46" s="4">
         <f t="shared" si="13"/>
         <v>46</v>
       </c>
-      <c r="O46" s="4" t="str">
+      <c r="Q46" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P46" s="4">
+      <c r="R46" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="S46" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R46" s="4">
+      <c r="T46" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4959,52 +5253,58 @@
       <c r="F47" s="3">
         <v>44986</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="2" t="str">
+      <c r="K47" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 47\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J47" s="2" t="str">
+      <c r="L47" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 47</v>
       </c>
-      <c r="K47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N47,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P47,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L47" s="4" t="e">
-        <f>VLOOKUP(C47,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M47" s="5" t="e">
+      <c r="N47" s="4" t="e">
+        <f>VLOOKUP(C47,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O47" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N47" s="4">
+      <c r="P47" s="4">
         <f t="shared" si="13"/>
         <v>47</v>
       </c>
-      <c r="O47" s="4" t="str">
+      <c r="Q47" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P47" s="4">
+      <c r="R47" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="S47" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R47" s="4">
+      <c r="T47" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5026,52 +5326,58 @@
       <c r="F48" s="3">
         <v>44986</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
+      <c r="G48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="2" t="str">
+      <c r="K48" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 48\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J48" s="2" t="str">
+      <c r="L48" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 48</v>
       </c>
-      <c r="K48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N48,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P48,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L48" s="4" t="e">
-        <f>VLOOKUP(C48,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M48" s="5" t="e">
+      <c r="N48" s="4" t="e">
+        <f>VLOOKUP(C48,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O48" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N48" s="4">
+      <c r="P48" s="4">
         <f t="shared" si="13"/>
         <v>48</v>
       </c>
-      <c r="O48" s="4" t="str">
+      <c r="Q48" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P48" s="4">
+      <c r="R48" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="S48" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R48" s="4">
+      <c r="T48" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5093,52 +5399,58 @@
       <c r="F49" s="3">
         <v>44986</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
+      <c r="G49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="2" t="str">
+      <c r="K49" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 49\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J49" s="2" t="str">
+      <c r="L49" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 49</v>
       </c>
-      <c r="K49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N49,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P49,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L49" s="4" t="e">
-        <f>VLOOKUP(C49,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M49" s="5" t="e">
+      <c r="N49" s="4" t="e">
+        <f>VLOOKUP(C49,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O49" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N49" s="4">
+      <c r="P49" s="4">
         <f t="shared" si="13"/>
         <v>49</v>
       </c>
-      <c r="O49" s="4" t="str">
+      <c r="Q49" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P49" s="4">
+      <c r="R49" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="S49" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R49" s="4">
+      <c r="T49" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5160,52 +5472,58 @@
       <c r="F50" s="3">
         <v>44986</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3" t="s">
+      <c r="G50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="2" t="str">
+      <c r="K50" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 50\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J50" s="2" t="str">
+      <c r="L50" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0  - 202303 - 30000000000 - Cliente 50</v>
       </c>
-      <c r="K50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N50,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P50,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L50" s="4" t="e">
-        <f>VLOOKUP(C50,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M50" s="5" t="e">
+      <c r="N50" s="4" t="e">
+        <f>VLOOKUP(C50,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O50" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N50" s="4">
+      <c r="P50" s="4">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="O50" s="4" t="str">
+      <c r="Q50" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P50" s="4">
+      <c r="R50" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="S50" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R50" s="4">
+      <c r="T50" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5227,52 +5545,58 @@
       <c r="F51" s="3">
         <v>44986</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
+      <c r="G51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="2" t="str">
+      <c r="K51" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 51\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J51" s="2" t="str">
+      <c r="L51" s="2" t="str">
         <f>CONCATENATE(TEXT(A51,"0"),"  - ",TEXT(F51,"AAAAMM")," - ",SUBSTITUTE(D51,"-","")," - ",B51)</f>
         <v>0  - 202303 - 30000000000 - Cliente 51</v>
       </c>
-      <c r="K51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N51,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P51,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L51" s="4" t="e">
-        <f>VLOOKUP(C51,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M51" s="5" t="e">
+      <c r="N51" s="4" t="e">
+        <f>VLOOKUP(C51,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O51" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N51" s="4">
+      <c r="P51" s="4">
         <f t="shared" si="13"/>
         <v>51</v>
       </c>
-      <c r="O51" s="4" t="str">
+      <c r="Q51" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P51" s="4">
+      <c r="R51" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="S51" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R51" s="4">
+      <c r="T51" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5294,52 +5618,58 @@
       <c r="F52" s="3">
         <v>44986</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
+      <c r="G52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="2" t="str">
+      <c r="K52" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 52\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J52" s="2" t="str">
-        <f t="shared" ref="J52:J69" si="18">CONCATENATE(TEXT(A52,"0"),"  - ",TEXT(F52,"AAAAMM")," - ",SUBSTITUTE(D52,"-","")," - ",B52)</f>
+      <c r="L52" s="2" t="str">
+        <f t="shared" ref="L52:L69" si="18">CONCATENATE(TEXT(A52,"0"),"  - ",TEXT(F52,"AAAAMM")," - ",SUBSTITUTE(D52,"-","")," - ",B52)</f>
         <v>0  - 202303 - 30000000000 - Cliente 52</v>
       </c>
-      <c r="K52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N52,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P52,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L52" s="4" t="e">
-        <f>VLOOKUP(C52,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M52" s="5" t="e">
+      <c r="N52" s="4" t="e">
+        <f>VLOOKUP(C52,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O52" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N52" s="4">
+      <c r="P52" s="4">
         <f t="shared" si="13"/>
         <v>52</v>
       </c>
-      <c r="O52" s="4" t="str">
+      <c r="Q52" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P52" s="4">
+      <c r="R52" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="S52" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R52" s="4">
+      <c r="T52" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5361,52 +5691,58 @@
       <c r="F53" s="3">
         <v>44986</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3" t="s">
+      <c r="G53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="2" t="str">
+      <c r="K53" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 53\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J53" s="2" t="str">
+      <c r="L53" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 53</v>
       </c>
-      <c r="K53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N53,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P53,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L53" s="4" t="e">
-        <f>VLOOKUP(C53,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M53" s="5" t="e">
+      <c r="N53" s="4" t="e">
+        <f>VLOOKUP(C53,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O53" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N53" s="4">
+      <c r="P53" s="4">
         <f t="shared" si="13"/>
         <v>53</v>
       </c>
-      <c r="O53" s="4" t="str">
+      <c r="Q53" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P53" s="4">
+      <c r="R53" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="S53" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R53" s="4">
+      <c r="T53" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5428,52 +5764,58 @@
       <c r="F54" s="3">
         <v>44986</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3" t="s">
+      <c r="G54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="2" t="str">
+      <c r="K54" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 54\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J54" s="2" t="str">
+      <c r="L54" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 54</v>
       </c>
-      <c r="K54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N54,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P54,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L54" s="4" t="e">
-        <f>VLOOKUP(C54,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M54" s="5" t="e">
+      <c r="N54" s="4" t="e">
+        <f>VLOOKUP(C54,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O54" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N54" s="4">
+      <c r="P54" s="4">
         <f t="shared" si="13"/>
         <v>54</v>
       </c>
-      <c r="O54" s="4" t="str">
+      <c r="Q54" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P54" s="4">
+      <c r="R54" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="S54" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R54" s="4">
+      <c r="T54" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5495,52 +5837,58 @@
       <c r="F55" s="3">
         <v>44986</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
+      <c r="G55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="2" t="str">
+      <c r="K55" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 55\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J55" s="2" t="str">
+      <c r="L55" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 55</v>
       </c>
-      <c r="K55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N55,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P55,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L55" s="4" t="e">
-        <f>VLOOKUP(C55,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M55" s="5" t="e">
+      <c r="N55" s="4" t="e">
+        <f>VLOOKUP(C55,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O55" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N55" s="4">
+      <c r="P55" s="4">
         <f t="shared" si="13"/>
         <v>55</v>
       </c>
-      <c r="O55" s="4" t="str">
+      <c r="Q55" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P55" s="4">
+      <c r="R55" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="S55" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R55" s="4">
+      <c r="T55" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5562,52 +5910,58 @@
       <c r="F56" s="3">
         <v>44986</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3" t="s">
+      <c r="G56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="2" t="str">
+      <c r="K56" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 56\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J56" s="2" t="str">
+      <c r="L56" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 56</v>
       </c>
-      <c r="K56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N56,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P56,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L56" s="4" t="e">
-        <f>VLOOKUP(C56,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M56" s="5" t="e">
+      <c r="N56" s="4" t="e">
+        <f>VLOOKUP(C56,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O56" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N56" s="4">
+      <c r="P56" s="4">
         <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="O56" s="4" t="str">
+      <c r="Q56" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P56" s="4">
+      <c r="R56" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="S56" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R56" s="4">
+      <c r="T56" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5629,52 +5983,58 @@
       <c r="F57" s="3">
         <v>44986</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3" t="s">
+      <c r="G57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="2" t="str">
+      <c r="K57" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 57\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J57" s="2" t="str">
+      <c r="L57" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 57</v>
       </c>
-      <c r="K57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N57,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P57,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L57" s="4" t="e">
-        <f>VLOOKUP(C57,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M57" s="5" t="e">
+      <c r="N57" s="4" t="e">
+        <f>VLOOKUP(C57,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O57" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N57" s="4">
+      <c r="P57" s="4">
         <f t="shared" si="13"/>
         <v>57</v>
       </c>
-      <c r="O57" s="4" t="str">
+      <c r="Q57" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P57" s="4">
+      <c r="R57" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="S57" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R57" s="4">
+      <c r="T57" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5696,52 +6056,58 @@
       <c r="F58" s="3">
         <v>44986</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3" t="s">
+      <c r="G58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="2" t="str">
+      <c r="K58" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 58\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J58" s="2" t="str">
+      <c r="L58" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 58</v>
       </c>
-      <c r="K58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N58,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P58,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L58" s="4" t="e">
-        <f>VLOOKUP(C58,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M58" s="5" t="e">
+      <c r="N58" s="4" t="e">
+        <f>VLOOKUP(C58,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O58" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N58" s="4">
+      <c r="P58" s="4">
         <f t="shared" si="13"/>
         <v>58</v>
       </c>
-      <c r="O58" s="4" t="str">
+      <c r="Q58" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P58" s="4">
+      <c r="R58" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="S58" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R58" s="4">
+      <c r="T58" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5763,52 +6129,58 @@
       <c r="F59" s="3">
         <v>44986</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3" t="s">
+      <c r="G59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="2" t="str">
+      <c r="K59" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 59\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J59" s="2" t="str">
+      <c r="L59" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 59</v>
       </c>
-      <c r="K59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N59,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P59,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L59" s="4" t="e">
-        <f>VLOOKUP(C59,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M59" s="5" t="e">
+      <c r="N59" s="4" t="e">
+        <f>VLOOKUP(C59,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O59" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N59" s="4">
+      <c r="P59" s="4">
         <f t="shared" si="13"/>
         <v>59</v>
       </c>
-      <c r="O59" s="4" t="str">
+      <c r="Q59" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P59" s="4">
+      <c r="R59" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="S59" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R59" s="4">
+      <c r="T59" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5830,52 +6202,58 @@
       <c r="F60" s="3">
         <v>44986</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3" t="s">
+      <c r="G60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="2" t="str">
+      <c r="K60" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 60\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J60" s="2" t="str">
+      <c r="L60" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 60</v>
       </c>
-      <c r="K60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N60,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P60,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L60" s="4" t="e">
-        <f>VLOOKUP(C60,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M60" s="5" t="e">
+      <c r="N60" s="4" t="e">
+        <f>VLOOKUP(C60,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O60" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N60" s="4">
+      <c r="P60" s="4">
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="O60" s="4" t="str">
+      <c r="Q60" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P60" s="4">
+      <c r="R60" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="S60" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R60" s="4">
+      <c r="T60" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5897,52 +6275,58 @@
       <c r="F61" s="3">
         <v>44986</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
+      <c r="G61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="2" t="str">
+      <c r="K61" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 61\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J61" s="2" t="str">
+      <c r="L61" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 61</v>
       </c>
-      <c r="K61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N61,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P61,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L61" s="4" t="e">
-        <f>VLOOKUP(C61,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M61" s="5" t="e">
+      <c r="N61" s="4" t="e">
+        <f>VLOOKUP(C61,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O61" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N61" s="4">
+      <c r="P61" s="4">
         <f t="shared" si="13"/>
         <v>61</v>
       </c>
-      <c r="O61" s="4" t="str">
+      <c r="Q61" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P61" s="4">
+      <c r="R61" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="S61" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R61" s="4">
+      <c r="T61" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5964,52 +6348,58 @@
       <c r="F62" s="3">
         <v>44986</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3" t="s">
+      <c r="G62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="2" t="str">
+      <c r="K62" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 62\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J62" s="2" t="str">
+      <c r="L62" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 62</v>
       </c>
-      <c r="K62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N62,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P62,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L62" s="4" t="e">
-        <f>VLOOKUP(C62,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M62" s="5" t="e">
+      <c r="N62" s="4" t="e">
+        <f>VLOOKUP(C62,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O62" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N62" s="4">
+      <c r="P62" s="4">
         <f t="shared" si="13"/>
         <v>62</v>
       </c>
-      <c r="O62" s="4" t="str">
+      <c r="Q62" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P62" s="4">
+      <c r="R62" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="S62" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R62" s="4">
+      <c r="T62" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6031,52 +6421,58 @@
       <c r="F63" s="3">
         <v>44986</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
+      <c r="G63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I63" s="2" t="str">
+      <c r="K63" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 63\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J63" s="2" t="str">
+      <c r="L63" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 63</v>
       </c>
-      <c r="K63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N63,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P63,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L63" s="4" t="e">
-        <f>VLOOKUP(C63,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M63" s="5" t="e">
+      <c r="N63" s="4" t="e">
+        <f>VLOOKUP(C63,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O63" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N63" s="4">
+      <c r="P63" s="4">
         <f t="shared" si="13"/>
         <v>63</v>
       </c>
-      <c r="O63" s="4" t="str">
+      <c r="Q63" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P63" s="4">
+      <c r="R63" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="S63" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R63" s="4">
+      <c r="T63" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6098,52 +6494,58 @@
       <c r="F64" s="3">
         <v>44986</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3" t="s">
+      <c r="G64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="2" t="str">
+      <c r="K64" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 64\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J64" s="2" t="str">
+      <c r="L64" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 64</v>
       </c>
-      <c r="K64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N64,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P64,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L64" s="4" t="e">
-        <f>VLOOKUP(C64,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M64" s="5" t="e">
+      <c r="N64" s="4" t="e">
+        <f>VLOOKUP(C64,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O64" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N64" s="4">
+      <c r="P64" s="4">
         <f t="shared" si="13"/>
         <v>64</v>
       </c>
-      <c r="O64" s="4" t="str">
+      <c r="Q64" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P64" s="4">
+      <c r="R64" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="S64" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R64" s="4">
+      <c r="T64" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6165,52 +6567,58 @@
       <c r="F65" s="3">
         <v>44986</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3" t="s">
+      <c r="G65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="2" t="str">
+      <c r="K65" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 65\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J65" s="2" t="str">
+      <c r="L65" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 65</v>
       </c>
-      <c r="K65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N65,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P65,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L65" s="4" t="e">
-        <f>VLOOKUP(C65,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M65" s="5" t="e">
+      <c r="N65" s="4" t="e">
+        <f>VLOOKUP(C65,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O65" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N65" s="4">
+      <c r="P65" s="4">
         <f t="shared" si="13"/>
         <v>65</v>
       </c>
-      <c r="O65" s="4" t="str">
+      <c r="Q65" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P65" s="4">
+      <c r="R65" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="S65" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R65" s="4">
+      <c r="T65" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6232,52 +6640,58 @@
       <c r="F66" s="3">
         <v>44986</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3" t="s">
+      <c r="G66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I66" s="2" t="str">
+      <c r="K66" s="2" t="str">
         <f t="shared" si="10"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 66\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J66" s="2" t="str">
+      <c r="L66" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 66</v>
       </c>
-      <c r="K66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N66,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P66,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L66" s="4" t="e">
-        <f>VLOOKUP(C66,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M66" s="5" t="e">
-        <f t="shared" ref="M66:M69" si="19">IF(EXACT(L66,E66),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N66" s="4">
+      <c r="N66" s="4" t="e">
+        <f>VLOOKUP(C66,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O66" s="5" t="e">
+        <f t="shared" ref="O66:O69" si="19">IF(EXACT(N66,E66),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P66" s="4">
         <f t="shared" si="13"/>
         <v>66</v>
       </c>
-      <c r="O66" s="4" t="str">
+      <c r="Q66" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P66" s="4">
+      <c r="R66" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="S66" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R66" s="4">
-        <f t="shared" ref="R66:R67" si="20">SUM(P66:Q66)</f>
+      <c r="T66" s="4">
+        <f t="shared" ref="T66:T67" si="20">SUM(R66:S66)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6299,52 +6713,58 @@
       <c r="F67" s="3">
         <v>44986</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3" t="s">
+      <c r="G67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I67" s="2" t="str">
-        <f t="shared" ref="I67:I69" si="23">CONCATENATE(H67,"\",B67,"\","COMVEN LID","\",YEAR(F67),"\",TEXT(MONTH(F67),"00"),"\")</f>
+      <c r="K67" s="2" t="str">
+        <f t="shared" ref="K67:K69" si="23">CONCATENATE(J67,"\",B67,"\","COMVEN LID","\",YEAR(F67),"\",TEXT(MONTH(F67),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 67\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J67" s="2" t="str">
+      <c r="L67" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 67</v>
       </c>
-      <c r="K67" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N67,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M67" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P67,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L67" s="4" t="e">
-        <f>VLOOKUP(C67,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M67" s="5" t="e">
+      <c r="N67" s="4" t="e">
+        <f>VLOOKUP(C67,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O67" s="5" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="N67" s="4">
+      <c r="P67" s="4">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
-      <c r="O67" s="4" t="str">
+      <c r="Q67" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P67" s="4">
+      <c r="R67" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="S67" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R67" s="4">
+      <c r="T67" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6366,52 +6786,58 @@
       <c r="F68" s="3">
         <v>44986</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3" t="s">
+      <c r="G68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="2" t="str">
+      <c r="K68" s="2" t="str">
         <f t="shared" si="23"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 68\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J68" s="2" t="str">
+      <c r="L68" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 68</v>
       </c>
-      <c r="K68" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N68,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M68" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P68,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L68" s="4" t="e">
-        <f>VLOOKUP(C68,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M68" s="5" t="e">
+      <c r="N68" s="4" t="e">
+        <f>VLOOKUP(C68,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O68" s="5" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="N68" s="4">
+      <c r="P68" s="4">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="O68" s="4" t="str">
+      <c r="Q68" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P68" s="4">
+      <c r="R68" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="S68" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R68" s="4">
-        <f t="shared" ref="R68:R69" si="24">SUM(P68:Q68)</f>
+      <c r="T68" s="4">
+        <f t="shared" ref="T68:T69" si="24">SUM(R68:S68)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6433,54 +6859,60 @@
       <c r="F69" s="3">
         <v>44986</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
+      <c r="G69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I69" s="2" t="str">
+      <c r="K69" s="2" t="str">
         <f t="shared" si="23"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 69\COMVEN LID\2023\03\</v>
       </c>
-      <c r="J69" s="2" t="str">
+      <c r="L69" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0  - 202303 - 30000000000 - Cliente 69</v>
       </c>
-      <c r="K69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(N69,[2]Control!$A:$B,2,0),"")</f>
+      <c r="M69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P69,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="L69" s="4" t="e">
-        <f>VLOOKUP(C69,[1]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M69" s="5" t="e">
+      <c r="N69" s="4" t="e">
+        <f>VLOOKUP(C69,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O69" s="5" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="N69" s="4">
+      <c r="P69" s="4">
         <f t="shared" si="13"/>
         <v>69</v>
       </c>
-      <c r="O69" s="4" t="str">
+      <c r="Q69" s="4" t="str">
         <f t="shared" si="14"/>
         <v>03/2023</v>
       </c>
-      <c r="P69" s="4">
+      <c r="R69" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="S69" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R69" s="4">
+      <c r="T69" s="4">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O69">
+  <autoFilter ref="A1:T69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>

--- a/Listado COMVEN LID AFIP.xlsx
+++ b/Listado COMVEN LID AFIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809A3E10-FF11-42F7-AD45-C78CAECB6BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAED676E-F789-419B-A276-C24AC50D6072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$T$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$U$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="27">
   <si>
     <t>Nro</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>AAAAMM</t>
   </si>
 </sst>
 </file>
@@ -1860,11 +1863,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,13 +1878,13 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1919,31 +1922,34 @@
         <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1981,49 +1987,53 @@
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 2\COMVEN LID\2023\03\</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f t="shared" ref="L2:L50" si="1">CONCATENATE(TEXT(A2,"0"),"  - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <f>CONCATENATE(TEXT(A2,"0"),"  - ",M2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0  - 202303 - 20000000000 - Cliente 2</v>
       </c>
-      <c r="M2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P2,[1]Control!$A:$B,2,0),"")</f>
+      <c r="M2" s="2" t="str">
+        <f>YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
+        <v>202303</v>
+      </c>
+      <c r="N2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q2,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N2" s="4" t="e">
+      <c r="O2" s="4" t="e">
         <f>VLOOKUP(C2,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O2" s="5" t="e">
-        <f t="shared" ref="O2:O33" si="2">IF(EXACT(N2,E2),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P2" s="4">
-        <f t="shared" ref="P2:P33" si="3">ROW(A2)</f>
+      <c r="P2" s="5" t="e">
+        <f t="shared" ref="P2:P33" si="1">IF(EXACT(O2,E2),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" ref="Q2:Q33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="Q2" s="4" t="str">
-        <f t="shared" ref="Q2:Q33" si="4">TEXT(F2,"MM/AAAA")</f>
+      <c r="R2" s="4" t="str">
+        <f>TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
         <v>03/2023</v>
       </c>
-      <c r="R2" s="4">
-        <f t="shared" ref="R2:R33" si="5">IF(C2=C1,1,0)</f>
+      <c r="S2" s="4">
+        <f t="shared" ref="S2:S33" si="3">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="4">
-        <f t="shared" ref="S2:S33" si="6">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="7">SUM(R2:S2)</f>
+        <f t="shared" ref="T2:T33" si="4">IF(C2=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" ref="U2:U33" si="5">SUM(S2:T2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="8">"Cliente "&amp;ROW()</f>
+        <f t="shared" ref="B3:B66" si="6">"Cliente "&amp;ROW()</f>
         <v>Cliente 3</v>
       </c>
       <c r="C3">
@@ -2034,7 +2044,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="9">"Clave "&amp;ROW()</f>
+        <f t="shared" ref="E3:E66" si="7">"Clave "&amp;ROW()</f>
         <v>Clave 3</v>
       </c>
       <c r="F3" s="3">
@@ -2051,53 +2061,57 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K66" si="10">CONCATENATE(J3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+        <f t="shared" ref="K3:K66" si="8">CONCATENATE(J3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 3\COMVEN LID\2023\03\</v>
       </c>
       <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L66" si="9">CONCATENATE(TEXT(A3,"0"),"  - ",M3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <v>0  - 202303 - 20000000000 - Cliente 3</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M66" si="10">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
+        <v>202303</v>
+      </c>
+      <c r="N3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q3,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O3" s="4" t="e">
+        <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P3" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 20000000000 - Cliente 3</v>
-      </c>
-      <c r="M3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P3,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N3" s="4" t="e">
-        <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O3" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P3" s="4">
+        <v>3</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f t="shared" ref="R3:R66" si="11">TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
+        <v>03/2023</v>
+      </c>
+      <c r="S3" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Q3" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R3" s="4">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S3" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T3" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 4</v>
       </c>
       <c r="C4">
@@ -2108,7 +2122,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 4</v>
       </c>
       <c r="F4" s="3">
@@ -2125,53 +2139,57 @@
         <v>19</v>
       </c>
       <c r="K4" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 4\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 20000000000 - Cliente 4</v>
+      </c>
+      <c r="M4" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 4\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L4" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q4,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O4" s="4" t="e">
+        <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P4" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 20000000000 - Cliente 4</v>
-      </c>
-      <c r="M4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P4,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N4" s="4" t="e">
-        <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O4" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q4" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P4" s="4">
+        <v>4</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Q4" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S4" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 5</v>
       </c>
       <c r="C5">
@@ -2181,7 +2199,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 5</v>
       </c>
       <c r="F5" s="3">
@@ -2198,53 +2216,57 @@
         <v>19</v>
       </c>
       <c r="K5" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 5\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 5</v>
+      </c>
+      <c r="M5" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 5\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L5" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q5,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O5" s="4" t="e">
+        <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 5</v>
-      </c>
-      <c r="M5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P5,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N5" s="4" t="e">
-        <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O5" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P5" s="4">
+        <v>5</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="Q5" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 6</v>
       </c>
       <c r="C6">
@@ -2254,7 +2276,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 6</v>
       </c>
       <c r="F6" s="3">
@@ -2271,53 +2293,57 @@
         <v>19</v>
       </c>
       <c r="K6" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 6\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 6</v>
+      </c>
+      <c r="M6" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 6\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L6" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q6,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O6" s="4" t="e">
+        <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P6" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 6</v>
-      </c>
-      <c r="M6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P6,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N6" s="4" t="e">
-        <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O6" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q6" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P6" s="4">
+        <v>6</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="Q6" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 7</v>
       </c>
       <c r="C7">
@@ -2327,7 +2353,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 7</v>
       </c>
       <c r="F7" s="3">
@@ -2344,53 +2370,57 @@
         <v>19</v>
       </c>
       <c r="K7" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 7\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 7</v>
+      </c>
+      <c r="M7" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 7\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L7" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q7,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O7" s="4" t="e">
+        <f>VLOOKUP(C7,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P7" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 7</v>
-      </c>
-      <c r="M7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P7,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N7" s="4" t="e">
-        <f>VLOOKUP(C7,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O7" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P7" s="4">
+        <v>7</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="Q7" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 8</v>
       </c>
       <c r="C8">
@@ -2400,7 +2430,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 8</v>
       </c>
       <c r="F8" s="3">
@@ -2417,53 +2447,57 @@
         <v>19</v>
       </c>
       <c r="K8" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 8\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 8</v>
+      </c>
+      <c r="M8" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 8\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L8" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q8,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O8" s="4" t="e">
+        <f>VLOOKUP(C8,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 8</v>
-      </c>
-      <c r="M8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P8,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N8" s="4" t="e">
-        <f>VLOOKUP(C8,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P8" s="4">
+        <v>8</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="Q8" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 9</v>
       </c>
       <c r="C9">
@@ -2473,7 +2507,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 9</v>
       </c>
       <c r="F9" s="3">
@@ -2490,53 +2524,57 @@
         <v>19</v>
       </c>
       <c r="K9" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 9\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 9</v>
+      </c>
+      <c r="M9" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 9\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L9" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q9,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O9" s="4" t="e">
+        <f>VLOOKUP(C9,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 9</v>
-      </c>
-      <c r="M9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P9,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N9" s="4" t="e">
-        <f>VLOOKUP(C9,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O9" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P9" s="4">
+        <v>9</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="Q9" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 10</v>
       </c>
       <c r="C10">
@@ -2546,7 +2584,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 10</v>
       </c>
       <c r="F10" s="3">
@@ -2563,53 +2601,57 @@
         <v>19</v>
       </c>
       <c r="K10" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 10\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 10</v>
+      </c>
+      <c r="M10" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 10\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L10" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q10,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O10" s="4" t="e">
+        <f>VLOOKUP(C10,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P10" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 10</v>
-      </c>
-      <c r="M10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P10,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N10" s="4" t="e">
-        <f>VLOOKUP(C10,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O10" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P10" s="4">
+        <v>10</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="Q10" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 11</v>
       </c>
       <c r="C11">
@@ -2619,7 +2661,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 11</v>
       </c>
       <c r="F11" s="3">
@@ -2636,53 +2678,57 @@
         <v>19</v>
       </c>
       <c r="K11" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 11\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 11</v>
+      </c>
+      <c r="M11" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 11\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L11" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q11,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O11" s="4" t="e">
+        <f>VLOOKUP(C11,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 11</v>
-      </c>
-      <c r="M11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P11,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N11" s="4" t="e">
-        <f>VLOOKUP(C11,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O11" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P11" s="4">
+        <v>11</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="Q11" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T11" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 12</v>
       </c>
       <c r="C12">
@@ -2692,7 +2738,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 12</v>
       </c>
       <c r="F12" s="3">
@@ -2709,53 +2755,57 @@
         <v>19</v>
       </c>
       <c r="K12" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 12\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 12</v>
+      </c>
+      <c r="M12" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 12\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L12" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q12,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O12" s="4" t="e">
+        <f>VLOOKUP(C12,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 12</v>
-      </c>
-      <c r="M12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P12,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N12" s="4" t="e">
-        <f>VLOOKUP(C12,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O12" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="4">
+        <v>12</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="Q12" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 13</v>
       </c>
       <c r="C13">
@@ -2765,7 +2815,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 13</v>
       </c>
       <c r="F13" s="3">
@@ -2782,53 +2832,57 @@
         <v>19</v>
       </c>
       <c r="K13" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 13\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 13</v>
+      </c>
+      <c r="M13" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 13\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L13" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q13,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="4" t="e">
+        <f>VLOOKUP(C13,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P13" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 13</v>
-      </c>
-      <c r="M13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P13,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N13" s="4" t="e">
-        <f>VLOOKUP(C13,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O13" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q13" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P13" s="4">
+        <v>13</v>
+      </c>
+      <c r="R13" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="Q13" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T13" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 14</v>
       </c>
       <c r="C14">
@@ -2838,7 +2892,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 14</v>
       </c>
       <c r="F14" s="3">
@@ -2855,53 +2909,57 @@
         <v>19</v>
       </c>
       <c r="K14" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 14\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 14</v>
+      </c>
+      <c r="M14" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 14\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L14" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q14,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="4" t="e">
+        <f>VLOOKUP(C14,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 14</v>
-      </c>
-      <c r="M14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P14,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N14" s="4" t="e">
-        <f>VLOOKUP(C14,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O14" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="4">
+        <v>14</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="Q14" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="U14" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 15</v>
       </c>
       <c r="C15">
@@ -2911,7 +2969,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 15</v>
       </c>
       <c r="F15" s="3">
@@ -2928,53 +2986,57 @@
         <v>19</v>
       </c>
       <c r="K15" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 15\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 15</v>
+      </c>
+      <c r="M15" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 15\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L15" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q15,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="4" t="e">
+        <f>VLOOKUP(C15,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 15</v>
-      </c>
-      <c r="M15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P15,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N15" s="4" t="e">
-        <f>VLOOKUP(C15,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="4">
+        <v>15</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="Q15" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 16</v>
       </c>
       <c r="C16">
@@ -2984,7 +3046,7 @@
         <v>18</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 16</v>
       </c>
       <c r="F16" s="3">
@@ -3001,53 +3063,57 @@
         <v>19</v>
       </c>
       <c r="K16" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 16\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 16</v>
+      </c>
+      <c r="M16" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 16\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L16" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q16,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="4" t="e">
+        <f>VLOOKUP(C16,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 16</v>
-      </c>
-      <c r="M16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P16,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N16" s="4" t="e">
-        <f>VLOOKUP(C16,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O16" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P16" s="4">
+        <v>16</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="Q16" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 17</v>
       </c>
       <c r="C17">
@@ -3057,7 +3123,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 17</v>
       </c>
       <c r="F17" s="3">
@@ -3074,53 +3140,57 @@
         <v>19</v>
       </c>
       <c r="K17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 17\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 17</v>
+      </c>
+      <c r="M17" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 17\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L17" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q17,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="4" t="e">
+        <f>VLOOKUP(C17,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 17</v>
-      </c>
-      <c r="M17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P17,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N17" s="4" t="e">
-        <f>VLOOKUP(C17,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O17" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="4">
+        <v>17</v>
+      </c>
+      <c r="R17" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S17" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="Q17" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T17" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 18</v>
       </c>
       <c r="C18">
@@ -3130,7 +3200,7 @@
         <v>18</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 18</v>
       </c>
       <c r="F18" s="3">
@@ -3147,53 +3217,57 @@
         <v>19</v>
       </c>
       <c r="K18" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 18\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 18</v>
+      </c>
+      <c r="M18" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 18\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L18" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q18,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O18" s="4" t="e">
+        <f>VLOOKUP(C18,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 18</v>
-      </c>
-      <c r="M18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P18,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N18" s="4" t="e">
-        <f>VLOOKUP(C18,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O18" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="4">
+        <v>18</v>
+      </c>
+      <c r="R18" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S18" s="4">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="Q18" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="U18" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 19</v>
       </c>
       <c r="C19">
@@ -3203,7 +3277,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 19</v>
       </c>
       <c r="F19" s="3">
@@ -3220,53 +3294,57 @@
         <v>19</v>
       </c>
       <c r="K19" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 19\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 19</v>
+      </c>
+      <c r="M19" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 19\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L19" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q19,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="4" t="e">
+        <f>VLOOKUP(C19,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 19</v>
-      </c>
-      <c r="M19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P19,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N19" s="4" t="e">
-        <f>VLOOKUP(C19,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="4">
+        <v>19</v>
+      </c>
+      <c r="R19" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S19" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="Q19" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 20</v>
       </c>
       <c r="C20">
@@ -3276,7 +3354,7 @@
         <v>18</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 20</v>
       </c>
       <c r="F20" s="3">
@@ -3293,53 +3371,57 @@
         <v>19</v>
       </c>
       <c r="K20" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 20\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 20</v>
+      </c>
+      <c r="M20" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 20\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L20" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q20,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O20" s="4" t="e">
+        <f>VLOOKUP(C20,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 20</v>
-      </c>
-      <c r="M20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P20,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N20" s="4" t="e">
-        <f>VLOOKUP(C20,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="4">
+        <v>20</v>
+      </c>
+      <c r="R20" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S20" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="Q20" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="U20" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 21</v>
       </c>
       <c r="C21">
@@ -3349,7 +3431,7 @@
         <v>18</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 21</v>
       </c>
       <c r="F21" s="3">
@@ -3366,53 +3448,57 @@
         <v>19</v>
       </c>
       <c r="K21" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 21\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 21</v>
+      </c>
+      <c r="M21" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 21\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L21" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q21,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="4" t="e">
+        <f>VLOOKUP(C21,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 21</v>
-      </c>
-      <c r="M21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P21,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N21" s="4" t="e">
-        <f>VLOOKUP(C21,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O21" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" s="4">
+        <v>21</v>
+      </c>
+      <c r="R21" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S21" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="Q21" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T21" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 22</v>
       </c>
       <c r="C22">
@@ -3422,7 +3508,7 @@
         <v>18</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 22</v>
       </c>
       <c r="F22" s="3">
@@ -3439,53 +3525,57 @@
         <v>19</v>
       </c>
       <c r="K22" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 22\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L22" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 22</v>
+      </c>
+      <c r="M22" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 22\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L22" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q22,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O22" s="4" t="e">
+        <f>VLOOKUP(C22,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 22</v>
-      </c>
-      <c r="M22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P22,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N22" s="4" t="e">
-        <f>VLOOKUP(C22,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O22" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" s="4">
+        <v>22</v>
+      </c>
+      <c r="R22" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S22" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="Q22" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T22" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 23</v>
       </c>
       <c r="C23">
@@ -3495,7 +3585,7 @@
         <v>18</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 23</v>
       </c>
       <c r="F23" s="3">
@@ -3512,53 +3602,57 @@
         <v>19</v>
       </c>
       <c r="K23" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 23\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 23</v>
+      </c>
+      <c r="M23" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 23\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L23" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q23,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="4" t="e">
+        <f>VLOOKUP(C23,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 23</v>
-      </c>
-      <c r="M23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P23,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N23" s="4" t="e">
-        <f>VLOOKUP(C23,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O23" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" s="4">
+        <v>23</v>
+      </c>
+      <c r="R23" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S23" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="Q23" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R23" s="4">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 24</v>
       </c>
       <c r="C24">
@@ -3568,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 24</v>
       </c>
       <c r="F24" s="3">
@@ -3585,53 +3679,57 @@
         <v>19</v>
       </c>
       <c r="K24" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 24\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 24</v>
+      </c>
+      <c r="M24" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 24\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L24" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q24,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O24" s="4" t="e">
+        <f>VLOOKUP(C24,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 24</v>
-      </c>
-      <c r="M24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P24,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N24" s="4" t="e">
-        <f>VLOOKUP(C24,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O24" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P24" s="4">
+        <v>24</v>
+      </c>
+      <c r="R24" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="Q24" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T24" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="U24" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 25</v>
       </c>
       <c r="C25">
@@ -3641,7 +3739,7 @@
         <v>18</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 25</v>
       </c>
       <c r="F25" s="3">
@@ -3658,53 +3756,57 @@
         <v>19</v>
       </c>
       <c r="K25" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 25\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 25</v>
+      </c>
+      <c r="M25" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 25\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L25" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q25,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="4" t="e">
+        <f>VLOOKUP(C25,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 25</v>
-      </c>
-      <c r="M25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P25,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N25" s="4" t="e">
-        <f>VLOOKUP(C25,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O25" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" s="4">
+        <v>25</v>
+      </c>
+      <c r="R25" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S25" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Q25" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T25" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 26</v>
       </c>
       <c r="C26">
@@ -3714,7 +3816,7 @@
         <v>18</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 26</v>
       </c>
       <c r="F26" s="3">
@@ -3731,53 +3833,57 @@
         <v>19</v>
       </c>
       <c r="K26" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 26\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 26</v>
+      </c>
+      <c r="M26" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 26\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L26" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q26,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O26" s="4" t="e">
+        <f>VLOOKUP(C26,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P26" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 26</v>
-      </c>
-      <c r="M26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P26,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N26" s="4" t="e">
-        <f>VLOOKUP(C26,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O26" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P26" s="4">
+        <v>26</v>
+      </c>
+      <c r="R26" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S26" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="Q26" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T26" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="U26" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 27</v>
       </c>
       <c r="C27">
@@ -3787,7 +3893,7 @@
         <v>18</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 27</v>
       </c>
       <c r="F27" s="3">
@@ -3804,53 +3910,57 @@
         <v>19</v>
       </c>
       <c r="K27" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 27\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L27" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 27</v>
+      </c>
+      <c r="M27" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 27\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L27" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q27,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O27" s="4" t="e">
+        <f>VLOOKUP(C27,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 27</v>
-      </c>
-      <c r="M27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P27,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N27" s="4" t="e">
-        <f>VLOOKUP(C27,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O27" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P27" s="4">
+        <v>27</v>
+      </c>
+      <c r="R27" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S27" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="Q27" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T27" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 28</v>
       </c>
       <c r="C28">
@@ -3860,7 +3970,7 @@
         <v>18</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 28</v>
       </c>
       <c r="F28" s="3">
@@ -3877,53 +3987,57 @@
         <v>19</v>
       </c>
       <c r="K28" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 28\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L28" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 28</v>
+      </c>
+      <c r="M28" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 28\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L28" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q28,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O28" s="4" t="e">
+        <f>VLOOKUP(C28,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P28" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 28</v>
-      </c>
-      <c r="M28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P28,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N28" s="4" t="e">
-        <f>VLOOKUP(C28,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O28" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P28" s="4">
+        <v>28</v>
+      </c>
+      <c r="R28" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S28" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="Q28" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T28" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 29</v>
       </c>
       <c r="C29">
@@ -3933,7 +4047,7 @@
         <v>18</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 29</v>
       </c>
       <c r="F29" s="3">
@@ -3950,53 +4064,57 @@
         <v>19</v>
       </c>
       <c r="K29" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 29\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L29" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 29</v>
+      </c>
+      <c r="M29" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 29\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L29" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q29,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O29" s="4" t="e">
+        <f>VLOOKUP(C29,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 29</v>
-      </c>
-      <c r="M29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P29,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N29" s="4" t="e">
-        <f>VLOOKUP(C29,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O29" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P29" s="4">
+        <v>29</v>
+      </c>
+      <c r="R29" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S29" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="Q29" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R29" s="4">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S29" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T29" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 30</v>
       </c>
       <c r="C30">
@@ -4006,7 +4124,7 @@
         <v>18</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 30</v>
       </c>
       <c r="F30" s="3">
@@ -4023,53 +4141,57 @@
         <v>19</v>
       </c>
       <c r="K30" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 30\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L30" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 30</v>
+      </c>
+      <c r="M30" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 30\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L30" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q30,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O30" s="4" t="e">
+        <f>VLOOKUP(C30,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 30</v>
-      </c>
-      <c r="M30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P30,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N30" s="4" t="e">
-        <f>VLOOKUP(C30,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O30" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P30" s="4">
+        <v>30</v>
+      </c>
+      <c r="R30" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S30" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Q30" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R30" s="4">
+        <v>1</v>
+      </c>
+      <c r="U30" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T30" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 31</v>
       </c>
       <c r="C31">
@@ -4079,7 +4201,7 @@
         <v>18</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 31</v>
       </c>
       <c r="F31" s="3">
@@ -4096,53 +4218,57 @@
         <v>19</v>
       </c>
       <c r="K31" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 31\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L31" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 31</v>
+      </c>
+      <c r="M31" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 31\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L31" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q31,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O31" s="4" t="e">
+        <f>VLOOKUP(C31,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 31</v>
-      </c>
-      <c r="M31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P31,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N31" s="4" t="e">
-        <f>VLOOKUP(C31,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O31" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P31" s="4">
+        <v>31</v>
+      </c>
+      <c r="R31" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S31" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="Q31" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R31" s="4">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S31" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T31" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 32</v>
       </c>
       <c r="C32">
@@ -4152,7 +4278,7 @@
         <v>18</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 32</v>
       </c>
       <c r="F32" s="3">
@@ -4169,53 +4295,57 @@
         <v>19</v>
       </c>
       <c r="K32" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 32\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L32" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 32</v>
+      </c>
+      <c r="M32" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 32\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L32" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q32,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="4" t="e">
+        <f>VLOOKUP(C32,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 32</v>
-      </c>
-      <c r="M32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P32,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N32" s="4" t="e">
-        <f>VLOOKUP(C32,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O32" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P32" s="4">
+        <v>32</v>
+      </c>
+      <c r="R32" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S32" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="Q32" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="U32" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T32" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 33</v>
       </c>
       <c r="C33">
@@ -4225,7 +4355,7 @@
         <v>18</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 33</v>
       </c>
       <c r="F33" s="3">
@@ -4242,53 +4372,57 @@
         <v>19</v>
       </c>
       <c r="K33" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 33\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L33" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 33</v>
+      </c>
+      <c r="M33" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 33\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L33" s="2" t="str">
+        <v>202303</v>
+      </c>
+      <c r="N33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q33,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O33" s="4" t="e">
+        <f>VLOOKUP(C33,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P33" s="5" t="e">
         <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 33</v>
-      </c>
-      <c r="M33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P33,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N33" s="4" t="e">
-        <f>VLOOKUP(C33,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O33" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q33" s="4">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P33" s="4">
+        <v>33</v>
+      </c>
+      <c r="R33" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>03/2023</v>
+      </c>
+      <c r="S33" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="Q33" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
         <f t="shared" si="4"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R33" s="4">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f t="shared" ref="A34:A69" si="12">RIGHT(D34,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B34" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T33" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="11">RIGHT(D34,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="8"/>
         <v>Cliente 34</v>
       </c>
       <c r="C34">
@@ -4298,7 +4432,7 @@
         <v>18</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 34</v>
       </c>
       <c r="F34" s="3">
@@ -4315,53 +4449,57 @@
         <v>19</v>
       </c>
       <c r="K34" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 34\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L34" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 34</v>
+      </c>
+      <c r="M34" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 34\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 34</v>
-      </c>
-      <c r="M34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P34,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q34,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N34" s="4" t="e">
+      <c r="O34" s="4" t="e">
         <f>VLOOKUP(C34,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O34" s="5" t="e">
-        <f t="shared" ref="O34:O65" si="12">IF(EXACT(N34,E34),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P34" s="4">
-        <f t="shared" ref="P34:P69" si="13">ROW(A34)</f>
+      <c r="P34" s="5" t="e">
+        <f t="shared" ref="P34:P65" si="13">IF(EXACT(O34,E34),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" ref="Q34:Q69" si="14">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="Q34" s="4" t="str">
-        <f t="shared" ref="Q34:Q69" si="14">TEXT(F34,"MM/AAAA")</f>
+      <c r="R34" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R34" s="4">
-        <f t="shared" ref="R34:R69" si="15">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S34" s="4">
-        <f t="shared" ref="S34:S69" si="16">IF(C34=C35,1,0)</f>
+        <f t="shared" ref="S34:S69" si="15">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" ref="T34:T65" si="17">SUM(R34:S34)</f>
+        <f t="shared" ref="T34:T69" si="16">IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" ref="U34:U65" si="17">SUM(S34:T34)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 35</v>
       </c>
       <c r="C35">
@@ -4371,7 +4509,7 @@
         <v>18</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 35</v>
       </c>
       <c r="F35" s="3">
@@ -4388,53 +4526,57 @@
         <v>19</v>
       </c>
       <c r="K35" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 35\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L35" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 35</v>
+      </c>
+      <c r="M35" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 35\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 35</v>
-      </c>
-      <c r="M35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P35,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q35,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N35" s="4" t="e">
+      <c r="O35" s="4" t="e">
         <f>VLOOKUP(C35,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O35" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P35" s="4">
+      <c r="P35" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
-      <c r="Q35" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R35" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S35" s="4">
+      <c r="T35" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T35" s="4">
+      <c r="U35" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 36</v>
       </c>
       <c r="C36">
@@ -4444,7 +4586,7 @@
         <v>18</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 36</v>
       </c>
       <c r="F36" s="3">
@@ -4461,53 +4603,57 @@
         <v>19</v>
       </c>
       <c r="K36" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 36\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L36" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 36</v>
+      </c>
+      <c r="M36" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 36\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 36</v>
-      </c>
-      <c r="M36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P36,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q36,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N36" s="4" t="e">
+      <c r="O36" s="4" t="e">
         <f>VLOOKUP(C36,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O36" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P36" s="4">
+      <c r="P36" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
-      <c r="Q36" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R36" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S36" s="4">
+      <c r="T36" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T36" s="4">
+      <c r="U36" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 37</v>
       </c>
       <c r="C37">
@@ -4517,7 +4663,7 @@
         <v>18</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 37</v>
       </c>
       <c r="F37" s="3">
@@ -4534,53 +4680,57 @@
         <v>19</v>
       </c>
       <c r="K37" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 37\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L37" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 37</v>
+      </c>
+      <c r="M37" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 37\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 37</v>
-      </c>
-      <c r="M37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P37,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q37,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N37" s="4" t="e">
+      <c r="O37" s="4" t="e">
         <f>VLOOKUP(C37,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O37" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P37" s="4">
+      <c r="P37" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="Q37" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R37" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T37" s="4">
+      <c r="U37" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 38</v>
       </c>
       <c r="C38">
@@ -4590,7 +4740,7 @@
         <v>18</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 38</v>
       </c>
       <c r="F38" s="3">
@@ -4607,53 +4757,57 @@
         <v>19</v>
       </c>
       <c r="K38" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 38\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L38" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 38</v>
+      </c>
+      <c r="M38" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 38\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 38</v>
-      </c>
-      <c r="M38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P38,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q38,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N38" s="4" t="e">
+      <c r="O38" s="4" t="e">
         <f>VLOOKUP(C38,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O38" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P38" s="4">
+      <c r="P38" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
-      <c r="Q38" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R38" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T38" s="4">
+      <c r="U38" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 39</v>
       </c>
       <c r="C39">
@@ -4663,7 +4817,7 @@
         <v>18</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 39</v>
       </c>
       <c r="F39" s="3">
@@ -4680,53 +4834,57 @@
         <v>19</v>
       </c>
       <c r="K39" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 39\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L39" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 39</v>
+      </c>
+      <c r="M39" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 39\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 39</v>
-      </c>
-      <c r="M39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P39,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q39,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N39" s="4" t="e">
+      <c r="O39" s="4" t="e">
         <f>VLOOKUP(C39,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O39" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P39" s="4">
+      <c r="P39" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="Q39" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R39" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S39" s="4">
+      <c r="T39" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T39" s="4">
+      <c r="U39" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 40</v>
       </c>
       <c r="C40">
@@ -4736,7 +4894,7 @@
         <v>18</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 40</v>
       </c>
       <c r="F40" s="3">
@@ -4753,53 +4911,57 @@
         <v>19</v>
       </c>
       <c r="K40" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 40\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L40" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 40</v>
+      </c>
+      <c r="M40" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 40\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 40</v>
-      </c>
-      <c r="M40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P40,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q40,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N40" s="4" t="e">
+      <c r="O40" s="4" t="e">
         <f>VLOOKUP(C40,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O40" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P40" s="4">
+      <c r="P40" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="Q40" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R40" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S40" s="4">
+      <c r="T40" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T40" s="4">
+      <c r="U40" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 41</v>
       </c>
       <c r="C41">
@@ -4809,7 +4971,7 @@
         <v>18</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 41</v>
       </c>
       <c r="F41" s="3">
@@ -4826,53 +4988,57 @@
         <v>19</v>
       </c>
       <c r="K41" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 41\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L41" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 41</v>
+      </c>
+      <c r="M41" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 41\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 41</v>
-      </c>
-      <c r="M41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P41,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q41,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N41" s="4" t="e">
+      <c r="O41" s="4" t="e">
         <f>VLOOKUP(C41,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O41" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P41" s="4">
+      <c r="P41" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
-      <c r="Q41" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R41" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S41" s="4">
+      <c r="T41" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T41" s="4">
+      <c r="U41" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 42</v>
       </c>
       <c r="C42">
@@ -4882,7 +5048,7 @@
         <v>18</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 42</v>
       </c>
       <c r="F42" s="3">
@@ -4899,53 +5065,57 @@
         <v>19</v>
       </c>
       <c r="K42" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 42\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L42" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 42</v>
+      </c>
+      <c r="M42" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 42\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 42</v>
-      </c>
-      <c r="M42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P42,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q42,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N42" s="4" t="e">
+      <c r="O42" s="4" t="e">
         <f>VLOOKUP(C42,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O42" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P42" s="4">
+      <c r="P42" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="Q42" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R42" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R42" s="4">
+      <c r="S42" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S42" s="4">
+      <c r="T42" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T42" s="4">
+      <c r="U42" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 43</v>
       </c>
       <c r="C43">
@@ -4955,7 +5125,7 @@
         <v>18</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 43</v>
       </c>
       <c r="F43" s="3">
@@ -4972,53 +5142,57 @@
         <v>19</v>
       </c>
       <c r="K43" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 43\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L43" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 43</v>
+      </c>
+      <c r="M43" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 43\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 43</v>
-      </c>
-      <c r="M43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P43,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q43,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N43" s="4" t="e">
+      <c r="O43" s="4" t="e">
         <f>VLOOKUP(C43,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O43" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P43" s="4">
+      <c r="P43" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
-      <c r="Q43" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R43" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S43" s="4">
+      <c r="T43" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T43" s="4">
+      <c r="U43" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 44</v>
       </c>
       <c r="C44">
@@ -5028,7 +5202,7 @@
         <v>18</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 44</v>
       </c>
       <c r="F44" s="3">
@@ -5045,53 +5219,57 @@
         <v>19</v>
       </c>
       <c r="K44" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 44\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L44" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 44</v>
+      </c>
+      <c r="M44" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 44\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 44</v>
-      </c>
-      <c r="M44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P44,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q44,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N44" s="4" t="e">
+      <c r="O44" s="4" t="e">
         <f>VLOOKUP(C44,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O44" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P44" s="4">
+      <c r="P44" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
-      <c r="Q44" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R44" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S44" s="4">
+      <c r="T44" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T44" s="4">
+      <c r="U44" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 45</v>
       </c>
       <c r="C45">
@@ -5101,7 +5279,7 @@
         <v>18</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 45</v>
       </c>
       <c r="F45" s="3">
@@ -5118,53 +5296,57 @@
         <v>19</v>
       </c>
       <c r="K45" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 45\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L45" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 45</v>
+      </c>
+      <c r="M45" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 45\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 45</v>
-      </c>
-      <c r="M45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P45,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q45,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N45" s="4" t="e">
+      <c r="O45" s="4" t="e">
         <f>VLOOKUP(C45,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O45" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P45" s="4">
+      <c r="P45" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q45" s="4">
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
-      <c r="Q45" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R45" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S45" s="4">
+      <c r="T45" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T45" s="4">
+      <c r="U45" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 46</v>
       </c>
       <c r="C46">
@@ -5174,7 +5356,7 @@
         <v>18</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 46</v>
       </c>
       <c r="F46" s="3">
@@ -5191,53 +5373,57 @@
         <v>19</v>
       </c>
       <c r="K46" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 46\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L46" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 46</v>
+      </c>
+      <c r="M46" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 46\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 46</v>
-      </c>
-      <c r="M46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P46,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q46,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N46" s="4" t="e">
+      <c r="O46" s="4" t="e">
         <f>VLOOKUP(C46,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O46" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P46" s="4">
+      <c r="P46" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="14"/>
         <v>46</v>
       </c>
-      <c r="Q46" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R46" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S46" s="4">
+      <c r="T46" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T46" s="4">
+      <c r="U46" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 47</v>
       </c>
       <c r="C47">
@@ -5247,7 +5433,7 @@
         <v>18</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 47</v>
       </c>
       <c r="F47" s="3">
@@ -5264,53 +5450,57 @@
         <v>19</v>
       </c>
       <c r="K47" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 47\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L47" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 47</v>
+      </c>
+      <c r="M47" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 47\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 47</v>
-      </c>
-      <c r="M47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P47,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q47,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N47" s="4" t="e">
+      <c r="O47" s="4" t="e">
         <f>VLOOKUP(C47,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O47" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P47" s="4">
+      <c r="P47" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" si="14"/>
         <v>47</v>
       </c>
-      <c r="Q47" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R47" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T47" s="4">
+      <c r="U47" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 48</v>
       </c>
       <c r="C48">
@@ -5320,7 +5510,7 @@
         <v>18</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 48</v>
       </c>
       <c r="F48" s="3">
@@ -5337,53 +5527,57 @@
         <v>19</v>
       </c>
       <c r="K48" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 48\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L48" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 48</v>
+      </c>
+      <c r="M48" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 48\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 48</v>
-      </c>
-      <c r="M48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P48,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q48,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N48" s="4" t="e">
+      <c r="O48" s="4" t="e">
         <f>VLOOKUP(C48,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O48" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P48" s="4">
+      <c r="P48" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q48" s="4">
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
-      <c r="Q48" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R48" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R48" s="4">
+      <c r="S48" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S48" s="4">
+      <c r="T48" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T48" s="4">
+      <c r="U48" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 49</v>
       </c>
       <c r="C49">
@@ -5393,7 +5587,7 @@
         <v>18</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 49</v>
       </c>
       <c r="F49" s="3">
@@ -5410,53 +5604,57 @@
         <v>19</v>
       </c>
       <c r="K49" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 49\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L49" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 49</v>
+      </c>
+      <c r="M49" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 49\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 49</v>
-      </c>
-      <c r="M49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P49,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q49,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N49" s="4" t="e">
+      <c r="O49" s="4" t="e">
         <f>VLOOKUP(C49,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O49" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P49" s="4">
+      <c r="P49" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q49" s="4">
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
-      <c r="Q49" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R49" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T49" s="4">
+      <c r="U49" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 50</v>
       </c>
       <c r="C50">
@@ -5466,7 +5664,7 @@
         <v>18</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 50</v>
       </c>
       <c r="F50" s="3">
@@ -5483,53 +5681,57 @@
         <v>19</v>
       </c>
       <c r="K50" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 50\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L50" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 50</v>
+      </c>
+      <c r="M50" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 50\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0  - 202303 - 30000000000 - Cliente 50</v>
-      </c>
-      <c r="M50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P50,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q50,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N50" s="4" t="e">
+      <c r="O50" s="4" t="e">
         <f>VLOOKUP(C50,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O50" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P50" s="4">
+      <c r="P50" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q50" s="4">
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="Q50" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R50" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R50" s="4">
+      <c r="S50" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S50" s="4">
+      <c r="T50" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T50" s="4">
+      <c r="U50" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 51</v>
       </c>
       <c r="C51">
@@ -5539,7 +5741,7 @@
         <v>18</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 51</v>
       </c>
       <c r="F51" s="3">
@@ -5556,53 +5758,57 @@
         <v>19</v>
       </c>
       <c r="K51" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 51\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L51" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 51</v>
+      </c>
+      <c r="M51" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 51\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L51" s="2" t="str">
-        <f>CONCATENATE(TEXT(A51,"0"),"  - ",TEXT(F51,"AAAAMM")," - ",SUBSTITUTE(D51,"-","")," - ",B51)</f>
-        <v>0  - 202303 - 30000000000 - Cliente 51</v>
-      </c>
-      <c r="M51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P51,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q51,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N51" s="4" t="e">
+      <c r="O51" s="4" t="e">
         <f>VLOOKUP(C51,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O51" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P51" s="4">
+      <c r="P51" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q51" s="4">
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
-      <c r="Q51" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R51" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S51" s="4">
+      <c r="T51" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T51" s="4">
+      <c r="U51" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 52</v>
       </c>
       <c r="C52">
@@ -5612,7 +5818,7 @@
         <v>18</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 52</v>
       </c>
       <c r="F52" s="3">
@@ -5629,53 +5835,57 @@
         <v>19</v>
       </c>
       <c r="K52" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 52\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L52" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 52</v>
+      </c>
+      <c r="M52" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 52\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L52" s="2" t="str">
-        <f t="shared" ref="L52:L69" si="18">CONCATENATE(TEXT(A52,"0"),"  - ",TEXT(F52,"AAAAMM")," - ",SUBSTITUTE(D52,"-","")," - ",B52)</f>
-        <v>0  - 202303 - 30000000000 - Cliente 52</v>
-      </c>
-      <c r="M52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P52,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q52,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N52" s="4" t="e">
+      <c r="O52" s="4" t="e">
         <f>VLOOKUP(C52,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O52" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P52" s="4">
+      <c r="P52" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q52" s="4">
+        <f t="shared" si="14"/>
         <v>52</v>
       </c>
-      <c r="Q52" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R52" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R52" s="4">
+      <c r="S52" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S52" s="4">
+      <c r="T52" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T52" s="4">
+      <c r="U52" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 53</v>
       </c>
       <c r="C53">
@@ -5685,7 +5895,7 @@
         <v>18</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 53</v>
       </c>
       <c r="F53" s="3">
@@ -5702,53 +5912,57 @@
         <v>19</v>
       </c>
       <c r="K53" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 53\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L53" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 53</v>
+      </c>
+      <c r="M53" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 53\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L53" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 53</v>
-      </c>
-      <c r="M53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P53,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q53,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N53" s="4" t="e">
+      <c r="O53" s="4" t="e">
         <f>VLOOKUP(C53,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O53" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P53" s="4">
+      <c r="P53" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q53" s="4">
+        <f t="shared" si="14"/>
         <v>53</v>
       </c>
-      <c r="Q53" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R53" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R53" s="4">
+      <c r="S53" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S53" s="4">
+      <c r="T53" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T53" s="4">
+      <c r="U53" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 54</v>
       </c>
       <c r="C54">
@@ -5758,7 +5972,7 @@
         <v>18</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 54</v>
       </c>
       <c r="F54" s="3">
@@ -5775,53 +5989,57 @@
         <v>19</v>
       </c>
       <c r="K54" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 54\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L54" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 54</v>
+      </c>
+      <c r="M54" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 54\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L54" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 54</v>
-      </c>
-      <c r="M54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P54,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q54,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N54" s="4" t="e">
+      <c r="O54" s="4" t="e">
         <f>VLOOKUP(C54,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O54" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P54" s="4">
+      <c r="P54" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q54" s="4">
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="Q54" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R54" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R54" s="4">
+      <c r="S54" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S54" s="4">
+      <c r="T54" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T54" s="4">
+      <c r="U54" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 55</v>
       </c>
       <c r="C55">
@@ -5831,7 +6049,7 @@
         <v>18</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 55</v>
       </c>
       <c r="F55" s="3">
@@ -5848,53 +6066,57 @@
         <v>19</v>
       </c>
       <c r="K55" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 55\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L55" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 55</v>
+      </c>
+      <c r="M55" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 55\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L55" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 55</v>
-      </c>
-      <c r="M55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P55,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q55,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N55" s="4" t="e">
+      <c r="O55" s="4" t="e">
         <f>VLOOKUP(C55,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O55" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P55" s="4">
+      <c r="P55" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q55" s="4">
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
-      <c r="Q55" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R55" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R55" s="4">
+      <c r="S55" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S55" s="4">
+      <c r="T55" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T55" s="4">
+      <c r="U55" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 56</v>
       </c>
       <c r="C56">
@@ -5904,7 +6126,7 @@
         <v>18</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 56</v>
       </c>
       <c r="F56" s="3">
@@ -5921,53 +6143,57 @@
         <v>19</v>
       </c>
       <c r="K56" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 56\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L56" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 56</v>
+      </c>
+      <c r="M56" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 56\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L56" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 56</v>
-      </c>
-      <c r="M56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P56,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q56,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N56" s="4" t="e">
+      <c r="O56" s="4" t="e">
         <f>VLOOKUP(C56,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O56" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P56" s="4">
+      <c r="P56" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q56" s="4">
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
-      <c r="Q56" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R56" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R56" s="4">
+      <c r="S56" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S56" s="4">
+      <c r="T56" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T56" s="4">
+      <c r="U56" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 57</v>
       </c>
       <c r="C57">
@@ -5977,7 +6203,7 @@
         <v>18</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 57</v>
       </c>
       <c r="F57" s="3">
@@ -5994,53 +6220,57 @@
         <v>19</v>
       </c>
       <c r="K57" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 57\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L57" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 57</v>
+      </c>
+      <c r="M57" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 57\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L57" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 57</v>
-      </c>
-      <c r="M57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P57,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q57,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N57" s="4" t="e">
+      <c r="O57" s="4" t="e">
         <f>VLOOKUP(C57,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O57" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P57" s="4">
+      <c r="P57" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q57" s="4">
+        <f t="shared" si="14"/>
         <v>57</v>
       </c>
-      <c r="Q57" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R57" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R57" s="4">
+      <c r="S57" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S57" s="4">
+      <c r="T57" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T57" s="4">
+      <c r="U57" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 58</v>
       </c>
       <c r="C58">
@@ -6050,7 +6280,7 @@
         <v>18</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 58</v>
       </c>
       <c r="F58" s="3">
@@ -6067,53 +6297,57 @@
         <v>19</v>
       </c>
       <c r="K58" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 58\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L58" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 58</v>
+      </c>
+      <c r="M58" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 58\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L58" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 58</v>
-      </c>
-      <c r="M58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P58,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q58,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N58" s="4" t="e">
+      <c r="O58" s="4" t="e">
         <f>VLOOKUP(C58,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O58" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P58" s="4">
+      <c r="P58" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q58" s="4">
+        <f t="shared" si="14"/>
         <v>58</v>
       </c>
-      <c r="Q58" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R58" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R58" s="4">
+      <c r="S58" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S58" s="4">
+      <c r="T58" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T58" s="4">
+      <c r="U58" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 59</v>
       </c>
       <c r="C59">
@@ -6123,7 +6357,7 @@
         <v>18</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 59</v>
       </c>
       <c r="F59" s="3">
@@ -6140,53 +6374,57 @@
         <v>19</v>
       </c>
       <c r="K59" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 59\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L59" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 59</v>
+      </c>
+      <c r="M59" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 59\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L59" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 59</v>
-      </c>
-      <c r="M59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P59,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q59,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N59" s="4" t="e">
+      <c r="O59" s="4" t="e">
         <f>VLOOKUP(C59,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O59" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P59" s="4">
+      <c r="P59" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q59" s="4">
+        <f t="shared" si="14"/>
         <v>59</v>
       </c>
-      <c r="Q59" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R59" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R59" s="4">
+      <c r="S59" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S59" s="4">
+      <c r="T59" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T59" s="4">
+      <c r="U59" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 60</v>
       </c>
       <c r="C60">
@@ -6196,7 +6434,7 @@
         <v>18</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 60</v>
       </c>
       <c r="F60" s="3">
@@ -6213,53 +6451,57 @@
         <v>19</v>
       </c>
       <c r="K60" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 60\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L60" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 60</v>
+      </c>
+      <c r="M60" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 60\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L60" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 60</v>
-      </c>
-      <c r="M60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P60,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q60,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N60" s="4" t="e">
+      <c r="O60" s="4" t="e">
         <f>VLOOKUP(C60,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O60" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P60" s="4">
+      <c r="P60" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q60" s="4">
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="Q60" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R60" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R60" s="4">
+      <c r="S60" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S60" s="4">
+      <c r="T60" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T60" s="4">
+      <c r="U60" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 61</v>
       </c>
       <c r="C61">
@@ -6269,7 +6511,7 @@
         <v>18</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 61</v>
       </c>
       <c r="F61" s="3">
@@ -6286,53 +6528,57 @@
         <v>19</v>
       </c>
       <c r="K61" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 61\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L61" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 61</v>
+      </c>
+      <c r="M61" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 61\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L61" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 61</v>
-      </c>
-      <c r="M61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P61,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q61,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N61" s="4" t="e">
+      <c r="O61" s="4" t="e">
         <f>VLOOKUP(C61,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O61" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P61" s="4">
+      <c r="P61" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q61" s="4">
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="Q61" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R61" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R61" s="4">
+      <c r="S61" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S61" s="4">
+      <c r="T61" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T61" s="4">
+      <c r="U61" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 62</v>
       </c>
       <c r="C62">
@@ -6342,7 +6588,7 @@
         <v>18</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 62</v>
       </c>
       <c r="F62" s="3">
@@ -6359,53 +6605,57 @@
         <v>19</v>
       </c>
       <c r="K62" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 62\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L62" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 62</v>
+      </c>
+      <c r="M62" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 62\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L62" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 62</v>
-      </c>
-      <c r="M62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P62,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q62,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N62" s="4" t="e">
+      <c r="O62" s="4" t="e">
         <f>VLOOKUP(C62,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O62" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P62" s="4">
+      <c r="P62" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q62" s="4">
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
-      <c r="Q62" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R62" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R62" s="4">
+      <c r="S62" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S62" s="4">
+      <c r="T62" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T62" s="4">
+      <c r="U62" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 63</v>
       </c>
       <c r="C63">
@@ -6415,7 +6665,7 @@
         <v>18</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 63</v>
       </c>
       <c r="F63" s="3">
@@ -6432,53 +6682,57 @@
         <v>19</v>
       </c>
       <c r="K63" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 63\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L63" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 63</v>
+      </c>
+      <c r="M63" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 63\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L63" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 63</v>
-      </c>
-      <c r="M63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P63,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q63,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N63" s="4" t="e">
+      <c r="O63" s="4" t="e">
         <f>VLOOKUP(C63,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O63" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P63" s="4">
+      <c r="P63" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q63" s="4">
+        <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="Q63" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R63" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R63" s="4">
+      <c r="S63" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S63" s="4">
+      <c r="T63" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T63" s="4">
+      <c r="U63" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 64</v>
       </c>
       <c r="C64">
@@ -6488,7 +6742,7 @@
         <v>18</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 64</v>
       </c>
       <c r="F64" s="3">
@@ -6505,53 +6759,57 @@
         <v>19</v>
       </c>
       <c r="K64" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 64\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L64" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 64</v>
+      </c>
+      <c r="M64" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 64\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L64" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 64</v>
-      </c>
-      <c r="M64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P64,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q64,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N64" s="4" t="e">
+      <c r="O64" s="4" t="e">
         <f>VLOOKUP(C64,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O64" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P64" s="4">
+      <c r="P64" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q64" s="4">
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
-      <c r="Q64" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R64" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R64" s="4">
+      <c r="S64" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S64" s="4">
+      <c r="T64" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T64" s="4">
+      <c r="U64" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 65</v>
       </c>
       <c r="C65">
@@ -6561,7 +6819,7 @@
         <v>18</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 65</v>
       </c>
       <c r="F65" s="3">
@@ -6578,53 +6836,57 @@
         <v>19</v>
       </c>
       <c r="K65" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 65\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L65" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 65</v>
+      </c>
+      <c r="M65" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 65\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L65" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 65</v>
-      </c>
-      <c r="M65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P65,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q65,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N65" s="4" t="e">
+      <c r="O65" s="4" t="e">
         <f>VLOOKUP(C65,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O65" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P65" s="4">
+      <c r="P65" s="5" t="e">
         <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q65" s="4">
+        <f t="shared" si="14"/>
         <v>65</v>
       </c>
-      <c r="Q65" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R65" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R65" s="4">
+      <c r="S65" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S65" s="4">
+      <c r="T65" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T65" s="4">
+      <c r="U65" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Cliente 66</v>
       </c>
       <c r="C66">
@@ -6634,7 +6896,7 @@
         <v>18</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>Clave 66</v>
       </c>
       <c r="F66" s="3">
@@ -6651,53 +6913,57 @@
         <v>19</v>
       </c>
       <c r="K66" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 66\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L66" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0  - 202303 - 30000000000 - Cliente 66</v>
+      </c>
+      <c r="M66" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 66\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L66" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 66</v>
-      </c>
-      <c r="M66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P66,[1]Control!$A:$B,2,0),"")</f>
+        <v>202303</v>
+      </c>
+      <c r="N66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q66,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="N66" s="4" t="e">
+      <c r="O66" s="4" t="e">
         <f>VLOOKUP(C66,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O66" s="5" t="e">
-        <f t="shared" ref="O66:O69" si="19">IF(EXACT(N66,E66),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P66" s="4">
-        <f t="shared" si="13"/>
+      <c r="P66" s="5" t="e">
+        <f t="shared" ref="P66:P69" si="18">IF(EXACT(O66,E66),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q66" s="4">
+        <f t="shared" si="14"/>
         <v>66</v>
       </c>
-      <c r="Q66" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R66" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="R66" s="4">
+      <c r="S66" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S66" s="4">
+      <c r="T66" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T66" s="4">
-        <f t="shared" ref="T66:T67" si="20">SUM(R66:S66)</f>
+      <c r="U66" s="4">
+        <f t="shared" ref="U66:U67" si="19">SUM(S66:T66)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B69" si="21">"Cliente "&amp;ROW()</f>
+        <f t="shared" ref="B67:B69" si="20">"Cliente "&amp;ROW()</f>
         <v>Cliente 67</v>
       </c>
       <c r="C67">
@@ -6707,7 +6973,7 @@
         <v>18</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E69" si="22">"Clave "&amp;ROW()</f>
+        <f t="shared" ref="E67:E69" si="21">"Clave "&amp;ROW()</f>
         <v>Clave 67</v>
       </c>
       <c r="F67" s="3">
@@ -6724,53 +6990,57 @@
         <v>19</v>
       </c>
       <c r="K67" s="2" t="str">
-        <f t="shared" ref="K67:K69" si="23">CONCATENATE(J67,"\",B67,"\","COMVEN LID","\",YEAR(F67),"\",TEXT(MONTH(F67),"00"),"\")</f>
+        <f t="shared" ref="K67:K69" si="22">CONCATENATE(J67,"\",B67,"\","COMVEN LID","\",YEAR(F67),"\",TEXT(MONTH(F67),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 67\COMVEN LID\2023\03\</v>
       </c>
       <c r="L67" s="2" t="str">
+        <f t="shared" ref="L67:L69" si="23">CONCATENATE(TEXT(A67,"0"),"  - ",M67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <v>0  - 202303 - 30000000000 - Cliente 67</v>
+      </c>
+      <c r="M67" s="2" t="str">
+        <f t="shared" ref="M67:M69" si="24">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
+        <v>202303</v>
+      </c>
+      <c r="N67" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q67,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O67" s="4" t="e">
+        <f>VLOOKUP(C67,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P67" s="5" t="e">
         <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 67</v>
-      </c>
-      <c r="M67" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P67,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N67" s="4" t="e">
-        <f>VLOOKUP(C67,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O67" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q67" s="4">
+        <f t="shared" si="14"/>
+        <v>67</v>
+      </c>
+      <c r="R67" s="4" t="str">
+        <f t="shared" ref="R67:R69" si="25">TEXT(MONTH(F67),"00")&amp;"/"&amp;YEAR(F67)</f>
+        <v>03/2023</v>
+      </c>
+      <c r="S67" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T67" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U67" s="4">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P67" s="4">
-        <f t="shared" si="13"/>
-        <v>67</v>
-      </c>
-      <c r="Q67" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>03/2023</v>
-      </c>
-      <c r="R67" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="S67" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="T67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="B68" t="str">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="B68" t="str">
-        <f t="shared" si="21"/>
         <v>Cliente 68</v>
       </c>
       <c r="C68">
@@ -6780,7 +7050,7 @@
         <v>18</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Clave 68</v>
       </c>
       <c r="F68" s="3">
@@ -6797,53 +7067,57 @@
         <v>19</v>
       </c>
       <c r="K68" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 68\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L68" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 68\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L68" s="2" t="str">
+        <v>0  - 202303 - 30000000000 - Cliente 68</v>
+      </c>
+      <c r="M68" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>202303</v>
+      </c>
+      <c r="N68" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q68,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O68" s="4" t="e">
+        <f>VLOOKUP(C68,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P68" s="5" t="e">
         <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 68</v>
-      </c>
-      <c r="M68" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P68,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N68" s="4" t="e">
-        <f>VLOOKUP(C68,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O68" s="5" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P68" s="4">
-        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q68" s="4">
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="Q68" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R68" s="4" t="str">
+        <f t="shared" si="25"/>
         <v>03/2023</v>
       </c>
-      <c r="R68" s="4">
+      <c r="S68" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S68" s="4">
+      <c r="T68" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="T68" s="4">
-        <f t="shared" ref="T68:T69" si="24">SUM(R68:S68)</f>
+      <c r="U68" s="4">
+        <f t="shared" ref="U68:U69" si="26">SUM(S68:T68)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Cliente 69</v>
       </c>
       <c r="C69">
@@ -6853,7 +7127,7 @@
         <v>18</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Clave 69</v>
       </c>
       <c r="F69" s="3">
@@ -6870,49 +7144,53 @@
         <v>19</v>
       </c>
       <c r="K69" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 69\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="L69" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 69\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="L69" s="2" t="str">
+        <v>0  - 202303 - 30000000000 - Cliente 69</v>
+      </c>
+      <c r="M69" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>202303</v>
+      </c>
+      <c r="N69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(Q69,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O69" s="4" t="e">
+        <f>VLOOKUP(C69,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P69" s="5" t="e">
         <f t="shared" si="18"/>
-        <v>0  - 202303 - 30000000000 - Cliente 69</v>
-      </c>
-      <c r="M69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(P69,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N69" s="4" t="e">
-        <f>VLOOKUP(C69,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O69" s="5" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P69" s="4">
-        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q69" s="4">
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
-      <c r="Q69" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="R69" s="4" t="str">
+        <f t="shared" si="25"/>
         <v>03/2023</v>
       </c>
-      <c r="R69" s="4">
+      <c r="S69" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S69" s="4">
+      <c r="T69" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T69" s="4">
-        <f t="shared" si="24"/>
+      <c r="U69" s="4">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
+  <autoFilter ref="A1:U69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>

--- a/Listado COMVEN LID AFIP.xlsx
+++ b/Listado COMVEN LID AFIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAED676E-F789-419B-A276-C24AC50D6072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4008DC-9248-46C8-8DC6-26A3F3D297A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>Fila</t>
   </si>
   <si>
-    <t>Periodo</t>
-  </si>
-  <si>
     <t>Anterior</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>AAAAMM</t>
+  </si>
+  <si>
+    <t>Periodo AFIP</t>
   </si>
 </sst>
 </file>
@@ -1904,25 +1904,25 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -1937,16 +1937,16 @@
         <v>10</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1973,14 +1973,14 @@
         <v>44986</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="str">
         <f>CONCATENATE(J2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
@@ -2051,14 +2051,14 @@
         <v>44986</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" ref="K3:K66" si="8">CONCATENATE(J3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
@@ -2129,14 +2129,14 @@
         <v>44986</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" si="8"/>
@@ -2196,7 +2196,7 @@
         <v>20000000000</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="7"/>
@@ -2206,14 +2206,14 @@
         <v>44986</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="8"/>
@@ -2273,7 +2273,7 @@
         <v>20000000000</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="7"/>
@@ -2283,14 +2283,14 @@
         <v>44986</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="8"/>
@@ -2350,7 +2350,7 @@
         <v>20000000000</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="7"/>
@@ -2360,14 +2360,14 @@
         <v>44986</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="8"/>
@@ -2427,7 +2427,7 @@
         <v>20000000000</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="7"/>
@@ -2437,14 +2437,14 @@
         <v>44986</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="8"/>
@@ -2504,7 +2504,7 @@
         <v>20000000000</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="7"/>
@@ -2514,14 +2514,14 @@
         <v>44986</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="8"/>
@@ -2581,7 +2581,7 @@
         <v>20000000000</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="7"/>
@@ -2591,14 +2591,14 @@
         <v>44986</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="8"/>
@@ -2658,7 +2658,7 @@
         <v>20000000000</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="7"/>
@@ -2668,14 +2668,14 @@
         <v>44986</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="8"/>
@@ -2735,7 +2735,7 @@
         <v>20000000000</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="7"/>
@@ -2745,14 +2745,14 @@
         <v>44986</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
         <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="8"/>
@@ -2812,7 +2812,7 @@
         <v>20000000000</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="7"/>
@@ -2822,14 +2822,14 @@
         <v>44986</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
         <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="8"/>
@@ -2889,7 +2889,7 @@
         <v>20000000000</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="7"/>
@@ -2899,14 +2899,14 @@
         <v>44986</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="8"/>
@@ -2966,7 +2966,7 @@
         <v>20000000000</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="7"/>
@@ -2976,14 +2976,14 @@
         <v>44986</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3043,7 +3043,7 @@
         <v>20000000000</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="7"/>
@@ -3053,14 +3053,14 @@
         <v>44986</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3120,7 +3120,7 @@
         <v>20000000000</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="7"/>
@@ -3130,14 +3130,14 @@
         <v>44986</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3197,7 +3197,7 @@
         <v>20000000000</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="7"/>
@@ -3207,14 +3207,14 @@
         <v>44986</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3274,7 +3274,7 @@
         <v>20000000000</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="7"/>
@@ -3284,14 +3284,14 @@
         <v>44986</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
         <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>23</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3351,7 +3351,7 @@
         <v>20000000000</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="7"/>
@@ -3361,14 +3361,14 @@
         <v>44986</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3428,7 +3428,7 @@
         <v>20000000000</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="7"/>
@@ -3438,14 +3438,14 @@
         <v>44986</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3505,7 +3505,7 @@
         <v>20000000000</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="7"/>
@@ -3515,14 +3515,14 @@
         <v>44986</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3582,7 +3582,7 @@
         <v>20000000000</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="7"/>
@@ -3592,14 +3592,14 @@
         <v>44986</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3659,7 +3659,7 @@
         <v>20000000000</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="7"/>
@@ -3669,14 +3669,14 @@
         <v>44986</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3736,7 +3736,7 @@
         <v>20000000000</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="7"/>
@@ -3746,14 +3746,14 @@
         <v>44986</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
         <v>22</v>
-      </c>
-      <c r="H25" t="s">
-        <v>23</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3813,7 +3813,7 @@
         <v>20000000000</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="7"/>
@@ -3823,14 +3823,14 @@
         <v>44986</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
         <v>22</v>
-      </c>
-      <c r="H26" t="s">
-        <v>23</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3890,7 +3890,7 @@
         <v>20000000000</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="7"/>
@@ -3900,14 +3900,14 @@
         <v>44986</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
         <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>23</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="8"/>
@@ -3967,7 +3967,7 @@
         <v>20000000000</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="7"/>
@@ -3977,14 +3977,14 @@
         <v>44986</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4044,7 +4044,7 @@
         <v>20000000000</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="7"/>
@@ -4054,14 +4054,14 @@
         <v>44986</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
         <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>23</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4121,7 +4121,7 @@
         <v>20000000000</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="7"/>
@@ -4131,14 +4131,14 @@
         <v>44986</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K30" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4198,7 +4198,7 @@
         <v>20000000000</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="7"/>
@@ -4208,14 +4208,14 @@
         <v>44986</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
         <v>22</v>
-      </c>
-      <c r="H31" t="s">
-        <v>23</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K31" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4275,7 +4275,7 @@
         <v>20000000000</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="7"/>
@@ -4285,14 +4285,14 @@
         <v>44986</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4352,7 +4352,7 @@
         <v>20000000000</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="7"/>
@@ -4362,14 +4362,14 @@
         <v>44986</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
         <v>22</v>
-      </c>
-      <c r="H33" t="s">
-        <v>23</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K33" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4429,7 +4429,7 @@
         <v>20000000000</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="7"/>
@@ -4439,14 +4439,14 @@
         <v>44986</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K34" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4506,7 +4506,7 @@
         <v>20000000000</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="7"/>
@@ -4516,14 +4516,14 @@
         <v>44986</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
         <v>22</v>
-      </c>
-      <c r="H35" t="s">
-        <v>23</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K35" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4583,7 +4583,7 @@
         <v>20000000000</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="7"/>
@@ -4593,14 +4593,14 @@
         <v>44986</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K36" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4660,7 +4660,7 @@
         <v>20000000000</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="7"/>
@@ -4670,14 +4670,14 @@
         <v>44986</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
         <v>22</v>
-      </c>
-      <c r="H37" t="s">
-        <v>23</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K37" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4737,7 +4737,7 @@
         <v>20000000000</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="7"/>
@@ -4747,14 +4747,14 @@
         <v>44986</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
         <v>22</v>
-      </c>
-      <c r="H38" t="s">
-        <v>23</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K38" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4814,7 +4814,7 @@
         <v>20000000000</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="7"/>
@@ -4824,14 +4824,14 @@
         <v>44986</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K39" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4891,7 +4891,7 @@
         <v>20000000000</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="7"/>
@@ -4901,14 +4901,14 @@
         <v>44986</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
         <v>22</v>
-      </c>
-      <c r="H40" t="s">
-        <v>23</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K40" s="2" t="str">
         <f t="shared" si="8"/>
@@ -4968,7 +4968,7 @@
         <v>20000000000</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="7"/>
@@ -4978,14 +4978,14 @@
         <v>44986</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
         <v>22</v>
-      </c>
-      <c r="H41" t="s">
-        <v>23</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K41" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5045,7 +5045,7 @@
         <v>20000000000</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="7"/>
@@ -5055,14 +5055,14 @@
         <v>44986</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K42" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5122,7 +5122,7 @@
         <v>20000000000</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="7"/>
@@ -5132,14 +5132,14 @@
         <v>44986</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K43" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5199,7 +5199,7 @@
         <v>20000000000</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="7"/>
@@ -5209,14 +5209,14 @@
         <v>44986</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K44" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5276,7 +5276,7 @@
         <v>20000000000</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="7"/>
@@ -5286,14 +5286,14 @@
         <v>44986</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
         <v>22</v>
-      </c>
-      <c r="H45" t="s">
-        <v>23</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K45" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5353,7 +5353,7 @@
         <v>20000000000</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="7"/>
@@ -5363,14 +5363,14 @@
         <v>44986</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
         <v>22</v>
-      </c>
-      <c r="H46" t="s">
-        <v>23</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K46" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5430,7 +5430,7 @@
         <v>20000000000</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="7"/>
@@ -5440,14 +5440,14 @@
         <v>44986</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K47" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5507,7 +5507,7 @@
         <v>20000000000</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="7"/>
@@ -5517,14 +5517,14 @@
         <v>44986</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
         <v>22</v>
-      </c>
-      <c r="H48" t="s">
-        <v>23</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K48" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5584,7 +5584,7 @@
         <v>20000000000</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="7"/>
@@ -5594,14 +5594,14 @@
         <v>44986</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
         <v>22</v>
-      </c>
-      <c r="H49" t="s">
-        <v>23</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K49" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5661,7 +5661,7 @@
         <v>20000000000</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="7"/>
@@ -5671,14 +5671,14 @@
         <v>44986</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K50" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5738,7 +5738,7 @@
         <v>20000000000</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="7"/>
@@ -5748,14 +5748,14 @@
         <v>44986</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K51" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5815,7 +5815,7 @@
         <v>20000000000</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="7"/>
@@ -5825,14 +5825,14 @@
         <v>44986</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K52" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5892,7 +5892,7 @@
         <v>20000000000</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="7"/>
@@ -5902,14 +5902,14 @@
         <v>44986</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
         <v>22</v>
-      </c>
-      <c r="H53" t="s">
-        <v>23</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K53" s="2" t="str">
         <f t="shared" si="8"/>
@@ -5969,7 +5969,7 @@
         <v>20000000000</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="7"/>
@@ -5979,14 +5979,14 @@
         <v>44986</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K54" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6046,7 +6046,7 @@
         <v>20000000000</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="7"/>
@@ -6056,14 +6056,14 @@
         <v>44986</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K55" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6123,7 +6123,7 @@
         <v>20000000000</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="7"/>
@@ -6133,14 +6133,14 @@
         <v>44986</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K56" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6200,7 +6200,7 @@
         <v>20000000000</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="7"/>
@@ -6210,14 +6210,14 @@
         <v>44986</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K57" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6277,7 +6277,7 @@
         <v>20000000000</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="7"/>
@@ -6287,14 +6287,14 @@
         <v>44986</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K58" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6354,7 +6354,7 @@
         <v>20000000000</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="7"/>
@@ -6364,14 +6364,14 @@
         <v>44986</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K59" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6431,7 +6431,7 @@
         <v>20000000000</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="7"/>
@@ -6441,14 +6441,14 @@
         <v>44986</v>
       </c>
       <c r="G60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
         <v>22</v>
-      </c>
-      <c r="H60" t="s">
-        <v>23</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K60" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6508,7 +6508,7 @@
         <v>20000000000</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="7"/>
@@ -6518,14 +6518,14 @@
         <v>44986</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K61" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6585,7 +6585,7 @@
         <v>20000000000</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="7"/>
@@ -6595,14 +6595,14 @@
         <v>44986</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
         <v>22</v>
-      </c>
-      <c r="H62" t="s">
-        <v>23</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K62" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6662,7 +6662,7 @@
         <v>20000000000</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="7"/>
@@ -6672,14 +6672,14 @@
         <v>44986</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
         <v>22</v>
-      </c>
-      <c r="H63" t="s">
-        <v>23</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K63" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6739,7 +6739,7 @@
         <v>20000000000</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="7"/>
@@ -6749,14 +6749,14 @@
         <v>44986</v>
       </c>
       <c r="G64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
         <v>22</v>
-      </c>
-      <c r="H64" t="s">
-        <v>23</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K64" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6816,7 +6816,7 @@
         <v>20000000000</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="7"/>
@@ -6826,14 +6826,14 @@
         <v>44986</v>
       </c>
       <c r="G65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
         <v>22</v>
-      </c>
-      <c r="H65" t="s">
-        <v>23</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K65" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6893,7 +6893,7 @@
         <v>20000000000</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="7"/>
@@ -6903,14 +6903,14 @@
         <v>44986</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
         <v>22</v>
-      </c>
-      <c r="H66" t="s">
-        <v>23</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K66" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6970,7 +6970,7 @@
         <v>20000000000</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E69" si="21">"Clave "&amp;ROW()</f>
@@ -6980,14 +6980,14 @@
         <v>44986</v>
       </c>
       <c r="G67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s">
         <v>22</v>
-      </c>
-      <c r="H67" t="s">
-        <v>23</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K67" s="2" t="str">
         <f t="shared" ref="K67:K69" si="22">CONCATENATE(J67,"\",B67,"\","COMVEN LID","\",YEAR(F67),"\",TEXT(MONTH(F67),"00"),"\")</f>
@@ -7047,7 +7047,7 @@
         <v>20000000000</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="21"/>
@@ -7057,14 +7057,14 @@
         <v>44986</v>
       </c>
       <c r="G68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" t="s">
         <v>22</v>
-      </c>
-      <c r="H68" t="s">
-        <v>23</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K68" s="2" t="str">
         <f t="shared" si="22"/>
@@ -7124,7 +7124,7 @@
         <v>20000000000</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="21"/>
@@ -7134,14 +7134,14 @@
         <v>44986</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
         <v>22</v>
-      </c>
-      <c r="H69" t="s">
-        <v>23</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K69" s="2" t="str">
         <f t="shared" si="22"/>

--- a/Listado COMVEN LID AFIP.xlsx
+++ b/Listado COMVEN LID AFIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4008DC-9248-46C8-8DC6-26A3F3D297A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1010012B-6019-410B-A5FD-90A3945A8AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$U$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$V$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="29">
   <si>
     <t>Nro</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Periodo AFIP</t>
+  </si>
+  <si>
+    <t>NG/E</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1877,14 +1883,17 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="13" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="14" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,49 +1916,52 @@
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1975,59 +1987,62 @@
       <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="str">
-        <f>CONCATENATE(J2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
+      <c r="L2" s="2" t="str">
+        <f>CONCATENATE(K2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 2\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0"),"  - ",M2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="M2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0"),"  - ",N2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0  - 202303 - 20000000000 - Cliente 2</v>
       </c>
-      <c r="M2" s="2" t="str">
+      <c r="N2" s="2" t="str">
         <f>YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
         <v>202303</v>
       </c>
-      <c r="N2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q2,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R2,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O2" s="4" t="e">
+      <c r="P2" s="4" t="e">
         <f>VLOOKUP(C2,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P2" s="5" t="e">
-        <f t="shared" ref="P2:P33" si="1">IF(EXACT(O2,E2),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q33" si="2">ROW(A2)</f>
+      <c r="Q2" s="5" t="e">
+        <f t="shared" ref="Q2:Q33" si="1">IF(EXACT(P2,E2),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" ref="R2:R33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="R2" s="4" t="str">
+      <c r="S2" s="4" t="str">
         <f>TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
         <v>03/2023</v>
       </c>
-      <c r="S2" s="4">
-        <f t="shared" ref="S2:S33" si="3">IF(C2=C1,1,0)</f>
+      <c r="T2" s="4">
+        <f t="shared" ref="T2:T33" si="3">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="4">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="U2" s="4">
-        <f t="shared" ref="U2:U33" si="5">SUM(S2:T2)</f>
+        <f t="shared" ref="U2:U33" si="4">IF(C2=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" ref="V2:V33" si="5">SUM(T2:U2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2053,59 +2068,62 @@
       <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K66" si="8">CONCATENATE(J3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+      <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L66" si="8">CONCATENATE(K3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 3\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L66" si="9">CONCATENATE(TEXT(A3,"0"),"  - ",M3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M66" si="9">CONCATENATE(TEXT(A3,"0"),"  - ",N3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0  - 202303 - 20000000000 - Cliente 3</v>
       </c>
-      <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M66" si="10">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
+      <c r="N3" s="2" t="str">
+        <f t="shared" ref="N3:N66" si="10">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
         <v>202303</v>
       </c>
-      <c r="N3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q3,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R3,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O3" s="4" t="e">
+      <c r="P3" s="4" t="e">
         <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P3" s="5" t="e">
+      <c r="Q3" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R66" si="11">TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
+      <c r="S3" s="4" t="str">
+        <f t="shared" ref="S3:S66" si="11">TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
         <v>03/2023</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U3" s="4">
+      <c r="V3" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2131,59 +2149,62 @@
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="L4" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 4\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L4" s="2" t="str">
+      <c r="M4" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 20000000000 - Cliente 4</v>
       </c>
-      <c r="M4" s="2" t="str">
+      <c r="N4" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q4,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R4,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O4" s="4" t="e">
+      <c r="P4" s="4" t="e">
         <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P4" s="5" t="e">
+      <c r="Q4" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="R4" s="4" t="str">
+      <c r="S4" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2208,59 +2229,62 @@
       <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="L5" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 5\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="M5" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 5</v>
       </c>
-      <c r="M5" s="2" t="str">
+      <c r="N5" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q5,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R5,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="4" t="e">
+      <c r="P5" s="4" t="e">
         <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P5" s="5" t="e">
+      <c r="Q5" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R5" s="4" t="str">
+      <c r="S5" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2285,59 +2309,60 @@
       <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="L6" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 6\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="M6" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 6</v>
       </c>
-      <c r="M6" s="2" t="str">
+      <c r="N6" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q6,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R6,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O6" s="4" t="e">
+      <c r="P6" s="4" t="e">
         <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P6" s="5" t="e">
+      <c r="Q6" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="R6" s="4" t="str">
+      <c r="S6" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U6" s="4">
+      <c r="V6" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2362,59 +2387,60 @@
       <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="L7" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 7\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L7" s="2" t="str">
+      <c r="M7" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 7</v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="N7" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q7,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R7,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O7" s="4" t="e">
+      <c r="P7" s="4" t="e">
         <f>VLOOKUP(C7,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P7" s="5" t="e">
+      <c r="Q7" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="R7" s="4" t="str">
+      <c r="S7" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U7" s="4">
+      <c r="V7" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2439,59 +2465,62 @@
       <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="L8" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 8\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L8" s="2" t="str">
+      <c r="M8" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 8</v>
       </c>
-      <c r="M8" s="2" t="str">
+      <c r="N8" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q8,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R8,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O8" s="4" t="e">
+      <c r="P8" s="4" t="e">
         <f>VLOOKUP(C8,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P8" s="5" t="e">
+      <c r="Q8" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="R8" s="4" t="str">
+      <c r="S8" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2516,59 +2545,62 @@
       <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 9\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L9" s="2" t="str">
+      <c r="M9" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 9</v>
       </c>
-      <c r="M9" s="2" t="str">
+      <c r="N9" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q9,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R9,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O9" s="4" t="e">
+      <c r="P9" s="4" t="e">
         <f>VLOOKUP(C9,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P9" s="5" t="e">
+      <c r="Q9" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="R9" s="4" t="str">
+      <c r="S9" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2593,59 +2625,60 @@
       <c r="G10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="L10" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 10\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="M10" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 10</v>
       </c>
-      <c r="M10" s="2" t="str">
+      <c r="N10" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q10,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R10,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O10" s="4" t="e">
+      <c r="P10" s="4" t="e">
         <f>VLOOKUP(C10,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P10" s="5" t="e">
+      <c r="Q10" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="R10" s="4" t="str">
+      <c r="S10" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T10" s="4">
+      <c r="U10" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U10" s="4">
+      <c r="V10" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2670,59 +2703,60 @@
       <c r="G11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="L11" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 11\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L11" s="2" t="str">
+      <c r="M11" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 11</v>
       </c>
-      <c r="M11" s="2" t="str">
+      <c r="N11" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q11,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R11,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O11" s="4" t="e">
+      <c r="P11" s="4" t="e">
         <f>VLOOKUP(C11,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P11" s="5" t="e">
+      <c r="Q11" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="R11" s="4" t="str">
+      <c r="S11" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T11" s="4">
+      <c r="U11" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U11" s="4">
+      <c r="V11" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2747,59 +2781,60 @@
       <c r="G12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="L12" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 12\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L12" s="2" t="str">
+      <c r="M12" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 12</v>
       </c>
-      <c r="M12" s="2" t="str">
+      <c r="N12" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q12,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R12,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O12" s="4" t="e">
+      <c r="P12" s="4" t="e">
         <f>VLOOKUP(C12,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P12" s="5" t="e">
+      <c r="Q12" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="R12" s="4" t="str">
+      <c r="S12" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U12" s="4">
+      <c r="V12" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2824,59 +2859,60 @@
       <c r="G13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="L13" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 13\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L13" s="2" t="str">
+      <c r="M13" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 13</v>
       </c>
-      <c r="M13" s="2" t="str">
+      <c r="N13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q13,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R13,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O13" s="4" t="e">
+      <c r="P13" s="4" t="e">
         <f>VLOOKUP(C13,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P13" s="5" t="e">
+      <c r="Q13" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="R13" s="4" t="str">
+      <c r="S13" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2901,59 +2937,62 @@
       <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="L14" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 14\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L14" s="2" t="str">
+      <c r="M14" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 14</v>
       </c>
-      <c r="M14" s="2" t="str">
+      <c r="N14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q14,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R14,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O14" s="4" t="e">
+      <c r="P14" s="4" t="e">
         <f>VLOOKUP(C14,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="5" t="e">
+      <c r="Q14" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="R14" s="4" t="str">
+      <c r="S14" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2978,59 +3017,60 @@
       <c r="G15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="L15" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 15\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L15" s="2" t="str">
+      <c r="M15" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 15</v>
       </c>
-      <c r="M15" s="2" t="str">
+      <c r="N15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q15,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R15,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O15" s="4" t="e">
+      <c r="P15" s="4" t="e">
         <f>VLOOKUP(C15,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P15" s="5" t="e">
+      <c r="Q15" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="R15" s="4" t="str">
+      <c r="S15" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T15" s="4">
+      <c r="U15" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U15" s="4">
+      <c r="V15" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3055,59 +3095,62 @@
       <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="L16" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 16\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L16" s="2" t="str">
+      <c r="M16" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 16</v>
       </c>
-      <c r="M16" s="2" t="str">
+      <c r="N16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q16,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R16,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O16" s="4" t="e">
+      <c r="P16" s="4" t="e">
         <f>VLOOKUP(C16,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="5" t="e">
+      <c r="Q16" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="R16" s="4" t="str">
+      <c r="S16" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T16" s="4">
+      <c r="U16" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U16" s="4">
+      <c r="V16" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3132,59 +3175,62 @@
       <c r="G17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="2" t="str">
+      <c r="L17" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 17\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L17" s="2" t="str">
+      <c r="M17" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 17</v>
       </c>
-      <c r="M17" s="2" t="str">
+      <c r="N17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q17,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R17,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O17" s="4" t="e">
+      <c r="P17" s="4" t="e">
         <f>VLOOKUP(C17,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P17" s="5" t="e">
+      <c r="Q17" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="R17" s="4" t="str">
+      <c r="S17" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3209,59 +3255,60 @@
       <c r="G18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="2" t="str">
+      <c r="L18" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 18\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L18" s="2" t="str">
+      <c r="M18" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 18</v>
       </c>
-      <c r="M18" s="2" t="str">
+      <c r="N18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q18,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R18,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O18" s="4" t="e">
+      <c r="P18" s="4" t="e">
         <f>VLOOKUP(C18,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P18" s="5" t="e">
+      <c r="Q18" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="R18" s="4" t="str">
+      <c r="S18" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3286,59 +3333,60 @@
       <c r="G19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="2" t="str">
+      <c r="L19" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 19\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L19" s="2" t="str">
+      <c r="M19" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 19</v>
       </c>
-      <c r="M19" s="2" t="str">
+      <c r="N19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q19,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R19,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O19" s="4" t="e">
+      <c r="P19" s="4" t="e">
         <f>VLOOKUP(C19,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P19" s="5" t="e">
+      <c r="Q19" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="R19" s="4" t="str">
+      <c r="S19" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3363,59 +3411,60 @@
       <c r="G20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="L20" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 20\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L20" s="2" t="str">
+      <c r="M20" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 20</v>
       </c>
-      <c r="M20" s="2" t="str">
+      <c r="N20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q20,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R20,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O20" s="4" t="e">
+      <c r="P20" s="4" t="e">
         <f>VLOOKUP(C20,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="5" t="e">
+      <c r="Q20" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="R20" s="4" t="str">
+      <c r="S20" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S20" s="4">
+      <c r="T20" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T20" s="4">
+      <c r="U20" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U20" s="4">
+      <c r="V20" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3440,59 +3489,60 @@
       <c r="G21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="2" t="str">
+      <c r="L21" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 21\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L21" s="2" t="str">
+      <c r="M21" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 21</v>
       </c>
-      <c r="M21" s="2" t="str">
+      <c r="N21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q21,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R21,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O21" s="4" t="e">
+      <c r="P21" s="4" t="e">
         <f>VLOOKUP(C21,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P21" s="5" t="e">
+      <c r="Q21" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="4">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="R21" s="4" t="str">
+      <c r="S21" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S21" s="4">
+      <c r="T21" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T21" s="4">
+      <c r="U21" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U21" s="4">
+      <c r="V21" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3517,59 +3567,62 @@
       <c r="G22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="2" t="str">
+      <c r="L22" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 22\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L22" s="2" t="str">
+      <c r="M22" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 22</v>
       </c>
-      <c r="M22" s="2" t="str">
+      <c r="N22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q22,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R22,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O22" s="4" t="e">
+      <c r="P22" s="4" t="e">
         <f>VLOOKUP(C22,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P22" s="5" t="e">
+      <c r="Q22" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="4">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="R22" s="4" t="str">
+      <c r="S22" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U22" s="4">
+      <c r="V22" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3594,59 +3647,62 @@
       <c r="G23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="2" t="str">
+      <c r="L23" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 23\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L23" s="2" t="str">
+      <c r="M23" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 23</v>
       </c>
-      <c r="M23" s="2" t="str">
+      <c r="N23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q23,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R23,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O23" s="4" t="e">
+      <c r="P23" s="4" t="e">
         <f>VLOOKUP(C23,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P23" s="5" t="e">
+      <c r="Q23" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="4">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="R23" s="4" t="str">
+      <c r="S23" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S23" s="4">
+      <c r="T23" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T23" s="4">
+      <c r="U23" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U23" s="4">
+      <c r="V23" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3671,59 +3727,62 @@
       <c r="G24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="2" t="str">
+      <c r="L24" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 24\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L24" s="2" t="str">
+      <c r="M24" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 24</v>
       </c>
-      <c r="M24" s="2" t="str">
+      <c r="N24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q24,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R24,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O24" s="4" t="e">
+      <c r="P24" s="4" t="e">
         <f>VLOOKUP(C24,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P24" s="5" t="e">
+      <c r="Q24" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="R24" s="4">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="R24" s="4" t="str">
+      <c r="S24" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T24" s="4">
+      <c r="U24" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U24" s="4">
+      <c r="V24" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3748,59 +3807,60 @@
       <c r="G25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3"/>
+      <c r="I25" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="L25" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 25\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L25" s="2" t="str">
+      <c r="M25" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 25</v>
       </c>
-      <c r="M25" s="2" t="str">
+      <c r="N25" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q25,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R25,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O25" s="4" t="e">
+      <c r="P25" s="4" t="e">
         <f>VLOOKUP(C25,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="5" t="e">
+      <c r="Q25" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="R25" s="4" t="str">
+      <c r="S25" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T25" s="4">
+      <c r="U25" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U25" s="4">
+      <c r="V25" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3825,59 +3885,60 @@
       <c r="G26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="L26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 26\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L26" s="2" t="str">
+      <c r="M26" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 26</v>
       </c>
-      <c r="M26" s="2" t="str">
+      <c r="N26" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q26,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R26,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O26" s="4" t="e">
+      <c r="P26" s="4" t="e">
         <f>VLOOKUP(C26,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P26" s="5" t="e">
+      <c r="Q26" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="R26" s="4">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="R26" s="4" t="str">
+      <c r="S26" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T26" s="4">
+      <c r="U26" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U26" s="4">
+      <c r="V26" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3902,59 +3963,60 @@
       <c r="G27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="L27" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 27\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L27" s="2" t="str">
+      <c r="M27" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 27</v>
       </c>
-      <c r="M27" s="2" t="str">
+      <c r="N27" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q27,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R27,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O27" s="4" t="e">
+      <c r="P27" s="4" t="e">
         <f>VLOOKUP(C27,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P27" s="5" t="e">
+      <c r="Q27" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="R27" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R27" s="4" t="str">
+      <c r="S27" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T27" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T27" s="4">
+      <c r="U27" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U27" s="4">
+      <c r="V27" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3979,59 +4041,62 @@
       <c r="G28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="L28" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 28\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L28" s="2" t="str">
+      <c r="M28" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 28</v>
       </c>
-      <c r="M28" s="2" t="str">
+      <c r="N28" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q28,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R28,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O28" s="4" t="e">
+      <c r="P28" s="4" t="e">
         <f>VLOOKUP(C28,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P28" s="5" t="e">
+      <c r="Q28" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="R28" s="4" t="str">
+      <c r="S28" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S28" s="4">
+      <c r="T28" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T28" s="4">
+      <c r="U28" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U28" s="4">
+      <c r="V28" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4056,59 +4121,60 @@
       <c r="G29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3"/>
+      <c r="I29" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="L29" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 29\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L29" s="2" t="str">
+      <c r="M29" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 29</v>
       </c>
-      <c r="M29" s="2" t="str">
+      <c r="N29" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q29,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R29,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O29" s="4" t="e">
+      <c r="P29" s="4" t="e">
         <f>VLOOKUP(C29,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P29" s="5" t="e">
+      <c r="Q29" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="R29" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R29" s="4" t="str">
+      <c r="S29" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S29" s="4">
+      <c r="T29" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T29" s="4">
+      <c r="U29" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U29" s="4">
+      <c r="V29" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4133,59 +4199,60 @@
       <c r="G30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="2" t="str">
+      <c r="L30" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 30\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L30" s="2" t="str">
+      <c r="M30" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 30</v>
       </c>
-      <c r="M30" s="2" t="str">
+      <c r="N30" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q30,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R30,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O30" s="4" t="e">
+      <c r="P30" s="4" t="e">
         <f>VLOOKUP(C30,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P30" s="5" t="e">
+      <c r="Q30" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="R30" s="4" t="str">
+      <c r="S30" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T30" s="4">
+      <c r="U30" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U30" s="4">
+      <c r="V30" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4210,59 +4277,60 @@
       <c r="G31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3"/>
+      <c r="I31" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="2" t="str">
+      <c r="L31" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 31\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L31" s="2" t="str">
+      <c r="M31" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 31</v>
       </c>
-      <c r="M31" s="2" t="str">
+      <c r="N31" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q31,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R31,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O31" s="4" t="e">
+      <c r="P31" s="4" t="e">
         <f>VLOOKUP(C31,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P31" s="5" t="e">
+      <c r="Q31" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="R31" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="R31" s="4" t="str">
+      <c r="S31" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S31" s="4">
+      <c r="T31" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T31" s="4">
+      <c r="U31" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U31" s="4">
+      <c r="V31" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4287,59 +4355,60 @@
       <c r="G32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="2" t="str">
+      <c r="L32" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 32\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L32" s="2" t="str">
+      <c r="M32" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 32</v>
       </c>
-      <c r="M32" s="2" t="str">
+      <c r="N32" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q32,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R32,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O32" s="4" t="e">
+      <c r="P32" s="4" t="e">
         <f>VLOOKUP(C32,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P32" s="5" t="e">
+      <c r="Q32" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="R32" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="R32" s="4" t="str">
+      <c r="S32" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S32" s="4">
+      <c r="T32" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T32" s="4">
+      <c r="U32" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U32" s="4">
+      <c r="V32" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4364,59 +4433,60 @@
       <c r="G33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="2" t="str">
+      <c r="L33" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 33\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L33" s="2" t="str">
+      <c r="M33" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 33</v>
       </c>
-      <c r="M33" s="2" t="str">
+      <c r="N33" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q33,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R33,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O33" s="4" t="e">
+      <c r="P33" s="4" t="e">
         <f>VLOOKUP(C33,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P33" s="5" t="e">
+      <c r="Q33" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="R33" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="R33" s="4" t="str">
+      <c r="S33" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T33" s="4">
+      <c r="U33" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U33" s="4">
+      <c r="V33" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" ref="A34:A69" si="12">RIGHT(D34,1)</f>
         <v>0</v>
@@ -4441,59 +4511,60 @@
       <c r="G34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="3"/>
+      <c r="I34" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="2" t="str">
+      <c r="L34" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 34\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L34" s="2" t="str">
+      <c r="M34" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 34</v>
       </c>
-      <c r="M34" s="2" t="str">
+      <c r="N34" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q34,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R34,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O34" s="4" t="e">
+      <c r="P34" s="4" t="e">
         <f>VLOOKUP(C34,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P34" s="5" t="e">
-        <f t="shared" ref="P34:P65" si="13">IF(EXACT(O34,E34),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q69" si="14">ROW(A34)</f>
+      <c r="Q34" s="5" t="e">
+        <f t="shared" ref="Q34:Q65" si="13">IF(EXACT(P34,E34),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" ref="R34:R69" si="14">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="R34" s="4" t="str">
+      <c r="S34" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S34" s="4">
-        <f t="shared" ref="S34:S69" si="15">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="T34" s="4">
-        <f t="shared" ref="T34:T69" si="16">IF(C34=C35,1,0)</f>
+        <f t="shared" ref="T34:T69" si="15">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:U65" si="17">SUM(S34:T34)</f>
+        <f t="shared" ref="U34:U69" si="16">IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V34" s="4">
+        <f t="shared" ref="V34:V65" si="17">SUM(T34:U34)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4518,59 +4589,60 @@
       <c r="G35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="3"/>
+      <c r="I35" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="2" t="str">
+      <c r="L35" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 35\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L35" s="2" t="str">
+      <c r="M35" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 35</v>
       </c>
-      <c r="M35" s="2" t="str">
+      <c r="N35" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q35,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R35,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O35" s="4" t="e">
+      <c r="P35" s="4" t="e">
         <f>VLOOKUP(C35,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P35" s="5" t="e">
+      <c r="Q35" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="R35" s="4">
         <f t="shared" si="14"/>
         <v>35</v>
       </c>
-      <c r="R35" s="4" t="str">
+      <c r="S35" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S35" s="4">
+      <c r="T35" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T35" s="4">
+      <c r="U35" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U35" s="4">
+      <c r="V35" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4595,59 +4667,62 @@
       <c r="G36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="2" t="str">
+      <c r="L36" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 36\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L36" s="2" t="str">
+      <c r="M36" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 36</v>
       </c>
-      <c r="M36" s="2" t="str">
+      <c r="N36" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q36,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R36,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O36" s="4" t="e">
+      <c r="P36" s="4" t="e">
         <f>VLOOKUP(C36,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P36" s="5" t="e">
+      <c r="Q36" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="4">
         <f t="shared" si="14"/>
         <v>36</v>
       </c>
-      <c r="R36" s="4" t="str">
+      <c r="S36" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S36" s="4">
+      <c r="T36" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T36" s="4">
+      <c r="U36" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U36" s="4">
+      <c r="V36" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4672,59 +4747,60 @@
       <c r="G37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="3"/>
+      <c r="I37" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="2" t="str">
+      <c r="L37" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 37\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L37" s="2" t="str">
+      <c r="M37" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 37</v>
       </c>
-      <c r="M37" s="2" t="str">
+      <c r="N37" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q37,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R37,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O37" s="4" t="e">
+      <c r="P37" s="4" t="e">
         <f>VLOOKUP(C37,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P37" s="5" t="e">
+      <c r="Q37" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="R37" s="4" t="str">
+      <c r="S37" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T37" s="4">
+      <c r="U37" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U37" s="4">
+      <c r="V37" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4749,59 +4825,60 @@
       <c r="G38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="2" t="str">
+      <c r="L38" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 38\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L38" s="2" t="str">
+      <c r="M38" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 38</v>
       </c>
-      <c r="M38" s="2" t="str">
+      <c r="N38" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q38,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R38,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O38" s="4" t="e">
+      <c r="P38" s="4" t="e">
         <f>VLOOKUP(C38,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P38" s="5" t="e">
+      <c r="Q38" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="R38" s="4">
         <f t="shared" si="14"/>
         <v>38</v>
       </c>
-      <c r="R38" s="4" t="str">
+      <c r="S38" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T38" s="4">
+      <c r="U38" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U38" s="4">
+      <c r="V38" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4826,59 +4903,62 @@
       <c r="G39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="2" t="str">
+      <c r="L39" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 39\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L39" s="2" t="str">
+      <c r="M39" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 39</v>
       </c>
-      <c r="M39" s="2" t="str">
+      <c r="N39" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q39,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R39,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O39" s="4" t="e">
+      <c r="P39" s="4" t="e">
         <f>VLOOKUP(C39,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P39" s="5" t="e">
+      <c r="Q39" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="R39" s="4">
         <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="R39" s="4" t="str">
+      <c r="S39" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S39" s="4">
+      <c r="T39" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T39" s="4">
+      <c r="U39" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U39" s="4">
+      <c r="V39" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4903,59 +4983,60 @@
       <c r="G40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="3"/>
+      <c r="I40" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K40" s="2" t="str">
+      <c r="L40" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 40\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L40" s="2" t="str">
+      <c r="M40" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 40</v>
       </c>
-      <c r="M40" s="2" t="str">
+      <c r="N40" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q40,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R40,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O40" s="4" t="e">
+      <c r="P40" s="4" t="e">
         <f>VLOOKUP(C40,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P40" s="5" t="e">
+      <c r="Q40" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="R40" s="4">
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="R40" s="4" t="str">
+      <c r="S40" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S40" s="4">
+      <c r="T40" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T40" s="4">
+      <c r="U40" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U40" s="4">
+      <c r="V40" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4980,59 +5061,60 @@
       <c r="G41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="3"/>
+      <c r="I41" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="2" t="str">
+      <c r="L41" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 41\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L41" s="2" t="str">
+      <c r="M41" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 41</v>
       </c>
-      <c r="M41" s="2" t="str">
+      <c r="N41" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q41,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R41,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O41" s="4" t="e">
+      <c r="P41" s="4" t="e">
         <f>VLOOKUP(C41,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P41" s="5" t="e">
+      <c r="Q41" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="4">
         <f t="shared" si="14"/>
         <v>41</v>
       </c>
-      <c r="R41" s="4" t="str">
+      <c r="S41" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S41" s="4">
+      <c r="T41" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T41" s="4">
+      <c r="U41" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U41" s="4">
+      <c r="V41" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5057,59 +5139,62 @@
       <c r="G42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="2" t="str">
+      <c r="L42" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 42\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L42" s="2" t="str">
+      <c r="M42" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 42</v>
       </c>
-      <c r="M42" s="2" t="str">
+      <c r="N42" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q42,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R42,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O42" s="4" t="e">
+      <c r="P42" s="4" t="e">
         <f>VLOOKUP(C42,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P42" s="5" t="e">
+      <c r="Q42" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="R42" s="4">
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="R42" s="4" t="str">
+      <c r="S42" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S42" s="4">
+      <c r="T42" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T42" s="4">
+      <c r="U42" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U42" s="4">
+      <c r="V42" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5134,59 +5219,60 @@
       <c r="G43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="3"/>
+      <c r="I43" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="2" t="str">
+      <c r="L43" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 43\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L43" s="2" t="str">
+      <c r="M43" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 43</v>
       </c>
-      <c r="M43" s="2" t="str">
+      <c r="N43" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q43,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R43,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O43" s="4" t="e">
+      <c r="P43" s="4" t="e">
         <f>VLOOKUP(C43,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P43" s="5" t="e">
+      <c r="Q43" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="R43" s="4">
         <f t="shared" si="14"/>
         <v>43</v>
       </c>
-      <c r="R43" s="4" t="str">
+      <c r="S43" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S43" s="4">
+      <c r="T43" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T43" s="4">
+      <c r="U43" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U43" s="4">
+      <c r="V43" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5211,59 +5297,60 @@
       <c r="G44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="3"/>
+      <c r="I44" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="2" t="str">
+      <c r="L44" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 44\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L44" s="2" t="str">
+      <c r="M44" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 44</v>
       </c>
-      <c r="M44" s="2" t="str">
+      <c r="N44" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q44,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R44,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O44" s="4" t="e">
+      <c r="P44" s="4" t="e">
         <f>VLOOKUP(C44,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P44" s="5" t="e">
+      <c r="Q44" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="R44" s="4">
         <f t="shared" si="14"/>
         <v>44</v>
       </c>
-      <c r="R44" s="4" t="str">
+      <c r="S44" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S44" s="4">
+      <c r="T44" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T44" s="4">
+      <c r="U44" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U44" s="4">
+      <c r="V44" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5288,59 +5375,60 @@
       <c r="G45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="3"/>
+      <c r="I45" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="2" t="str">
+      <c r="L45" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 45\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L45" s="2" t="str">
+      <c r="M45" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 45</v>
       </c>
-      <c r="M45" s="2" t="str">
+      <c r="N45" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q45,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R45,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O45" s="4" t="e">
+      <c r="P45" s="4" t="e">
         <f>VLOOKUP(C45,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P45" s="5" t="e">
+      <c r="Q45" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="4">
         <f t="shared" si="14"/>
         <v>45</v>
       </c>
-      <c r="R45" s="4" t="str">
+      <c r="S45" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S45" s="4">
+      <c r="T45" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T45" s="4">
+      <c r="U45" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U45" s="4">
+      <c r="V45" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5365,59 +5453,60 @@
       <c r="G46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="3"/>
+      <c r="I46" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K46" s="2" t="str">
+      <c r="L46" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 46\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L46" s="2" t="str">
+      <c r="M46" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 46</v>
       </c>
-      <c r="M46" s="2" t="str">
+      <c r="N46" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q46,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R46,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O46" s="4" t="e">
+      <c r="P46" s="4" t="e">
         <f>VLOOKUP(C46,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P46" s="5" t="e">
+      <c r="Q46" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="R46" s="4">
         <f t="shared" si="14"/>
         <v>46</v>
       </c>
-      <c r="R46" s="4" t="str">
+      <c r="S46" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S46" s="4">
+      <c r="T46" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T46" s="4">
+      <c r="U46" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U46" s="4">
+      <c r="V46" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5442,59 +5531,60 @@
       <c r="G47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="3"/>
+      <c r="I47" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="2" t="str">
+      <c r="L47" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 47\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L47" s="2" t="str">
+      <c r="M47" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 47</v>
       </c>
-      <c r="M47" s="2" t="str">
+      <c r="N47" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q47,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R47,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O47" s="4" t="e">
+      <c r="P47" s="4" t="e">
         <f>VLOOKUP(C47,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P47" s="5" t="e">
+      <c r="Q47" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="4">
         <f t="shared" si="14"/>
         <v>47</v>
       </c>
-      <c r="R47" s="4" t="str">
+      <c r="S47" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T47" s="4">
+      <c r="U47" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U47" s="4">
+      <c r="V47" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5519,59 +5609,60 @@
       <c r="G48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="3"/>
+      <c r="I48" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K48" s="2" t="str">
+      <c r="L48" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 48\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L48" s="2" t="str">
+      <c r="M48" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 48</v>
       </c>
-      <c r="M48" s="2" t="str">
+      <c r="N48" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q48,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R48,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O48" s="4" t="e">
+      <c r="P48" s="4" t="e">
         <f>VLOOKUP(C48,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P48" s="5" t="e">
+      <c r="Q48" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="R48" s="4">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
-      <c r="R48" s="4" t="str">
+      <c r="S48" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S48" s="4">
+      <c r="T48" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T48" s="4">
+      <c r="U48" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U48" s="4">
+      <c r="V48" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5596,59 +5687,60 @@
       <c r="G49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="3"/>
+      <c r="I49" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="2" t="str">
+      <c r="L49" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 49\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L49" s="2" t="str">
+      <c r="M49" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 49</v>
       </c>
-      <c r="M49" s="2" t="str">
+      <c r="N49" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q49,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R49,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O49" s="4" t="e">
+      <c r="P49" s="4" t="e">
         <f>VLOOKUP(C49,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P49" s="5" t="e">
+      <c r="Q49" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="4">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
-      <c r="R49" s="4" t="str">
+      <c r="S49" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T49" s="4">
+      <c r="U49" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U49" s="4">
+      <c r="V49" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5673,59 +5765,60 @@
       <c r="G50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="3"/>
+      <c r="I50" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K50" s="2" t="str">
+      <c r="L50" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 50\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L50" s="2" t="str">
+      <c r="M50" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 50</v>
       </c>
-      <c r="M50" s="2" t="str">
+      <c r="N50" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q50,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R50,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O50" s="4" t="e">
+      <c r="P50" s="4" t="e">
         <f>VLOOKUP(C50,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P50" s="5" t="e">
+      <c r="Q50" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="R50" s="4">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="R50" s="4" t="str">
+      <c r="S50" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S50" s="4">
+      <c r="T50" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T50" s="4">
+      <c r="U50" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U50" s="4">
+      <c r="V50" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5750,59 +5843,60 @@
       <c r="G51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="3"/>
+      <c r="I51" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="2" t="str">
+      <c r="L51" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 51\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L51" s="2" t="str">
+      <c r="M51" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 51</v>
       </c>
-      <c r="M51" s="2" t="str">
+      <c r="N51" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q51,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R51,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O51" s="4" t="e">
+      <c r="P51" s="4" t="e">
         <f>VLOOKUP(C51,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P51" s="5" t="e">
+      <c r="Q51" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="R51" s="4">
         <f t="shared" si="14"/>
         <v>51</v>
       </c>
-      <c r="R51" s="4" t="str">
+      <c r="S51" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S51" s="4">
+      <c r="T51" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T51" s="4">
+      <c r="U51" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U51" s="4">
+      <c r="V51" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5827,59 +5921,60 @@
       <c r="G52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="3"/>
+      <c r="I52" t="s">
         <v>24</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K52" s="2" t="str">
+      <c r="L52" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 52\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L52" s="2" t="str">
+      <c r="M52" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 52</v>
       </c>
-      <c r="M52" s="2" t="str">
+      <c r="N52" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q52,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R52,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O52" s="4" t="e">
+      <c r="P52" s="4" t="e">
         <f>VLOOKUP(C52,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P52" s="5" t="e">
+      <c r="Q52" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="R52" s="4">
         <f t="shared" si="14"/>
         <v>52</v>
       </c>
-      <c r="R52" s="4" t="str">
+      <c r="S52" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S52" s="4">
+      <c r="T52" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T52" s="4">
+      <c r="U52" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U52" s="4">
+      <c r="V52" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5904,59 +5999,60 @@
       <c r="G53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="3"/>
+      <c r="I53" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="2" t="str">
+      <c r="L53" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 53\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L53" s="2" t="str">
+      <c r="M53" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 53</v>
       </c>
-      <c r="M53" s="2" t="str">
+      <c r="N53" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q53,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R53,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O53" s="4" t="e">
+      <c r="P53" s="4" t="e">
         <f>VLOOKUP(C53,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P53" s="5" t="e">
+      <c r="Q53" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="R53" s="4">
         <f t="shared" si="14"/>
         <v>53</v>
       </c>
-      <c r="R53" s="4" t="str">
+      <c r="S53" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S53" s="4">
+      <c r="T53" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T53" s="4">
+      <c r="U53" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U53" s="4">
+      <c r="V53" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5981,59 +6077,60 @@
       <c r="G54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="3"/>
+      <c r="I54" t="s">
         <v>24</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="2" t="str">
+      <c r="L54" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 54\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L54" s="2" t="str">
+      <c r="M54" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 54</v>
       </c>
-      <c r="M54" s="2" t="str">
+      <c r="N54" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q54,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R54,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O54" s="4" t="e">
+      <c r="P54" s="4" t="e">
         <f>VLOOKUP(C54,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P54" s="5" t="e">
+      <c r="Q54" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="R54" s="4">
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="R54" s="4" t="str">
+      <c r="S54" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S54" s="4">
+      <c r="T54" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T54" s="4">
+      <c r="U54" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U54" s="4">
+      <c r="V54" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6058,59 +6155,62 @@
       <c r="G55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="2" t="str">
+      <c r="L55" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 55\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L55" s="2" t="str">
+      <c r="M55" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 55</v>
       </c>
-      <c r="M55" s="2" t="str">
+      <c r="N55" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q55,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R55,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O55" s="4" t="e">
+      <c r="P55" s="4" t="e">
         <f>VLOOKUP(C55,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P55" s="5" t="e">
+      <c r="Q55" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="R55" s="4">
         <f t="shared" si="14"/>
         <v>55</v>
       </c>
-      <c r="R55" s="4" t="str">
+      <c r="S55" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S55" s="4">
+      <c r="T55" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T55" s="4">
+      <c r="U55" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U55" s="4">
+      <c r="V55" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6135,59 +6235,60 @@
       <c r="G56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="3"/>
+      <c r="I56" t="s">
         <v>24</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="2" t="str">
+      <c r="L56" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 56\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L56" s="2" t="str">
+      <c r="M56" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 56</v>
       </c>
-      <c r="M56" s="2" t="str">
+      <c r="N56" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q56,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R56,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O56" s="4" t="e">
+      <c r="P56" s="4" t="e">
         <f>VLOOKUP(C56,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P56" s="5" t="e">
+      <c r="Q56" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="R56" s="4">
         <f t="shared" si="14"/>
         <v>56</v>
       </c>
-      <c r="R56" s="4" t="str">
+      <c r="S56" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S56" s="4">
+      <c r="T56" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T56" s="4">
+      <c r="U56" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U56" s="4">
+      <c r="V56" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6212,59 +6313,60 @@
       <c r="G57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" t="s">
         <v>24</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="2" t="str">
+      <c r="L57" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 57\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L57" s="2" t="str">
+      <c r="M57" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 57</v>
       </c>
-      <c r="M57" s="2" t="str">
+      <c r="N57" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q57,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R57,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O57" s="4" t="e">
+      <c r="P57" s="4" t="e">
         <f>VLOOKUP(C57,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P57" s="5" t="e">
+      <c r="Q57" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="R57" s="4">
         <f t="shared" si="14"/>
         <v>57</v>
       </c>
-      <c r="R57" s="4" t="str">
+      <c r="S57" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S57" s="4">
+      <c r="T57" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T57" s="4">
+      <c r="U57" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U57" s="4">
+      <c r="V57" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6289,59 +6391,60 @@
       <c r="G58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="3"/>
+      <c r="I58" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K58" s="2" t="str">
+      <c r="L58" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 58\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L58" s="2" t="str">
+      <c r="M58" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 58</v>
       </c>
-      <c r="M58" s="2" t="str">
+      <c r="N58" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q58,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R58,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O58" s="4" t="e">
+      <c r="P58" s="4" t="e">
         <f>VLOOKUP(C58,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P58" s="5" t="e">
+      <c r="Q58" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="R58" s="4">
         <f t="shared" si="14"/>
         <v>58</v>
       </c>
-      <c r="R58" s="4" t="str">
+      <c r="S58" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S58" s="4">
+      <c r="T58" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T58" s="4">
+      <c r="U58" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U58" s="4">
+      <c r="V58" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6366,59 +6469,60 @@
       <c r="G59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="3"/>
+      <c r="I59" t="s">
         <v>24</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K59" s="2" t="str">
+      <c r="L59" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 59\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L59" s="2" t="str">
+      <c r="M59" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 59</v>
       </c>
-      <c r="M59" s="2" t="str">
+      <c r="N59" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q59,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R59,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O59" s="4" t="e">
+      <c r="P59" s="4" t="e">
         <f>VLOOKUP(C59,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P59" s="5" t="e">
+      <c r="Q59" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="R59" s="4">
         <f t="shared" si="14"/>
         <v>59</v>
       </c>
-      <c r="R59" s="4" t="str">
+      <c r="S59" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S59" s="4">
+      <c r="T59" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T59" s="4">
+      <c r="U59" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U59" s="4">
+      <c r="V59" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6443,59 +6547,60 @@
       <c r="G60" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="3"/>
+      <c r="I60" t="s">
         <v>22</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K60" s="2" t="str">
+      <c r="L60" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 60\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L60" s="2" t="str">
+      <c r="M60" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 60</v>
       </c>
-      <c r="M60" s="2" t="str">
+      <c r="N60" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q60,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R60,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O60" s="4" t="e">
+      <c r="P60" s="4" t="e">
         <f>VLOOKUP(C60,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P60" s="5" t="e">
+      <c r="Q60" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="R60" s="4">
         <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="R60" s="4" t="str">
+      <c r="S60" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S60" s="4">
+      <c r="T60" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T60" s="4">
+      <c r="U60" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U60" s="4">
+      <c r="V60" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6520,59 +6625,60 @@
       <c r="G61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="3"/>
+      <c r="I61" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K61" s="2" t="str">
+      <c r="L61" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 61\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L61" s="2" t="str">
+      <c r="M61" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 61</v>
       </c>
-      <c r="M61" s="2" t="str">
+      <c r="N61" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q61,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R61,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O61" s="4" t="e">
+      <c r="P61" s="4" t="e">
         <f>VLOOKUP(C61,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P61" s="5" t="e">
+      <c r="Q61" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="R61" s="4">
         <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="R61" s="4" t="str">
+      <c r="S61" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S61" s="4">
+      <c r="T61" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T61" s="4">
+      <c r="U61" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U61" s="4">
+      <c r="V61" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6597,59 +6703,60 @@
       <c r="G62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="3"/>
+      <c r="I62" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K62" s="2" t="str">
+      <c r="L62" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 62\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L62" s="2" t="str">
+      <c r="M62" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 62</v>
       </c>
-      <c r="M62" s="2" t="str">
+      <c r="N62" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q62,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R62,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O62" s="4" t="e">
+      <c r="P62" s="4" t="e">
         <f>VLOOKUP(C62,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P62" s="5" t="e">
+      <c r="Q62" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="R62" s="4">
         <f t="shared" si="14"/>
         <v>62</v>
       </c>
-      <c r="R62" s="4" t="str">
+      <c r="S62" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S62" s="4">
+      <c r="T62" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T62" s="4">
+      <c r="U62" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U62" s="4">
+      <c r="V62" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6674,59 +6781,60 @@
       <c r="G63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="3"/>
+      <c r="I63" t="s">
         <v>22</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="2" t="str">
+      <c r="L63" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 63\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L63" s="2" t="str">
+      <c r="M63" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 63</v>
       </c>
-      <c r="M63" s="2" t="str">
+      <c r="N63" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q63,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R63,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O63" s="4" t="e">
+      <c r="P63" s="4" t="e">
         <f>VLOOKUP(C63,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P63" s="5" t="e">
+      <c r="Q63" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="R63" s="4">
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="R63" s="4" t="str">
+      <c r="S63" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S63" s="4">
+      <c r="T63" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T63" s="4">
+      <c r="U63" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U63" s="4">
+      <c r="V63" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6751,59 +6859,60 @@
       <c r="G64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="3"/>
+      <c r="I64" t="s">
         <v>22</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="3"/>
+      <c r="K64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K64" s="2" t="str">
+      <c r="L64" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 64\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L64" s="2" t="str">
+      <c r="M64" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 64</v>
       </c>
-      <c r="M64" s="2" t="str">
+      <c r="N64" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q64,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R64,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O64" s="4" t="e">
+      <c r="P64" s="4" t="e">
         <f>VLOOKUP(C64,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P64" s="5" t="e">
+      <c r="Q64" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="R64" s="4">
         <f t="shared" si="14"/>
         <v>64</v>
       </c>
-      <c r="R64" s="4" t="str">
+      <c r="S64" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S64" s="4">
+      <c r="T64" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T64" s="4">
+      <c r="U64" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U64" s="4">
+      <c r="V64" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6828,59 +6937,60 @@
       <c r="G65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="3"/>
+      <c r="I65" t="s">
         <v>22</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K65" s="2" t="str">
+      <c r="L65" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 65\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L65" s="2" t="str">
+      <c r="M65" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 65</v>
       </c>
-      <c r="M65" s="2" t="str">
+      <c r="N65" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q65,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R65,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O65" s="4" t="e">
+      <c r="P65" s="4" t="e">
         <f>VLOOKUP(C65,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P65" s="5" t="e">
+      <c r="Q65" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="R65" s="4">
         <f t="shared" si="14"/>
         <v>65</v>
       </c>
-      <c r="R65" s="4" t="str">
+      <c r="S65" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S65" s="4">
+      <c r="T65" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T65" s="4">
+      <c r="U65" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U65" s="4">
+      <c r="V65" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6905,59 +7015,60 @@
       <c r="G66" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="3"/>
+      <c r="I66" t="s">
         <v>22</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="3"/>
+      <c r="K66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K66" s="2" t="str">
+      <c r="L66" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 66\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L66" s="2" t="str">
+      <c r="M66" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 66</v>
       </c>
-      <c r="M66" s="2" t="str">
+      <c r="N66" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="N66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q66,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R66,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O66" s="4" t="e">
+      <c r="P66" s="4" t="e">
         <f>VLOOKUP(C66,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P66" s="5" t="e">
-        <f t="shared" ref="P66:P69" si="18">IF(EXACT(O66,E66),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q66" s="4">
+      <c r="Q66" s="5" t="e">
+        <f t="shared" ref="Q66:Q69" si="18">IF(EXACT(P66,E66),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R66" s="4">
         <f t="shared" si="14"/>
         <v>66</v>
       </c>
-      <c r="R66" s="4" t="str">
+      <c r="S66" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="S66" s="4">
+      <c r="T66" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T66" s="4">
+      <c r="U66" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U66" s="4">
-        <f t="shared" ref="U66:U67" si="19">SUM(S66:T66)</f>
+      <c r="V66" s="4">
+        <f t="shared" ref="V66:V67" si="19">SUM(T66:U66)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6982,59 +7093,60 @@
       <c r="G67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="3"/>
+      <c r="I67" t="s">
         <v>22</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="3"/>
+      <c r="K67" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K67" s="2" t="str">
-        <f t="shared" ref="K67:K69" si="22">CONCATENATE(J67,"\",B67,"\","COMVEN LID","\",YEAR(F67),"\",TEXT(MONTH(F67),"00"),"\")</f>
+      <c r="L67" s="2" t="str">
+        <f t="shared" ref="L67:L69" si="22">CONCATENATE(K67,"\",B67,"\","COMVEN LID","\",YEAR(F67),"\",TEXT(MONTH(F67),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 67\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L67" s="2" t="str">
-        <f t="shared" ref="L67:L69" si="23">CONCATENATE(TEXT(A67,"0"),"  - ",M67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+      <c r="M67" s="2" t="str">
+        <f t="shared" ref="M67:M69" si="23">CONCATENATE(TEXT(A67,"0"),"  - ",N67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0  - 202303 - 30000000000 - Cliente 67</v>
       </c>
-      <c r="M67" s="2" t="str">
-        <f t="shared" ref="M67:M69" si="24">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
+      <c r="N67" s="2" t="str">
+        <f t="shared" ref="N67:N69" si="24">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
         <v>202303</v>
       </c>
-      <c r="N67" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q67,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O67" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R67,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O67" s="4" t="e">
+      <c r="P67" s="4" t="e">
         <f>VLOOKUP(C67,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P67" s="5" t="e">
+      <c r="Q67" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="R67" s="4">
         <f t="shared" si="14"/>
         <v>67</v>
       </c>
-      <c r="R67" s="4" t="str">
-        <f t="shared" ref="R67:R69" si="25">TEXT(MONTH(F67),"00")&amp;"/"&amp;YEAR(F67)</f>
+      <c r="S67" s="4" t="str">
+        <f t="shared" ref="S67:S69" si="25">TEXT(MONTH(F67),"00")&amp;"/"&amp;YEAR(F67)</f>
         <v>03/2023</v>
       </c>
-      <c r="S67" s="4">
+      <c r="T67" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T67" s="4">
+      <c r="U67" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U67" s="4">
+      <c r="V67" s="4">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7059,59 +7171,60 @@
       <c r="G68" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="3"/>
+      <c r="I68" t="s">
         <v>22</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K68" s="2" t="str">
+      <c r="L68" s="2" t="str">
         <f t="shared" si="22"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 68\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L68" s="2" t="str">
+      <c r="M68" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0  - 202303 - 30000000000 - Cliente 68</v>
       </c>
-      <c r="M68" s="2" t="str">
+      <c r="N68" s="2" t="str">
         <f t="shared" si="24"/>
         <v>202303</v>
       </c>
-      <c r="N68" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q68,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O68" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R68,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O68" s="4" t="e">
+      <c r="P68" s="4" t="e">
         <f>VLOOKUP(C68,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P68" s="5" t="e">
+      <c r="Q68" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="R68" s="4">
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="R68" s="4" t="str">
+      <c r="S68" s="4" t="str">
         <f t="shared" si="25"/>
         <v>03/2023</v>
       </c>
-      <c r="S68" s="4">
+      <c r="T68" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T68" s="4">
+      <c r="U68" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U68" s="4">
-        <f t="shared" ref="U68:U69" si="26">SUM(S68:T68)</f>
+      <c r="V68" s="4">
+        <f t="shared" ref="V68:V69" si="26">SUM(T68:U68)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7136,61 +7249,62 @@
       <c r="G69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="3"/>
+      <c r="I69" t="s">
         <v>22</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3" t="s">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K69" s="2" t="str">
+      <c r="L69" s="2" t="str">
         <f t="shared" si="22"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 69\COMVEN LID\2023\03\</v>
       </c>
-      <c r="L69" s="2" t="str">
+      <c r="M69" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0  - 202303 - 30000000000 - Cliente 69</v>
       </c>
-      <c r="M69" s="2" t="str">
+      <c r="N69" s="2" t="str">
         <f t="shared" si="24"/>
         <v>202303</v>
       </c>
-      <c r="N69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(Q69,[1]Control!$A:$B,2,0),"")</f>
+      <c r="O69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(R69,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="O69" s="4" t="e">
+      <c r="P69" s="4" t="e">
         <f>VLOOKUP(C69,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P69" s="5" t="e">
+      <c r="Q69" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="R69" s="4">
         <f t="shared" si="14"/>
         <v>69</v>
       </c>
-      <c r="R69" s="4" t="str">
+      <c r="S69" s="4" t="str">
         <f t="shared" si="25"/>
         <v>03/2023</v>
       </c>
-      <c r="S69" s="4">
+      <c r="T69" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T69" s="4">
+      <c r="U69" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U69" s="4">
+      <c r="V69" s="4">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
+  <autoFilter ref="A1:V69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>

--- a/Listado COMVEN LID AFIP.xlsx
+++ b/Listado COMVEN LID AFIP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga-y-Carga-COMVEN-LID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1010012B-6019-410B-A5FD-90A3945A8AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69429415-6B11-4F6D-AA52-82DFCC99E375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$V$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$W$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +40,116 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Agustín Bustos</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B83C71F4-7DFB-4D6E-A68D-718E9545B753}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CUIT para ingresar a AFIP </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A391B06F-092E-45E6-96C6-54074C56D409}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CUIT del representado </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{5B0CD823-D670-4561-A2F7-4A5ADE4AE1E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Directorio raiz donde se desea guardar el archivo.
+El directorio va completo desde el disco inicial sin el último backslash.
+Ej: C:\Users\Agustin Bustos\Desktop\TEST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{DDAEFDDC-6163-46DA-83AB-7765946D8B4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Directorio completo donde se desea guardar el archivo, se utiliza como base la ubicación raíz y el resto se concatena con otros datos de los clientes </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="31">
   <si>
     <t>Nro</t>
   </si>
@@ -129,12 +237,18 @@
   <si>
     <t>si</t>
   </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +274,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1868,8 +1995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1886,14 +2013,16 @@
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="14" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="15" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,43 +2054,46 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1995,54 +2127,57 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="str">
-        <f>CONCATENATE(K2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
+      <c r="M2" s="2" t="str">
+        <f>CONCATENATE(L2,"\",B2,"\","COMVEN LID","\",YEAR(F2),"\",TEXT(MONTH(F2),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 2\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0"),"  - ",N2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="N2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0"),"  - ",O2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0  - 202303 - 20000000000 - Cliente 2</v>
       </c>
-      <c r="N2" s="2" t="str">
+      <c r="O2" s="2" t="str">
         <f>YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
         <v>202303</v>
       </c>
-      <c r="O2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R2,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S2,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P2" s="4" t="e">
+      <c r="Q2" s="4" t="e">
         <f>VLOOKUP(C2,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q2" s="5" t="e">
-        <f t="shared" ref="Q2:Q33" si="1">IF(EXACT(P2,E2),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R2" s="4">
-        <f t="shared" ref="R2:R33" si="2">ROW(A2)</f>
+      <c r="R2" s="5" t="e">
+        <f t="shared" ref="R2:R33" si="1">IF(EXACT(Q2,E2),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" ref="S2:S33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="S2" s="4" t="str">
+      <c r="T2" s="4" t="str">
         <f>TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
         <v>03/2023</v>
       </c>
-      <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="3">IF(C2=C1,1,0)</f>
+      <c r="U2" s="4">
+        <f t="shared" ref="U2:U33" si="3">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U2" s="4">
-        <f t="shared" ref="U2:U33" si="4">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="V2" s="4">
-        <f t="shared" ref="V2:V33" si="5">SUM(T2:U2)</f>
+        <f t="shared" ref="V2:V33" si="4">IF(C2=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" ref="W2:W33" si="5">SUM(U2:V2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2076,54 +2211,57 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L66" si="8">CONCATENATE(K3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M66" si="8">CONCATENATE(L3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 3\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M66" si="9">CONCATENATE(TEXT(A3,"0"),"  - ",N3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+      <c r="N3" s="2" t="str">
+        <f t="shared" ref="N3:N66" si="9">CONCATENATE(TEXT(A3,"0"),"  - ",O3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0  - 202303 - 20000000000 - Cliente 3</v>
       </c>
-      <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N66" si="10">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3:O66" si="10">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
         <v>202303</v>
       </c>
-      <c r="O3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R3,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S3,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P3" s="4" t="e">
+      <c r="Q3" s="4" t="e">
         <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q3" s="5" t="e">
+      <c r="R3" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S66" si="11">TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
+      <c r="T3" s="4" t="str">
+        <f t="shared" ref="T3:T66" si="11">TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
         <v>03/2023</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U3" s="4">
+      <c r="V3" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2157,54 +2295,57 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="2" t="str">
+      <c r="M4" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 4\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M4" s="2" t="str">
+      <c r="N4" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 20000000000 - Cliente 4</v>
       </c>
-      <c r="N4" s="2" t="str">
+      <c r="O4" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R4,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S4,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P4" s="4" t="e">
+      <c r="Q4" s="4" t="e">
         <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q4" s="5" t="e">
+      <c r="R4" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="S4" s="4" t="str">
+      <c r="T4" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V4" s="4">
+      <c r="W4" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2237,54 +2378,57 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="M5" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 5\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M5" s="2" t="str">
+      <c r="N5" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 5</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="O5" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R5,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S5,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="4" t="e">
+      <c r="Q5" s="4" t="e">
         <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q5" s="5" t="e">
+      <c r="R5" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="S5" s="4" t="str">
+      <c r="T5" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2315,54 +2459,57 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="M6" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 6\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M6" s="2" t="str">
+      <c r="N6" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 6</v>
       </c>
-      <c r="N6" s="2" t="str">
+      <c r="O6" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R6,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S6,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P6" s="4" t="e">
+      <c r="Q6" s="4" t="e">
         <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q6" s="5" t="e">
+      <c r="R6" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="S6" s="4" t="str">
+      <c r="T6" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U6" s="4">
+      <c r="V6" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V6" s="4">
+      <c r="W6" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2393,54 +2540,57 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="2" t="str">
+      <c r="M7" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 7\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="N7" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 7</v>
       </c>
-      <c r="N7" s="2" t="str">
+      <c r="O7" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R7,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S7,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P7" s="4" t="e">
+      <c r="Q7" s="4" t="e">
         <f>VLOOKUP(C7,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q7" s="5" t="e">
+      <c r="R7" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="S7" s="4" t="str">
+      <c r="T7" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U7" s="4">
+      <c r="V7" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V7" s="4">
+      <c r="W7" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2473,54 +2623,57 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="2" t="str">
+      <c r="M8" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 8\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M8" s="2" t="str">
+      <c r="N8" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 8</v>
       </c>
-      <c r="N8" s="2" t="str">
+      <c r="O8" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R8,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S8,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P8" s="4" t="e">
+      <c r="Q8" s="4" t="e">
         <f>VLOOKUP(C8,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q8" s="5" t="e">
+      <c r="R8" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="S8" s="4" t="str">
+      <c r="T8" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2553,54 +2706,57 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="2" t="str">
+      <c r="M9" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 9\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M9" s="2" t="str">
+      <c r="N9" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 9</v>
       </c>
-      <c r="N9" s="2" t="str">
+      <c r="O9" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R9,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S9,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P9" s="4" t="e">
+      <c r="Q9" s="4" t="e">
         <f>VLOOKUP(C9,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q9" s="5" t="e">
+      <c r="R9" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="S9" s="4" t="str">
+      <c r="T9" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2631,54 +2787,57 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="M10" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 10\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M10" s="2" t="str">
+      <c r="N10" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 10</v>
       </c>
-      <c r="N10" s="2" t="str">
+      <c r="O10" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R10,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S10,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P10" s="4" t="e">
+      <c r="Q10" s="4" t="e">
         <f>VLOOKUP(C10,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q10" s="5" t="e">
+      <c r="R10" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S10" s="4" t="str">
+      <c r="T10" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T10" s="4">
+      <c r="U10" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U10" s="4">
+      <c r="V10" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V10" s="4">
+      <c r="W10" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2709,54 +2868,57 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="2" t="str">
+      <c r="M11" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 11\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M11" s="2" t="str">
+      <c r="N11" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 11</v>
       </c>
-      <c r="N11" s="2" t="str">
+      <c r="O11" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R11,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S11,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P11" s="4" t="e">
+      <c r="Q11" s="4" t="e">
         <f>VLOOKUP(C11,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q11" s="5" t="e">
+      <c r="R11" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="S11" s="4" t="str">
+      <c r="T11" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T11" s="4">
+      <c r="U11" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U11" s="4">
+      <c r="V11" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V11" s="4">
+      <c r="W11" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2787,54 +2949,57 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="2" t="str">
+      <c r="M12" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 12\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M12" s="2" t="str">
+      <c r="N12" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 12</v>
       </c>
-      <c r="N12" s="2" t="str">
+      <c r="O12" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R12,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S12,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P12" s="4" t="e">
+      <c r="Q12" s="4" t="e">
         <f>VLOOKUP(C12,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q12" s="5" t="e">
+      <c r="R12" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="S12" s="4" t="str">
+      <c r="T12" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U12" s="4">
+      <c r="V12" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V12" s="4">
+      <c r="W12" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2865,54 +3030,57 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="2" t="str">
+      <c r="M13" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 13\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M13" s="2" t="str">
+      <c r="N13" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 13</v>
       </c>
-      <c r="N13" s="2" t="str">
+      <c r="O13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R13,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S13,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P13" s="4" t="e">
+      <c r="Q13" s="4" t="e">
         <f>VLOOKUP(C13,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q13" s="5" t="e">
+      <c r="R13" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="S13" s="4" t="str">
+      <c r="T13" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V13" s="4">
+      <c r="W13" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2945,54 +3113,57 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="2" t="str">
+      <c r="M14" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 14\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M14" s="2" t="str">
+      <c r="N14" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 14</v>
       </c>
-      <c r="N14" s="2" t="str">
+      <c r="O14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R14,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S14,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P14" s="4" t="e">
+      <c r="Q14" s="4" t="e">
         <f>VLOOKUP(C14,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q14" s="5" t="e">
+      <c r="R14" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="S14" s="4" t="str">
+      <c r="T14" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V14" s="4">
+      <c r="W14" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3023,54 +3194,57 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="2" t="str">
+      <c r="M15" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 15\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M15" s="2" t="str">
+      <c r="N15" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 15</v>
       </c>
-      <c r="N15" s="2" t="str">
+      <c r="O15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R15,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S15,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P15" s="4" t="e">
+      <c r="Q15" s="4" t="e">
         <f>VLOOKUP(C15,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q15" s="5" t="e">
+      <c r="R15" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="S15" s="4" t="str">
+      <c r="T15" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T15" s="4">
+      <c r="U15" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U15" s="4">
+      <c r="V15" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V15" s="4">
+      <c r="W15" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3103,54 +3277,57 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="2" t="str">
+      <c r="M16" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 16\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M16" s="2" t="str">
+      <c r="N16" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 16</v>
       </c>
-      <c r="N16" s="2" t="str">
+      <c r="O16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R16,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S16,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P16" s="4" t="e">
+      <c r="Q16" s="4" t="e">
         <f>VLOOKUP(C16,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="5" t="e">
+      <c r="R16" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="S16" s="4" t="str">
+      <c r="T16" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T16" s="4">
+      <c r="U16" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U16" s="4">
+      <c r="V16" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V16" s="4">
+      <c r="W16" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3183,54 +3360,57 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="2" t="str">
+      <c r="M17" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 17\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M17" s="2" t="str">
+      <c r="N17" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 17</v>
       </c>
-      <c r="N17" s="2" t="str">
+      <c r="O17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R17,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S17,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P17" s="4" t="e">
+      <c r="Q17" s="4" t="e">
         <f>VLOOKUP(C17,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q17" s="5" t="e">
+      <c r="R17" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="S17" s="4" t="str">
+      <c r="T17" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V17" s="4">
+      <c r="W17" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3261,54 +3441,57 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="2" t="str">
+      <c r="M18" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 18\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M18" s="2" t="str">
+      <c r="N18" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 18</v>
       </c>
-      <c r="N18" s="2" t="str">
+      <c r="O18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R18,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S18,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P18" s="4" t="e">
+      <c r="Q18" s="4" t="e">
         <f>VLOOKUP(C18,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q18" s="5" t="e">
+      <c r="R18" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="S18" s="4" t="str">
+      <c r="T18" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V18" s="4">
+      <c r="W18" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3339,54 +3522,57 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="2" t="str">
+      <c r="M19" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 19\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M19" s="2" t="str">
+      <c r="N19" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 19</v>
       </c>
-      <c r="N19" s="2" t="str">
+      <c r="O19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R19,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S19,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P19" s="4" t="e">
+      <c r="Q19" s="4" t="e">
         <f>VLOOKUP(C19,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q19" s="5" t="e">
+      <c r="R19" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="S19" s="4" t="str">
+      <c r="T19" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V19" s="4">
+      <c r="W19" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3417,54 +3603,57 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="2" t="str">
+      <c r="M20" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 20\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M20" s="2" t="str">
+      <c r="N20" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 20</v>
       </c>
-      <c r="N20" s="2" t="str">
+      <c r="O20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R20,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S20,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P20" s="4" t="e">
+      <c r="Q20" s="4" t="e">
         <f>VLOOKUP(C20,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q20" s="5" t="e">
+      <c r="R20" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S20" s="4" t="str">
+      <c r="T20" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T20" s="4">
+      <c r="U20" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U20" s="4">
+      <c r="V20" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V20" s="4">
+      <c r="W20" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3495,54 +3684,57 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="2" t="str">
+      <c r="M21" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 21\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M21" s="2" t="str">
+      <c r="N21" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 21</v>
       </c>
-      <c r="N21" s="2" t="str">
+      <c r="O21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R21,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S21,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P21" s="4" t="e">
+      <c r="Q21" s="4" t="e">
         <f>VLOOKUP(C21,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q21" s="5" t="e">
+      <c r="R21" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="S21" s="4" t="str">
+      <c r="T21" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T21" s="4">
+      <c r="U21" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U21" s="4">
+      <c r="V21" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V21" s="4">
+      <c r="W21" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3575,54 +3767,57 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="2" t="str">
+      <c r="M22" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 22\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M22" s="2" t="str">
+      <c r="N22" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 22</v>
       </c>
-      <c r="N22" s="2" t="str">
+      <c r="O22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R22,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S22,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P22" s="4" t="e">
+      <c r="Q22" s="4" t="e">
         <f>VLOOKUP(C22,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q22" s="5" t="e">
+      <c r="R22" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="S22" s="4" t="str">
+      <c r="T22" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U22" s="4">
+      <c r="V22" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V22" s="4">
+      <c r="W22" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3655,54 +3850,57 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="2" t="str">
+      <c r="M23" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 23\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M23" s="2" t="str">
+      <c r="N23" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 23</v>
       </c>
-      <c r="N23" s="2" t="str">
+      <c r="O23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R23,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S23,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P23" s="4" t="e">
+      <c r="Q23" s="4" t="e">
         <f>VLOOKUP(C23,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q23" s="5" t="e">
+      <c r="R23" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="S23" s="4" t="str">
+      <c r="T23" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T23" s="4">
+      <c r="U23" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U23" s="4">
+      <c r="V23" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V23" s="4">
+      <c r="W23" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3735,54 +3933,57 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="2" t="str">
+      <c r="M24" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 24\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M24" s="2" t="str">
+      <c r="N24" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 24</v>
       </c>
-      <c r="N24" s="2" t="str">
+      <c r="O24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R24,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S24,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P24" s="4" t="e">
+      <c r="Q24" s="4" t="e">
         <f>VLOOKUP(C24,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q24" s="5" t="e">
+      <c r="R24" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="S24" s="4" t="str">
+      <c r="T24" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T24" s="4">
+      <c r="U24" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U24" s="4">
+      <c r="V24" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V24" s="4">
+      <c r="W24" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3813,54 +4014,57 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="2" t="str">
+      <c r="M25" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 25\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M25" s="2" t="str">
+      <c r="N25" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 25</v>
       </c>
-      <c r="N25" s="2" t="str">
+      <c r="O25" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R25,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S25,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P25" s="4" t="e">
+      <c r="Q25" s="4" t="e">
         <f>VLOOKUP(C25,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q25" s="5" t="e">
+      <c r="R25" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="S25" s="4" t="str">
+      <c r="T25" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T25" s="4">
+      <c r="U25" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U25" s="4">
+      <c r="V25" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V25" s="4">
+      <c r="W25" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3891,54 +4095,57 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="2" t="str">
+      <c r="M26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 26\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M26" s="2" t="str">
+      <c r="N26" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 26</v>
       </c>
-      <c r="N26" s="2" t="str">
+      <c r="O26" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R26,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S26,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P26" s="4" t="e">
+      <c r="Q26" s="4" t="e">
         <f>VLOOKUP(C26,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q26" s="5" t="e">
+      <c r="R26" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="S26" s="4" t="str">
+      <c r="T26" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T26" s="4">
+      <c r="U26" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U26" s="4">
+      <c r="V26" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V26" s="4">
+      <c r="W26" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3969,54 +4176,57 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="2" t="str">
+      <c r="M27" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 27\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M27" s="2" t="str">
+      <c r="N27" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 27</v>
       </c>
-      <c r="N27" s="2" t="str">
+      <c r="O27" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R27,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S27,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P27" s="4" t="e">
+      <c r="Q27" s="4" t="e">
         <f>VLOOKUP(C27,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q27" s="5" t="e">
+      <c r="R27" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="S27" s="4" t="str">
+      <c r="T27" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T27" s="4">
+      <c r="U27" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U27" s="4">
+      <c r="V27" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V27" s="4">
+      <c r="W27" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4049,54 +4259,57 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="2" t="str">
+      <c r="M28" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 28\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M28" s="2" t="str">
+      <c r="N28" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 28</v>
       </c>
-      <c r="N28" s="2" t="str">
+      <c r="O28" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R28,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S28,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P28" s="4" t="e">
+      <c r="Q28" s="4" t="e">
         <f>VLOOKUP(C28,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q28" s="5" t="e">
+      <c r="R28" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="S28" s="4" t="str">
+      <c r="T28" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T28" s="4">
+      <c r="U28" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U28" s="4">
+      <c r="V28" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V28" s="4">
+      <c r="W28" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4127,54 +4340,57 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="2" t="str">
+      <c r="M29" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 29\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M29" s="2" t="str">
+      <c r="N29" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 29</v>
       </c>
-      <c r="N29" s="2" t="str">
+      <c r="O29" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R29,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S29,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P29" s="4" t="e">
+      <c r="Q29" s="4" t="e">
         <f>VLOOKUP(C29,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q29" s="5" t="e">
+      <c r="R29" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="S29" s="4" t="str">
+      <c r="T29" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T29" s="4">
+      <c r="U29" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U29" s="4">
+      <c r="V29" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V29" s="4">
+      <c r="W29" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4205,54 +4421,57 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="2" t="str">
+      <c r="M30" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 30\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M30" s="2" t="str">
+      <c r="N30" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 30</v>
       </c>
-      <c r="N30" s="2" t="str">
+      <c r="O30" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R30,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S30,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P30" s="4" t="e">
+      <c r="Q30" s="4" t="e">
         <f>VLOOKUP(C30,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q30" s="5" t="e">
+      <c r="R30" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="S30" s="4" t="str">
+      <c r="T30" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T30" s="4">
+      <c r="U30" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U30" s="4">
+      <c r="V30" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V30" s="4">
+      <c r="W30" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4283,54 +4502,57 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="2" t="str">
+      <c r="M31" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 31\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M31" s="2" t="str">
+      <c r="N31" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 31</v>
       </c>
-      <c r="N31" s="2" t="str">
+      <c r="O31" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R31,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S31,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P31" s="4" t="e">
+      <c r="Q31" s="4" t="e">
         <f>VLOOKUP(C31,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q31" s="5" t="e">
+      <c r="R31" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="S31" s="4" t="str">
+      <c r="T31" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T31" s="4">
+      <c r="U31" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U31" s="4">
+      <c r="V31" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V31" s="4">
+      <c r="W31" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4361,54 +4583,57 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="2" t="str">
+      <c r="M32" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 32\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M32" s="2" t="str">
+      <c r="N32" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 32</v>
       </c>
-      <c r="N32" s="2" t="str">
+      <c r="O32" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R32,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S32,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P32" s="4" t="e">
+      <c r="Q32" s="4" t="e">
         <f>VLOOKUP(C32,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q32" s="5" t="e">
+      <c r="R32" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="S32" s="4" t="str">
+      <c r="T32" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T32" s="4">
+      <c r="U32" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U32" s="4">
+      <c r="V32" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V32" s="4">
+      <c r="W32" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4439,54 +4664,57 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="2" t="str">
+      <c r="M33" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 33\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M33" s="2" t="str">
+      <c r="N33" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 33</v>
       </c>
-      <c r="N33" s="2" t="str">
+      <c r="O33" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R33,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S33,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P33" s="4" t="e">
+      <c r="Q33" s="4" t="e">
         <f>VLOOKUP(C33,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q33" s="5" t="e">
+      <c r="R33" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="S33" s="4" t="str">
+      <c r="T33" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T33" s="4">
+      <c r="U33" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U33" s="4">
+      <c r="V33" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V33" s="4">
+      <c r="W33" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" ref="A34:A69" si="12">RIGHT(D34,1)</f>
         <v>0</v>
@@ -4517,54 +4745,57 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="2" t="str">
+      <c r="M34" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 34\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M34" s="2" t="str">
+      <c r="N34" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 34</v>
       </c>
-      <c r="N34" s="2" t="str">
+      <c r="O34" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R34,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S34,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P34" s="4" t="e">
+      <c r="Q34" s="4" t="e">
         <f>VLOOKUP(C34,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q34" s="5" t="e">
-        <f t="shared" ref="Q34:Q65" si="13">IF(EXACT(P34,E34),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R34" s="4">
-        <f t="shared" ref="R34:R69" si="14">ROW(A34)</f>
+      <c r="R34" s="5" t="e">
+        <f t="shared" ref="R34:R65" si="13">IF(EXACT(Q34,E34),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" ref="S34:S69" si="14">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="S34" s="4" t="str">
+      <c r="T34" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T34" s="4">
-        <f t="shared" ref="T34:T69" si="15">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:U69" si="16">IF(C34=C35,1,0)</f>
+        <f t="shared" ref="U34:U69" si="15">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="V34" s="4">
-        <f t="shared" ref="V34:V65" si="17">SUM(T34:U34)</f>
+        <f t="shared" ref="V34:V69" si="16">IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W34" s="4">
+        <f t="shared" ref="W34:W65" si="17">SUM(U34:V34)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4595,54 +4826,57 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="2" t="str">
+      <c r="M35" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 35\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M35" s="2" t="str">
+      <c r="N35" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 35</v>
       </c>
-      <c r="N35" s="2" t="str">
+      <c r="O35" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R35,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S35,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P35" s="4" t="e">
+      <c r="Q35" s="4" t="e">
         <f>VLOOKUP(C35,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q35" s="5" t="e">
+      <c r="R35" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <f t="shared" si="14"/>
         <v>35</v>
       </c>
-      <c r="S35" s="4" t="str">
+      <c r="T35" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T35" s="4">
+      <c r="U35" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U35" s="4">
+      <c r="V35" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V35" s="4">
+      <c r="W35" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4675,54 +4909,57 @@
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="2" t="str">
+      <c r="M36" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 36\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M36" s="2" t="str">
+      <c r="N36" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 36</v>
       </c>
-      <c r="N36" s="2" t="str">
+      <c r="O36" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R36,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S36,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P36" s="4" t="e">
+      <c r="Q36" s="4" t="e">
         <f>VLOOKUP(C36,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q36" s="5" t="e">
+      <c r="R36" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <f t="shared" si="14"/>
         <v>36</v>
       </c>
-      <c r="S36" s="4" t="str">
+      <c r="T36" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T36" s="4">
+      <c r="U36" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U36" s="4">
+      <c r="V36" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V36" s="4">
+      <c r="W36" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4753,54 +4990,57 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="2" t="str">
+      <c r="M37" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 37\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M37" s="2" t="str">
+      <c r="N37" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 37</v>
       </c>
-      <c r="N37" s="2" t="str">
+      <c r="O37" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R37,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S37,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P37" s="4" t="e">
+      <c r="Q37" s="4" t="e">
         <f>VLOOKUP(C37,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q37" s="5" t="e">
+      <c r="R37" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="S37" s="4" t="str">
+      <c r="T37" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T37" s="4">
+      <c r="U37" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U37" s="4">
+      <c r="V37" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V37" s="4">
+      <c r="W37" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4831,54 +5071,57 @@
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="2" t="str">
+      <c r="M38" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 38\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M38" s="2" t="str">
+      <c r="N38" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 38</v>
       </c>
-      <c r="N38" s="2" t="str">
+      <c r="O38" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R38,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S38,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P38" s="4" t="e">
+      <c r="Q38" s="4" t="e">
         <f>VLOOKUP(C38,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q38" s="5" t="e">
+      <c r="R38" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <f t="shared" si="14"/>
         <v>38</v>
       </c>
-      <c r="S38" s="4" t="str">
+      <c r="T38" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T38" s="4">
+      <c r="U38" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U38" s="4">
+      <c r="V38" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V38" s="4">
+      <c r="W38" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4911,54 +5154,57 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="2" t="str">
+      <c r="M39" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 39\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M39" s="2" t="str">
+      <c r="N39" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 39</v>
       </c>
-      <c r="N39" s="2" t="str">
+      <c r="O39" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R39,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S39,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P39" s="4" t="e">
+      <c r="Q39" s="4" t="e">
         <f>VLOOKUP(C39,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q39" s="5" t="e">
+      <c r="R39" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="S39" s="4" t="str">
+      <c r="T39" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T39" s="4">
+      <c r="U39" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U39" s="4">
+      <c r="V39" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V39" s="4">
+      <c r="W39" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4989,54 +5235,57 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="2" t="str">
+      <c r="M40" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 40\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M40" s="2" t="str">
+      <c r="N40" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 40</v>
       </c>
-      <c r="N40" s="2" t="str">
+      <c r="O40" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R40,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S40,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P40" s="4" t="e">
+      <c r="Q40" s="4" t="e">
         <f>VLOOKUP(C40,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q40" s="5" t="e">
+      <c r="R40" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="S40" s="4" t="str">
+      <c r="T40" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T40" s="4">
+      <c r="U40" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U40" s="4">
+      <c r="V40" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V40" s="4">
+      <c r="W40" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5067,54 +5316,57 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="2" t="str">
+      <c r="M41" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 41\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M41" s="2" t="str">
+      <c r="N41" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 41</v>
       </c>
-      <c r="N41" s="2" t="str">
+      <c r="O41" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R41,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S41,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P41" s="4" t="e">
+      <c r="Q41" s="4" t="e">
         <f>VLOOKUP(C41,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q41" s="5" t="e">
+      <c r="R41" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <f t="shared" si="14"/>
         <v>41</v>
       </c>
-      <c r="S41" s="4" t="str">
+      <c r="T41" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T41" s="4">
+      <c r="U41" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U41" s="4">
+      <c r="V41" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V41" s="4">
+      <c r="W41" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5147,54 +5399,57 @@
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="2" t="str">
+      <c r="M42" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 42\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M42" s="2" t="str">
+      <c r="N42" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 42</v>
       </c>
-      <c r="N42" s="2" t="str">
+      <c r="O42" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R42,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S42,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P42" s="4" t="e">
+      <c r="Q42" s="4" t="e">
         <f>VLOOKUP(C42,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q42" s="5" t="e">
+      <c r="R42" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R42" s="4">
+      <c r="S42" s="4">
         <f t="shared" si="14"/>
         <v>42</v>
       </c>
-      <c r="S42" s="4" t="str">
+      <c r="T42" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T42" s="4">
+      <c r="U42" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U42" s="4">
+      <c r="V42" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V42" s="4">
+      <c r="W42" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5225,54 +5480,57 @@
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="2" t="str">
+      <c r="M43" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 43\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M43" s="2" t="str">
+      <c r="N43" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 43</v>
       </c>
-      <c r="N43" s="2" t="str">
+      <c r="O43" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R43,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S43,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P43" s="4" t="e">
+      <c r="Q43" s="4" t="e">
         <f>VLOOKUP(C43,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q43" s="5" t="e">
+      <c r="R43" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <f t="shared" si="14"/>
         <v>43</v>
       </c>
-      <c r="S43" s="4" t="str">
+      <c r="T43" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T43" s="4">
+      <c r="U43" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U43" s="4">
+      <c r="V43" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V43" s="4">
+      <c r="W43" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5303,54 +5561,57 @@
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="2" t="str">
+      <c r="M44" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 44\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M44" s="2" t="str">
+      <c r="N44" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 44</v>
       </c>
-      <c r="N44" s="2" t="str">
+      <c r="O44" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R44,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S44,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P44" s="4" t="e">
+      <c r="Q44" s="4" t="e">
         <f>VLOOKUP(C44,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q44" s="5" t="e">
+      <c r="R44" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <f t="shared" si="14"/>
         <v>44</v>
       </c>
-      <c r="S44" s="4" t="str">
+      <c r="T44" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T44" s="4">
+      <c r="U44" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U44" s="4">
+      <c r="V44" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V44" s="4">
+      <c r="W44" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5381,54 +5642,57 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="2" t="str">
+      <c r="M45" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 45\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M45" s="2" t="str">
+      <c r="N45" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 45</v>
       </c>
-      <c r="N45" s="2" t="str">
+      <c r="O45" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R45,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S45,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P45" s="4" t="e">
+      <c r="Q45" s="4" t="e">
         <f>VLOOKUP(C45,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q45" s="5" t="e">
+      <c r="R45" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <f t="shared" si="14"/>
         <v>45</v>
       </c>
-      <c r="S45" s="4" t="str">
+      <c r="T45" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T45" s="4">
+      <c r="U45" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U45" s="4">
+      <c r="V45" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V45" s="4">
+      <c r="W45" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5459,54 +5723,57 @@
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="2" t="str">
+      <c r="M46" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 46\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M46" s="2" t="str">
+      <c r="N46" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 46</v>
       </c>
-      <c r="N46" s="2" t="str">
+      <c r="O46" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R46,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S46,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P46" s="4" t="e">
+      <c r="Q46" s="4" t="e">
         <f>VLOOKUP(C46,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q46" s="5" t="e">
+      <c r="R46" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <f t="shared" si="14"/>
         <v>46</v>
       </c>
-      <c r="S46" s="4" t="str">
+      <c r="T46" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T46" s="4">
+      <c r="U46" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U46" s="4">
+      <c r="V46" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V46" s="4">
+      <c r="W46" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5537,54 +5804,57 @@
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="2" t="str">
+      <c r="M47" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 47\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M47" s="2" t="str">
+      <c r="N47" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 47</v>
       </c>
-      <c r="N47" s="2" t="str">
+      <c r="O47" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R47,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S47,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P47" s="4" t="e">
+      <c r="Q47" s="4" t="e">
         <f>VLOOKUP(C47,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q47" s="5" t="e">
+      <c r="R47" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <f t="shared" si="14"/>
         <v>47</v>
       </c>
-      <c r="S47" s="4" t="str">
+      <c r="T47" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T47" s="4">
+      <c r="U47" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U47" s="4">
+      <c r="V47" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V47" s="4">
+      <c r="W47" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5615,54 +5885,57 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="2" t="str">
+      <c r="M48" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 48\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M48" s="2" t="str">
+      <c r="N48" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 48</v>
       </c>
-      <c r="N48" s="2" t="str">
+      <c r="O48" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R48,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S48,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P48" s="4" t="e">
+      <c r="Q48" s="4" t="e">
         <f>VLOOKUP(C48,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q48" s="5" t="e">
+      <c r="R48" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R48" s="4">
+      <c r="S48" s="4">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
-      <c r="S48" s="4" t="str">
+      <c r="T48" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T48" s="4">
+      <c r="U48" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U48" s="4">
+      <c r="V48" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V48" s="4">
+      <c r="W48" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5693,54 +5966,57 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="2" t="str">
+      <c r="M49" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 49\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M49" s="2" t="str">
+      <c r="N49" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 49</v>
       </c>
-      <c r="N49" s="2" t="str">
+      <c r="O49" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R49,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S49,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P49" s="4" t="e">
+      <c r="Q49" s="4" t="e">
         <f>VLOOKUP(C49,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q49" s="5" t="e">
+      <c r="R49" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
-      <c r="S49" s="4" t="str">
+      <c r="T49" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T49" s="4">
+      <c r="U49" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U49" s="4">
+      <c r="V49" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V49" s="4">
+      <c r="W49" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5771,54 +6047,57 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="2" t="str">
+      <c r="M50" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 50\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M50" s="2" t="str">
+      <c r="N50" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 50</v>
       </c>
-      <c r="N50" s="2" t="str">
+      <c r="O50" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R50,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S50,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P50" s="4" t="e">
+      <c r="Q50" s="4" t="e">
         <f>VLOOKUP(C50,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q50" s="5" t="e">
+      <c r="R50" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R50" s="4">
+      <c r="S50" s="4">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="S50" s="4" t="str">
+      <c r="T50" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T50" s="4">
+      <c r="U50" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U50" s="4">
+      <c r="V50" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V50" s="4">
+      <c r="W50" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5849,54 +6128,57 @@
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L51" s="2" t="str">
+      <c r="M51" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 51\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M51" s="2" t="str">
+      <c r="N51" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 51</v>
       </c>
-      <c r="N51" s="2" t="str">
+      <c r="O51" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R51,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S51,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P51" s="4" t="e">
+      <c r="Q51" s="4" t="e">
         <f>VLOOKUP(C51,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q51" s="5" t="e">
+      <c r="R51" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <f t="shared" si="14"/>
         <v>51</v>
       </c>
-      <c r="S51" s="4" t="str">
+      <c r="T51" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T51" s="4">
+      <c r="U51" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U51" s="4">
+      <c r="V51" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V51" s="4">
+      <c r="W51" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5927,54 +6209,57 @@
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L52" s="2" t="str">
+      <c r="M52" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 52\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M52" s="2" t="str">
+      <c r="N52" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 52</v>
       </c>
-      <c r="N52" s="2" t="str">
+      <c r="O52" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R52,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S52,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P52" s="4" t="e">
+      <c r="Q52" s="4" t="e">
         <f>VLOOKUP(C52,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q52" s="5" t="e">
+      <c r="R52" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R52" s="4">
+      <c r="S52" s="4">
         <f t="shared" si="14"/>
         <v>52</v>
       </c>
-      <c r="S52" s="4" t="str">
+      <c r="T52" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T52" s="4">
+      <c r="U52" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U52" s="4">
+      <c r="V52" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V52" s="4">
+      <c r="W52" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6005,54 +6290,57 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="2" t="str">
+      <c r="M53" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 53\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M53" s="2" t="str">
+      <c r="N53" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 53</v>
       </c>
-      <c r="N53" s="2" t="str">
+      <c r="O53" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R53,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S53,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P53" s="4" t="e">
+      <c r="Q53" s="4" t="e">
         <f>VLOOKUP(C53,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q53" s="5" t="e">
+      <c r="R53" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R53" s="4">
+      <c r="S53" s="4">
         <f t="shared" si="14"/>
         <v>53</v>
       </c>
-      <c r="S53" s="4" t="str">
+      <c r="T53" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T53" s="4">
+      <c r="U53" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U53" s="4">
+      <c r="V53" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V53" s="4">
+      <c r="W53" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6083,54 +6371,57 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="2" t="str">
+      <c r="M54" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 54\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M54" s="2" t="str">
+      <c r="N54" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 54</v>
       </c>
-      <c r="N54" s="2" t="str">
+      <c r="O54" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R54,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S54,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P54" s="4" t="e">
+      <c r="Q54" s="4" t="e">
         <f>VLOOKUP(C54,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q54" s="5" t="e">
+      <c r="R54" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R54" s="4">
+      <c r="S54" s="4">
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="S54" s="4" t="str">
+      <c r="T54" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T54" s="4">
+      <c r="U54" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U54" s="4">
+      <c r="V54" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V54" s="4">
+      <c r="W54" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6163,54 +6454,57 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="2" t="str">
+      <c r="M55" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 55\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M55" s="2" t="str">
+      <c r="N55" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 55</v>
       </c>
-      <c r="N55" s="2" t="str">
+      <c r="O55" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R55,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S55,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P55" s="4" t="e">
+      <c r="Q55" s="4" t="e">
         <f>VLOOKUP(C55,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q55" s="5" t="e">
+      <c r="R55" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R55" s="4">
+      <c r="S55" s="4">
         <f t="shared" si="14"/>
         <v>55</v>
       </c>
-      <c r="S55" s="4" t="str">
+      <c r="T55" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T55" s="4">
+      <c r="U55" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U55" s="4">
+      <c r="V55" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V55" s="4">
+      <c r="W55" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6241,54 +6535,57 @@
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="2" t="str">
+      <c r="M56" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 56\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M56" s="2" t="str">
+      <c r="N56" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 56</v>
       </c>
-      <c r="N56" s="2" t="str">
+      <c r="O56" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R56,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S56,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P56" s="4" t="e">
+      <c r="Q56" s="4" t="e">
         <f>VLOOKUP(C56,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q56" s="5" t="e">
+      <c r="R56" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R56" s="4">
+      <c r="S56" s="4">
         <f t="shared" si="14"/>
         <v>56</v>
       </c>
-      <c r="S56" s="4" t="str">
+      <c r="T56" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T56" s="4">
+      <c r="U56" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U56" s="4">
+      <c r="V56" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V56" s="4">
+      <c r="W56" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6319,54 +6616,57 @@
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L57" s="2" t="str">
+      <c r="M57" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 57\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M57" s="2" t="str">
+      <c r="N57" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 57</v>
       </c>
-      <c r="N57" s="2" t="str">
+      <c r="O57" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R57,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S57,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P57" s="4" t="e">
+      <c r="Q57" s="4" t="e">
         <f>VLOOKUP(C57,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q57" s="5" t="e">
+      <c r="R57" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R57" s="4">
+      <c r="S57" s="4">
         <f t="shared" si="14"/>
         <v>57</v>
       </c>
-      <c r="S57" s="4" t="str">
+      <c r="T57" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T57" s="4">
+      <c r="U57" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U57" s="4">
+      <c r="V57" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V57" s="4">
+      <c r="W57" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6397,54 +6697,57 @@
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L58" s="2" t="str">
+      <c r="M58" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 58\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M58" s="2" t="str">
+      <c r="N58" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 58</v>
       </c>
-      <c r="N58" s="2" t="str">
+      <c r="O58" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R58,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S58,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P58" s="4" t="e">
+      <c r="Q58" s="4" t="e">
         <f>VLOOKUP(C58,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q58" s="5" t="e">
+      <c r="R58" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R58" s="4">
+      <c r="S58" s="4">
         <f t="shared" si="14"/>
         <v>58</v>
       </c>
-      <c r="S58" s="4" t="str">
+      <c r="T58" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T58" s="4">
+      <c r="U58" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U58" s="4">
+      <c r="V58" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V58" s="4">
+      <c r="W58" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6475,54 +6778,57 @@
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L59" s="2" t="str">
+      <c r="M59" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 59\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M59" s="2" t="str">
+      <c r="N59" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 59</v>
       </c>
-      <c r="N59" s="2" t="str">
+      <c r="O59" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R59,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S59,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P59" s="4" t="e">
+      <c r="Q59" s="4" t="e">
         <f>VLOOKUP(C59,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q59" s="5" t="e">
+      <c r="R59" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R59" s="4">
+      <c r="S59" s="4">
         <f t="shared" si="14"/>
         <v>59</v>
       </c>
-      <c r="S59" s="4" t="str">
+      <c r="T59" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T59" s="4">
+      <c r="U59" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U59" s="4">
+      <c r="V59" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V59" s="4">
+      <c r="W59" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6553,54 +6859,57 @@
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L60" s="2" t="str">
+      <c r="M60" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 60\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M60" s="2" t="str">
+      <c r="N60" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 60</v>
       </c>
-      <c r="N60" s="2" t="str">
+      <c r="O60" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R60,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S60,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P60" s="4" t="e">
+      <c r="Q60" s="4" t="e">
         <f>VLOOKUP(C60,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q60" s="5" t="e">
+      <c r="R60" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R60" s="4">
+      <c r="S60" s="4">
         <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="S60" s="4" t="str">
+      <c r="T60" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T60" s="4">
+      <c r="U60" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U60" s="4">
+      <c r="V60" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V60" s="4">
+      <c r="W60" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6631,54 +6940,57 @@
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L61" s="2" t="str">
+      <c r="M61" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 61\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M61" s="2" t="str">
+      <c r="N61" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 61</v>
       </c>
-      <c r="N61" s="2" t="str">
+      <c r="O61" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R61,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S61,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P61" s="4" t="e">
+      <c r="Q61" s="4" t="e">
         <f>VLOOKUP(C61,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q61" s="5" t="e">
+      <c r="R61" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R61" s="4">
+      <c r="S61" s="4">
         <f t="shared" si="14"/>
         <v>61</v>
       </c>
-      <c r="S61" s="4" t="str">
+      <c r="T61" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T61" s="4">
+      <c r="U61" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U61" s="4">
+      <c r="V61" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V61" s="4">
+      <c r="W61" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6709,54 +7021,57 @@
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L62" s="2" t="str">
+      <c r="M62" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 62\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M62" s="2" t="str">
+      <c r="N62" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 62</v>
       </c>
-      <c r="N62" s="2" t="str">
+      <c r="O62" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R62,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S62,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P62" s="4" t="e">
+      <c r="Q62" s="4" t="e">
         <f>VLOOKUP(C62,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q62" s="5" t="e">
+      <c r="R62" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R62" s="4">
+      <c r="S62" s="4">
         <f t="shared" si="14"/>
         <v>62</v>
       </c>
-      <c r="S62" s="4" t="str">
+      <c r="T62" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T62" s="4">
+      <c r="U62" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U62" s="4">
+      <c r="V62" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V62" s="4">
+      <c r="W62" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6787,54 +7102,57 @@
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L63" s="2" t="str">
+      <c r="M63" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 63\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M63" s="2" t="str">
+      <c r="N63" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 63</v>
       </c>
-      <c r="N63" s="2" t="str">
+      <c r="O63" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R63,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S63,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P63" s="4" t="e">
+      <c r="Q63" s="4" t="e">
         <f>VLOOKUP(C63,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q63" s="5" t="e">
+      <c r="R63" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R63" s="4">
+      <c r="S63" s="4">
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="S63" s="4" t="str">
+      <c r="T63" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T63" s="4">
+      <c r="U63" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U63" s="4">
+      <c r="V63" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V63" s="4">
+      <c r="W63" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6865,54 +7183,57 @@
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L64" s="2" t="str">
+      <c r="M64" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 64\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M64" s="2" t="str">
+      <c r="N64" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 64</v>
       </c>
-      <c r="N64" s="2" t="str">
+      <c r="O64" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R64,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S64,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P64" s="4" t="e">
+      <c r="Q64" s="4" t="e">
         <f>VLOOKUP(C64,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q64" s="5" t="e">
+      <c r="R64" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R64" s="4">
+      <c r="S64" s="4">
         <f t="shared" si="14"/>
         <v>64</v>
       </c>
-      <c r="S64" s="4" t="str">
+      <c r="T64" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T64" s="4">
+      <c r="U64" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U64" s="4">
+      <c r="V64" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V64" s="4">
+      <c r="W64" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6943,54 +7264,57 @@
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L65" s="2" t="str">
+      <c r="M65" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 65\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M65" s="2" t="str">
+      <c r="N65" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 65</v>
       </c>
-      <c r="N65" s="2" t="str">
+      <c r="O65" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R65,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S65,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P65" s="4" t="e">
+      <c r="Q65" s="4" t="e">
         <f>VLOOKUP(C65,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q65" s="5" t="e">
+      <c r="R65" s="5" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="R65" s="4">
+      <c r="S65" s="4">
         <f t="shared" si="14"/>
         <v>65</v>
       </c>
-      <c r="S65" s="4" t="str">
+      <c r="T65" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T65" s="4">
+      <c r="U65" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U65" s="4">
+      <c r="V65" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V65" s="4">
+      <c r="W65" s="4">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7021,54 +7345,57 @@
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="2" t="str">
+      <c r="M66" s="2" t="str">
         <f t="shared" si="8"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 66\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M66" s="2" t="str">
+      <c r="N66" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0  - 202303 - 30000000000 - Cliente 66</v>
       </c>
-      <c r="N66" s="2" t="str">
+      <c r="O66" s="2" t="str">
         <f t="shared" si="10"/>
         <v>202303</v>
       </c>
-      <c r="O66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R66,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S66,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P66" s="4" t="e">
+      <c r="Q66" s="4" t="e">
         <f>VLOOKUP(C66,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q66" s="5" t="e">
-        <f t="shared" ref="Q66:Q69" si="18">IF(EXACT(P66,E66),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R66" s="4">
+      <c r="R66" s="5" t="e">
+        <f t="shared" ref="R66:R69" si="18">IF(EXACT(Q66,E66),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S66" s="4">
         <f t="shared" si="14"/>
         <v>66</v>
       </c>
-      <c r="S66" s="4" t="str">
+      <c r="T66" s="4" t="str">
         <f t="shared" si="11"/>
         <v>03/2023</v>
       </c>
-      <c r="T66" s="4">
+      <c r="U66" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U66" s="4">
+      <c r="V66" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V66" s="4">
-        <f t="shared" ref="V66:V67" si="19">SUM(T66:U66)</f>
+      <c r="W66" s="4">
+        <f t="shared" ref="W66:W67" si="19">SUM(U66:V66)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7099,54 +7426,57 @@
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="2" t="str">
-        <f t="shared" ref="L67:L69" si="22">CONCATENATE(K67,"\",B67,"\","COMVEN LID","\",YEAR(F67),"\",TEXT(MONTH(F67),"00"),"\")</f>
+      <c r="M67" s="2" t="str">
+        <f t="shared" ref="M67:M69" si="22">CONCATENATE(L67,"\",B67,"\","COMVEN LID","\",YEAR(F67),"\",TEXT(MONTH(F67),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 67\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M67" s="2" t="str">
-        <f t="shared" ref="M67:M69" si="23">CONCATENATE(TEXT(A67,"0"),"  - ",N67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+      <c r="N67" s="2" t="str">
+        <f t="shared" ref="N67:N69" si="23">CONCATENATE(TEXT(A67,"0"),"  - ",O67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0  - 202303 - 30000000000 - Cliente 67</v>
       </c>
-      <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67:N69" si="24">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
+      <c r="O67" s="2" t="str">
+        <f t="shared" ref="O67:O69" si="24">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
         <v>202303</v>
       </c>
-      <c r="O67" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R67,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P67" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S67,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P67" s="4" t="e">
+      <c r="Q67" s="4" t="e">
         <f>VLOOKUP(C67,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q67" s="5" t="e">
+      <c r="R67" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="R67" s="4">
+      <c r="S67" s="4">
         <f t="shared" si="14"/>
         <v>67</v>
       </c>
-      <c r="S67" s="4" t="str">
-        <f t="shared" ref="S67:S69" si="25">TEXT(MONTH(F67),"00")&amp;"/"&amp;YEAR(F67)</f>
+      <c r="T67" s="4" t="str">
+        <f t="shared" ref="T67:T69" si="25">TEXT(MONTH(F67),"00")&amp;"/"&amp;YEAR(F67)</f>
         <v>03/2023</v>
       </c>
-      <c r="T67" s="4">
+      <c r="U67" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U67" s="4">
+      <c r="V67" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V67" s="4">
+      <c r="W67" s="4">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7177,54 +7507,57 @@
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L68" s="2" t="str">
+      <c r="M68" s="2" t="str">
         <f t="shared" si="22"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 68\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M68" s="2" t="str">
+      <c r="N68" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0  - 202303 - 30000000000 - Cliente 68</v>
       </c>
-      <c r="N68" s="2" t="str">
+      <c r="O68" s="2" t="str">
         <f t="shared" si="24"/>
         <v>202303</v>
       </c>
-      <c r="O68" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R68,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P68" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S68,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P68" s="4" t="e">
+      <c r="Q68" s="4" t="e">
         <f>VLOOKUP(C68,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q68" s="5" t="e">
+      <c r="R68" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="R68" s="4">
+      <c r="S68" s="4">
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="S68" s="4" t="str">
+      <c r="T68" s="4" t="str">
         <f t="shared" si="25"/>
         <v>03/2023</v>
       </c>
-      <c r="T68" s="4">
+      <c r="U68" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U68" s="4">
+      <c r="V68" s="4">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="V68" s="4">
-        <f t="shared" ref="V68:V69" si="26">SUM(T68:U68)</f>
+      <c r="W68" s="4">
+        <f t="shared" ref="W68:W69" si="26">SUM(U68:V68)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7255,60 +7588,69 @@
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L69" s="2" t="str">
+      <c r="M69" s="2" t="str">
         <f t="shared" si="22"/>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 69\COMVEN LID\2023\03\</v>
       </c>
-      <c r="M69" s="2" t="str">
+      <c r="N69" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0  - 202303 - 30000000000 - Cliente 69</v>
       </c>
-      <c r="N69" s="2" t="str">
+      <c r="O69" s="2" t="str">
         <f t="shared" si="24"/>
         <v>202303</v>
       </c>
-      <c r="O69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(R69,[1]Control!$A:$B,2,0),"")</f>
+      <c r="P69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(S69,[1]Control!$A:$B,2,0),"")</f>
         <v/>
       </c>
-      <c r="P69" s="4" t="e">
+      <c r="Q69" s="4" t="e">
         <f>VLOOKUP(C69,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q69" s="5" t="e">
+      <c r="R69" s="5" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="R69" s="4">
+      <c r="S69" s="4">
         <f t="shared" si="14"/>
         <v>69</v>
       </c>
-      <c r="S69" s="4" t="str">
+      <c r="T69" s="4" t="str">
         <f t="shared" si="25"/>
         <v>03/2023</v>
       </c>
-      <c r="T69" s="4">
+      <c r="U69" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="U69" s="4">
+      <c r="V69" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V69" s="4">
+      <c r="W69" s="4">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S69">
+  <autoFilter ref="A1:W69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K69" xr:uid="{DAAE80F0-65F5-4597-A251-C2509A017A54}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Listado COMVEN LID AFIP.xlsx
+++ b/Listado COMVEN LID AFIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69429415-6B11-4F6D-AA52-82DFCC99E375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE216FA-1BAB-4FB4-9F01-5AA04ABF6E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,6 +91,30 @@
           </rPr>
           <t xml:space="preserve">
 CUIT del representado </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{87C20348-1149-4E0A-8D41-CA0F1FD6254E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Si el archivo no se guarda con el nombre a medida se debe colocar "NO" en esta columna </t>
         </r>
       </text>
     </comment>
@@ -2000,7 +2024,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Listado COMVEN LID AFIP.xlsx
+++ b/Listado COMVEN LID AFIP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-y-Carga-COMVEN-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE216FA-1BAB-4FB4-9F01-5AA04ABF6E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0F23CB-566D-444D-A67F-6946C91424BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CUIT para ingresar a AFIP </t>
@@ -78,7 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -87,7 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CUIT del representado </t>
@@ -102,7 +102,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -111,7 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Si el archivo no se guarda con el nombre a medida se debe colocar "NO" en esta columna </t>
@@ -126,7 +126,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -135,7 +135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Directorio raiz donde se desea guardar el archivo.
@@ -152,7 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -161,7 +161,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Directorio completo donde se desea guardar el archivo, se utiliza como base la ubicación raíz y el resto se concatena con otros datos de los clientes </t>
@@ -303,14 +303,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2024,7 +2024,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:M1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,15 +2189,15 @@
         <v>03/2023</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" ref="U2:U33" si="3">IF(C2=C1,1,0)</f>
+        <f>IF(AND(C2=C1,I1=I2),1,0)</f>
         <v>0</v>
       </c>
       <c r="V2" s="4">
-        <f t="shared" ref="V2:V33" si="4">IF(C2=C3,1,0)</f>
+        <f>IF(AND(C2=C3,I2=I3),1,0)</f>
         <v>1</v>
       </c>
       <c r="W2" s="4">
-        <f t="shared" ref="W2:W33" si="5">SUM(U2:V2)</f>
+        <f t="shared" ref="W2:W33" si="3">SUM(U2:V2)</f>
         <v>1</v>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="6">"Cliente "&amp;ROW()</f>
+        <f t="shared" ref="B3:B66" si="4">"Cliente "&amp;ROW()</f>
         <v>Cliente 3</v>
       </c>
       <c r="C3">
@@ -2218,7 +2218,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="7">"Clave "&amp;ROW()</f>
+        <f t="shared" ref="E3:E66" si="5">"Clave "&amp;ROW()</f>
         <v>Clave 3</v>
       </c>
       <c r="F3" s="3">
@@ -2241,15 +2241,15 @@
         <v>18</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M66" si="8">CONCATENATE(L3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
+        <f t="shared" ref="M3:M66" si="6">CONCATENATE(L3,"\",B3,"\","COMVEN LID","\",YEAR(F3),"\",TEXT(MONTH(F3),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 3\COMVEN LID\2023\03\</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N66" si="9">CONCATENATE(TEXT(A3,"0"),"  - ",O3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="N3:N66" si="7">CONCATENATE(TEXT(A3,"0"),"  - ",O3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0  - 202303 - 20000000000 - Cliente 3</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O66" si="10">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
+        <f t="shared" ref="O3:O66" si="8">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
         <v>202303</v>
       </c>
       <c r="P3" s="5" t="str">
@@ -2269,19 +2269,19 @@
         <v>3</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T66" si="11">TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
+        <f t="shared" ref="T3:T66" si="9">TEXT(MONTH(F3),"00")&amp;"/"&amp;YEAR(F3)</f>
         <v>03/2023</v>
       </c>
       <c r="U3" s="4">
+        <f t="shared" ref="U3:U66" si="10">IF(AND(C3=C2,I2=I3),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V66" si="11">IF(AND(C3=C4,I3=I4),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W3" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V3" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W3" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 4</v>
       </c>
       <c r="C4">
@@ -2302,7 +2302,7 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 4</v>
       </c>
       <c r="F4" s="3">
@@ -2325,15 +2325,15 @@
         <v>18</v>
       </c>
       <c r="M4" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 4\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 20000000000 - Cliente 4</v>
+      </c>
+      <c r="O4" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 4\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N4" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 20000000000 - Cliente 4</v>
-      </c>
-      <c r="O4" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P4" s="5" t="str">
@@ -2353,19 +2353,19 @@
         <v>4</v>
       </c>
       <c r="T4" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U4" s="4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V4" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W4" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 5</v>
       </c>
       <c r="C5">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 5</v>
       </c>
       <c r="F5" s="3">
@@ -2408,15 +2408,15 @@
         <v>18</v>
       </c>
       <c r="M5" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 5\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 5</v>
+      </c>
+      <c r="O5" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 5\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N5" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 5</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P5" s="5" t="str">
@@ -2436,19 +2436,19 @@
         <v>5</v>
       </c>
       <c r="T5" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W5" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 6</v>
       </c>
       <c r="C6">
@@ -2468,7 +2468,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 6</v>
       </c>
       <c r="F6" s="3">
@@ -2489,15 +2489,15 @@
         <v>18</v>
       </c>
       <c r="M6" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 6\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 6</v>
+      </c>
+      <c r="O6" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 6\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N6" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 6</v>
-      </c>
-      <c r="O6" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P6" s="5" t="str">
@@ -2517,20 +2517,20 @@
         <v>6</v>
       </c>
       <c r="T6" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="V6" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W6" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 7</v>
       </c>
       <c r="C7">
@@ -2549,7 +2549,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 7</v>
       </c>
       <c r="F7" s="3">
@@ -2570,15 +2570,15 @@
         <v>18</v>
       </c>
       <c r="M7" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 7\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 7</v>
+      </c>
+      <c r="O7" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 7\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N7" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 7</v>
-      </c>
-      <c r="O7" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P7" s="5" t="str">
@@ -2598,20 +2598,20 @@
         <v>7</v>
       </c>
       <c r="T7" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V7" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W7" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 8</v>
       </c>
       <c r="C8">
@@ -2630,7 +2630,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 8</v>
       </c>
       <c r="F8" s="3">
@@ -2653,15 +2653,15 @@
         <v>18</v>
       </c>
       <c r="M8" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 8\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 8</v>
+      </c>
+      <c r="O8" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 8\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N8" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 8</v>
-      </c>
-      <c r="O8" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P8" s="5" t="str">
@@ -2681,20 +2681,20 @@
         <v>8</v>
       </c>
       <c r="T8" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="V8" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W8" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 9</v>
       </c>
       <c r="C9">
@@ -2713,7 +2713,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 9</v>
       </c>
       <c r="F9" s="3">
@@ -2736,15 +2736,15 @@
         <v>18</v>
       </c>
       <c r="M9" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 9\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 9</v>
+      </c>
+      <c r="O9" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 9\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 9</v>
-      </c>
-      <c r="O9" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P9" s="5" t="str">
@@ -2764,20 +2764,20 @@
         <v>9</v>
       </c>
       <c r="T9" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="V9" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W9" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 10</v>
       </c>
       <c r="C10">
@@ -2796,7 +2796,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 10</v>
       </c>
       <c r="F10" s="3">
@@ -2817,15 +2817,15 @@
         <v>18</v>
       </c>
       <c r="M10" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 10\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 10</v>
+      </c>
+      <c r="O10" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 10\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N10" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 10</v>
-      </c>
-      <c r="O10" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P10" s="5" t="str">
@@ -2845,20 +2845,20 @@
         <v>10</v>
       </c>
       <c r="T10" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V10" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W10" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 11</v>
       </c>
       <c r="C11">
@@ -2877,7 +2877,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 11</v>
       </c>
       <c r="F11" s="3">
@@ -2898,15 +2898,15 @@
         <v>18</v>
       </c>
       <c r="M11" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 11\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 11</v>
+      </c>
+      <c r="O11" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 11\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N11" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 11</v>
-      </c>
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P11" s="5" t="str">
@@ -2926,20 +2926,20 @@
         <v>11</v>
       </c>
       <c r="T11" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U11" s="4">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="V11" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W11" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 12</v>
       </c>
       <c r="C12">
@@ -2958,7 +2958,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 12</v>
       </c>
       <c r="F12" s="3">
@@ -2979,15 +2979,15 @@
         <v>18</v>
       </c>
       <c r="M12" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 12\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 12</v>
+      </c>
+      <c r="O12" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 12\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N12" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 12</v>
-      </c>
-      <c r="O12" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P12" s="5" t="str">
@@ -3007,19 +3007,19 @@
         <v>12</v>
       </c>
       <c r="T12" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V12" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W12" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 13</v>
       </c>
       <c r="C13">
@@ -3039,7 +3039,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 13</v>
       </c>
       <c r="F13" s="3">
@@ -3060,15 +3060,15 @@
         <v>18</v>
       </c>
       <c r="M13" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 13\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 13</v>
+      </c>
+      <c r="O13" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 13\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N13" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 13</v>
-      </c>
-      <c r="O13" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P13" s="5" t="str">
@@ -3088,19 +3088,19 @@
         <v>13</v>
       </c>
       <c r="T13" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V13" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W13" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 14</v>
       </c>
       <c r="C14">
@@ -3120,7 +3120,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 14</v>
       </c>
       <c r="F14" s="3">
@@ -3143,15 +3143,15 @@
         <v>18</v>
       </c>
       <c r="M14" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 14\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 14</v>
+      </c>
+      <c r="O14" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 14\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N14" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 14</v>
-      </c>
-      <c r="O14" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P14" s="5" t="str">
@@ -3171,20 +3171,20 @@
         <v>14</v>
       </c>
       <c r="T14" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="V14" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W14" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 15</v>
       </c>
       <c r="C15">
@@ -3203,7 +3203,7 @@
         <v>17</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 15</v>
       </c>
       <c r="F15" s="3">
@@ -3224,15 +3224,15 @@
         <v>18</v>
       </c>
       <c r="M15" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 15\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 15</v>
+      </c>
+      <c r="O15" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 15\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N15" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 15</v>
-      </c>
-      <c r="O15" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P15" s="5" t="str">
@@ -3252,20 +3252,20 @@
         <v>15</v>
       </c>
       <c r="T15" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V15" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W15" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 16</v>
       </c>
       <c r="C16">
@@ -3284,7 +3284,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 16</v>
       </c>
       <c r="F16" s="3">
@@ -3307,15 +3307,15 @@
         <v>18</v>
       </c>
       <c r="M16" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 16\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 16</v>
+      </c>
+      <c r="O16" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 16\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N16" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 16</v>
-      </c>
-      <c r="O16" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P16" s="5" t="str">
@@ -3335,20 +3335,20 @@
         <v>16</v>
       </c>
       <c r="T16" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="V16" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W16" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 17</v>
       </c>
       <c r="C17">
@@ -3367,7 +3367,7 @@
         <v>17</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 17</v>
       </c>
       <c r="F17" s="3">
@@ -3390,15 +3390,15 @@
         <v>18</v>
       </c>
       <c r="M17" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 17\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 17</v>
+      </c>
+      <c r="O17" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 17\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N17" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 17</v>
-      </c>
-      <c r="O17" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P17" s="5" t="str">
@@ -3418,20 +3418,20 @@
         <v>17</v>
       </c>
       <c r="T17" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="V17" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W17" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 18</v>
       </c>
       <c r="C18">
@@ -3450,7 +3450,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 18</v>
       </c>
       <c r="F18" s="3">
@@ -3471,15 +3471,15 @@
         <v>18</v>
       </c>
       <c r="M18" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 18\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 18</v>
+      </c>
+      <c r="O18" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 18\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N18" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 18</v>
-      </c>
-      <c r="O18" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P18" s="5" t="str">
@@ -3499,20 +3499,20 @@
         <v>18</v>
       </c>
       <c r="T18" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V18" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W18" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 19</v>
       </c>
       <c r="C19">
@@ -3531,7 +3531,7 @@
         <v>17</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 19</v>
       </c>
       <c r="F19" s="3">
@@ -3552,15 +3552,15 @@
         <v>18</v>
       </c>
       <c r="M19" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 19\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 19</v>
+      </c>
+      <c r="O19" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 19\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N19" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 19</v>
-      </c>
-      <c r="O19" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P19" s="5" t="str">
@@ -3580,20 +3580,20 @@
         <v>19</v>
       </c>
       <c r="T19" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V19" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W19" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 20</v>
       </c>
       <c r="C20">
@@ -3612,7 +3612,7 @@
         <v>17</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 20</v>
       </c>
       <c r="F20" s="3">
@@ -3633,15 +3633,15 @@
         <v>18</v>
       </c>
       <c r="M20" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 20\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 20</v>
+      </c>
+      <c r="O20" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 20\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N20" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 20</v>
-      </c>
-      <c r="O20" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P20" s="5" t="str">
@@ -3661,20 +3661,20 @@
         <v>20</v>
       </c>
       <c r="T20" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+      <c r="W20" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="V20" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W20" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 21</v>
       </c>
       <c r="C21">
@@ -3693,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 21</v>
       </c>
       <c r="F21" s="3">
@@ -3714,15 +3714,15 @@
         <v>18</v>
       </c>
       <c r="M21" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 21\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N21" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 21</v>
+      </c>
+      <c r="O21" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 21\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N21" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 21</v>
-      </c>
-      <c r="O21" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P21" s="5" t="str">
@@ -3742,20 +3742,20 @@
         <v>21</v>
       </c>
       <c r="T21" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="V21" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W21" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 22</v>
       </c>
       <c r="C22">
@@ -3774,7 +3774,7 @@
         <v>17</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 22</v>
       </c>
       <c r="F22" s="3">
@@ -3797,15 +3797,15 @@
         <v>18</v>
       </c>
       <c r="M22" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 22\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N22" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 22</v>
+      </c>
+      <c r="O22" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 22\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N22" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 22</v>
-      </c>
-      <c r="O22" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P22" s="5" t="str">
@@ -3825,20 +3825,20 @@
         <v>22</v>
       </c>
       <c r="T22" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+      <c r="W22" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="V22" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W22" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 23</v>
       </c>
       <c r="C23">
@@ -3857,7 +3857,7 @@
         <v>17</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 23</v>
       </c>
       <c r="F23" s="3">
@@ -3880,15 +3880,15 @@
         <v>18</v>
       </c>
       <c r="M23" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 23\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 23</v>
+      </c>
+      <c r="O23" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 23\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N23" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 23</v>
-      </c>
-      <c r="O23" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P23" s="5" t="str">
@@ -3908,19 +3908,19 @@
         <v>23</v>
       </c>
       <c r="T23" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V23" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V23" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W23" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 24</v>
       </c>
       <c r="C24">
@@ -3940,7 +3940,7 @@
         <v>17</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 24</v>
       </c>
       <c r="F24" s="3">
@@ -3963,15 +3963,15 @@
         <v>18</v>
       </c>
       <c r="M24" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 24\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 24</v>
+      </c>
+      <c r="O24" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 24\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N24" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 24</v>
-      </c>
-      <c r="O24" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P24" s="5" t="str">
@@ -3991,19 +3991,19 @@
         <v>24</v>
       </c>
       <c r="T24" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V24" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U24" s="4">
+        <v>1</v>
+      </c>
+      <c r="W24" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V24" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W24" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 25</v>
       </c>
       <c r="C25">
@@ -4023,7 +4023,7 @@
         <v>17</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 25</v>
       </c>
       <c r="F25" s="3">
@@ -4044,15 +4044,15 @@
         <v>18</v>
       </c>
       <c r="M25" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 25\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 25</v>
+      </c>
+      <c r="O25" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 25\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N25" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 25</v>
-      </c>
-      <c r="O25" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P25" s="5" t="str">
@@ -4072,19 +4072,19 @@
         <v>25</v>
       </c>
       <c r="T25" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V25" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="W25" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V25" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W25" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 26</v>
       </c>
       <c r="C26">
@@ -4104,7 +4104,7 @@
         <v>17</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 26</v>
       </c>
       <c r="F26" s="3">
@@ -4125,15 +4125,15 @@
         <v>18</v>
       </c>
       <c r="M26" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 26\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 26</v>
+      </c>
+      <c r="O26" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 26\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 26</v>
-      </c>
-      <c r="O26" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P26" s="5" t="str">
@@ -4153,19 +4153,19 @@
         <v>26</v>
       </c>
       <c r="T26" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V26" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U26" s="4">
+        <v>1</v>
+      </c>
+      <c r="W26" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V26" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W26" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 27</v>
       </c>
       <c r="C27">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 27</v>
       </c>
       <c r="F27" s="3">
@@ -4206,15 +4206,15 @@
         <v>18</v>
       </c>
       <c r="M27" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 27\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 27</v>
+      </c>
+      <c r="O27" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 27\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N27" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 27</v>
-      </c>
-      <c r="O27" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P27" s="5" t="str">
@@ -4234,19 +4234,19 @@
         <v>27</v>
       </c>
       <c r="T27" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V27" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U27" s="4">
+        <v>1</v>
+      </c>
+      <c r="W27" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V27" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W27" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 28</v>
       </c>
       <c r="C28">
@@ -4266,7 +4266,7 @@
         <v>17</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 28</v>
       </c>
       <c r="F28" s="3">
@@ -4289,15 +4289,15 @@
         <v>18</v>
       </c>
       <c r="M28" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 28\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 28</v>
+      </c>
+      <c r="O28" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 28\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N28" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 28</v>
-      </c>
-      <c r="O28" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P28" s="5" t="str">
@@ -4317,19 +4317,19 @@
         <v>28</v>
       </c>
       <c r="T28" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="W28" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V28" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W28" s="4">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 29</v>
       </c>
       <c r="C29">
@@ -4349,7 +4349,7 @@
         <v>17</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 29</v>
       </c>
       <c r="F29" s="3">
@@ -4370,15 +4370,15 @@
         <v>18</v>
       </c>
       <c r="M29" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 29\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 29</v>
+      </c>
+      <c r="O29" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 29\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N29" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 29</v>
-      </c>
-      <c r="O29" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P29" s="5" t="str">
@@ -4398,20 +4398,20 @@
         <v>29</v>
       </c>
       <c r="T29" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="V29" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W29" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 30</v>
       </c>
       <c r="C30">
@@ -4430,7 +4430,7 @@
         <v>17</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 30</v>
       </c>
       <c r="F30" s="3">
@@ -4451,15 +4451,15 @@
         <v>18</v>
       </c>
       <c r="M30" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 30\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N30" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 30</v>
+      </c>
+      <c r="O30" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 30\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N30" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 30</v>
-      </c>
-      <c r="O30" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P30" s="5" t="str">
@@ -4479,20 +4479,20 @@
         <v>30</v>
       </c>
       <c r="T30" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V30" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W30" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 31</v>
       </c>
       <c r="C31">
@@ -4511,7 +4511,7 @@
         <v>17</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 31</v>
       </c>
       <c r="F31" s="3">
@@ -4532,15 +4532,15 @@
         <v>18</v>
       </c>
       <c r="M31" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 31\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 31</v>
+      </c>
+      <c r="O31" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 31\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N31" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 31</v>
-      </c>
-      <c r="O31" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P31" s="5" t="str">
@@ -4560,20 +4560,20 @@
         <v>31</v>
       </c>
       <c r="T31" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V31" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W31" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 32</v>
       </c>
       <c r="C32">
@@ -4592,7 +4592,7 @@
         <v>17</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 32</v>
       </c>
       <c r="F32" s="3">
@@ -4613,15 +4613,15 @@
         <v>18</v>
       </c>
       <c r="M32" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 32\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 32</v>
+      </c>
+      <c r="O32" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 32\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N32" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 32</v>
-      </c>
-      <c r="O32" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P32" s="5" t="str">
@@ -4641,20 +4641,20 @@
         <v>32</v>
       </c>
       <c r="T32" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V32" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W32" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 33</v>
       </c>
       <c r="C33">
@@ -4673,7 +4673,7 @@
         <v>17</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 33</v>
       </c>
       <c r="F33" s="3">
@@ -4694,15 +4694,15 @@
         <v>18</v>
       </c>
       <c r="M33" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 33\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N33" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 33</v>
+      </c>
+      <c r="O33" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 33\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N33" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 33</v>
-      </c>
-      <c r="O33" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P33" s="5" t="str">
@@ -4722,20 +4722,20 @@
         <v>33</v>
       </c>
       <c r="T33" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V33" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W33" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 34</v>
       </c>
       <c r="C34">
@@ -4754,7 +4754,7 @@
         <v>17</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 34</v>
       </c>
       <c r="F34" s="3">
@@ -4775,15 +4775,15 @@
         <v>18</v>
       </c>
       <c r="M34" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 34\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N34" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 34</v>
+      </c>
+      <c r="O34" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 34\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N34" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 34</v>
-      </c>
-      <c r="O34" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P34" s="5" t="str">
@@ -4803,20 +4803,20 @@
         <v>34</v>
       </c>
       <c r="T34" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U34" s="4">
-        <f t="shared" ref="U34:U69" si="15">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V34" s="4">
-        <f t="shared" ref="V34:V69" si="16">IF(C34=C35,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="4">
-        <f t="shared" ref="W34:W65" si="17">SUM(U34:V34)</f>
-        <v>2</v>
+        <f t="shared" ref="W34:W65" si="15">SUM(U34:V34)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 35</v>
       </c>
       <c r="C35">
@@ -4835,7 +4835,7 @@
         <v>17</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 35</v>
       </c>
       <c r="F35" s="3">
@@ -4856,15 +4856,15 @@
         <v>18</v>
       </c>
       <c r="M35" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 35\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N35" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 35</v>
+      </c>
+      <c r="O35" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 35\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N35" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 35</v>
-      </c>
-      <c r="O35" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P35" s="5" t="str">
@@ -4884,20 +4884,20 @@
         <v>35</v>
       </c>
       <c r="T35" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U35" s="4">
+        <v>1</v>
+      </c>
+      <c r="W35" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V35" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W35" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 36</v>
       </c>
       <c r="C36">
@@ -4916,7 +4916,7 @@
         <v>17</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 36</v>
       </c>
       <c r="F36" s="3">
@@ -4939,15 +4939,15 @@
         <v>18</v>
       </c>
       <c r="M36" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 36\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N36" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 36</v>
+      </c>
+      <c r="O36" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 36\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N36" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 36</v>
-      </c>
-      <c r="O36" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P36" s="5" t="str">
@@ -4967,19 +4967,19 @@
         <v>36</v>
       </c>
       <c r="T36" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V36" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U36" s="4">
+        <v>1</v>
+      </c>
+      <c r="W36" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V36" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W36" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 37</v>
       </c>
       <c r="C37">
@@ -4999,7 +4999,7 @@
         <v>17</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 37</v>
       </c>
       <c r="F37" s="3">
@@ -5020,15 +5020,15 @@
         <v>18</v>
       </c>
       <c r="M37" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 37\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N37" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 37</v>
+      </c>
+      <c r="O37" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 37\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N37" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 37</v>
-      </c>
-      <c r="O37" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P37" s="5" t="str">
@@ -5048,19 +5048,19 @@
         <v>37</v>
       </c>
       <c r="T37" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V37" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U37" s="4">
+        <v>1</v>
+      </c>
+      <c r="W37" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V37" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W37" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 38</v>
       </c>
       <c r="C38">
@@ -5080,7 +5080,7 @@
         <v>17</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 38</v>
       </c>
       <c r="F38" s="3">
@@ -5101,15 +5101,15 @@
         <v>18</v>
       </c>
       <c r="M38" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 38\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N38" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 38</v>
+      </c>
+      <c r="O38" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 38\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N38" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 38</v>
-      </c>
-      <c r="O38" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P38" s="5" t="str">
@@ -5129,19 +5129,19 @@
         <v>38</v>
       </c>
       <c r="T38" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V38" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U38" s="4">
+        <v>1</v>
+      </c>
+      <c r="W38" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V38" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W38" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 39</v>
       </c>
       <c r="C39">
@@ -5161,7 +5161,7 @@
         <v>17</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 39</v>
       </c>
       <c r="F39" s="3">
@@ -5184,15 +5184,15 @@
         <v>18</v>
       </c>
       <c r="M39" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 39\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N39" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 39</v>
+      </c>
+      <c r="O39" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 39\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N39" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 39</v>
-      </c>
-      <c r="O39" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P39" s="5" t="str">
@@ -5212,19 +5212,19 @@
         <v>39</v>
       </c>
       <c r="T39" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V39" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U39" s="4">
+        <v>1</v>
+      </c>
+      <c r="W39" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V39" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W39" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 40</v>
       </c>
       <c r="C40">
@@ -5244,7 +5244,7 @@
         <v>17</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 40</v>
       </c>
       <c r="F40" s="3">
@@ -5265,15 +5265,15 @@
         <v>18</v>
       </c>
       <c r="M40" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 40\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N40" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 40</v>
+      </c>
+      <c r="O40" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 40\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N40" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 40</v>
-      </c>
-      <c r="O40" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P40" s="5" t="str">
@@ -5293,19 +5293,19 @@
         <v>40</v>
       </c>
       <c r="T40" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V40" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U40" s="4">
+        <v>1</v>
+      </c>
+      <c r="W40" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V40" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W40" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 41</v>
       </c>
       <c r="C41">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 41</v>
       </c>
       <c r="F41" s="3">
@@ -5346,15 +5346,15 @@
         <v>18</v>
       </c>
       <c r="M41" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 41\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N41" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 41</v>
+      </c>
+      <c r="O41" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 41\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N41" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 41</v>
-      </c>
-      <c r="O41" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P41" s="5" t="str">
@@ -5374,19 +5374,19 @@
         <v>41</v>
       </c>
       <c r="T41" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V41" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U41" s="4">
+        <v>1</v>
+      </c>
+      <c r="W41" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V41" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W41" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 42</v>
       </c>
       <c r="C42">
@@ -5406,7 +5406,7 @@
         <v>17</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 42</v>
       </c>
       <c r="F42" s="3">
@@ -5429,15 +5429,15 @@
         <v>18</v>
       </c>
       <c r="M42" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 42\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N42" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 42</v>
+      </c>
+      <c r="O42" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 42\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N42" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 42</v>
-      </c>
-      <c r="O42" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P42" s="5" t="str">
@@ -5457,20 +5457,20 @@
         <v>42</v>
       </c>
       <c r="T42" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V42" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U42" s="4">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V42" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W42" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 43</v>
       </c>
       <c r="C43">
@@ -5489,7 +5489,7 @@
         <v>17</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 43</v>
       </c>
       <c r="F43" s="3">
@@ -5510,15 +5510,15 @@
         <v>18</v>
       </c>
       <c r="M43" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 43\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 43</v>
+      </c>
+      <c r="O43" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 43\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N43" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 43</v>
-      </c>
-      <c r="O43" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P43" s="5" t="str">
@@ -5538,20 +5538,20 @@
         <v>43</v>
       </c>
       <c r="T43" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U43" s="4">
+        <v>1</v>
+      </c>
+      <c r="W43" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V43" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W43" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 44</v>
       </c>
       <c r="C44">
@@ -5570,7 +5570,7 @@
         <v>17</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 44</v>
       </c>
       <c r="F44" s="3">
@@ -5591,15 +5591,15 @@
         <v>18</v>
       </c>
       <c r="M44" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 44\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 44</v>
+      </c>
+      <c r="O44" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 44\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N44" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 44</v>
-      </c>
-      <c r="O44" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P44" s="5" t="str">
@@ -5619,20 +5619,20 @@
         <v>44</v>
       </c>
       <c r="T44" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V44" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U44" s="4">
+        <v>0</v>
+      </c>
+      <c r="W44" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V44" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W44" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 45</v>
       </c>
       <c r="C45">
@@ -5651,7 +5651,7 @@
         <v>17</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 45</v>
       </c>
       <c r="F45" s="3">
@@ -5672,15 +5672,15 @@
         <v>18</v>
       </c>
       <c r="M45" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 45\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N45" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 45</v>
+      </c>
+      <c r="O45" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 45\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N45" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 45</v>
-      </c>
-      <c r="O45" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P45" s="5" t="str">
@@ -5700,20 +5700,20 @@
         <v>45</v>
       </c>
       <c r="T45" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U45" s="4">
+        <v>1</v>
+      </c>
+      <c r="W45" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V45" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W45" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 46</v>
       </c>
       <c r="C46">
@@ -5732,7 +5732,7 @@
         <v>17</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 46</v>
       </c>
       <c r="F46" s="3">
@@ -5753,15 +5753,15 @@
         <v>18</v>
       </c>
       <c r="M46" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 46\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N46" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 46</v>
+      </c>
+      <c r="O46" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 46\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N46" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 46</v>
-      </c>
-      <c r="O46" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P46" s="5" t="str">
@@ -5781,20 +5781,20 @@
         <v>46</v>
       </c>
       <c r="T46" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V46" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U46" s="4">
+        <v>0</v>
+      </c>
+      <c r="W46" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V46" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W46" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 47</v>
       </c>
       <c r="C47">
@@ -5813,7 +5813,7 @@
         <v>17</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 47</v>
       </c>
       <c r="F47" s="3">
@@ -5834,15 +5834,15 @@
         <v>18</v>
       </c>
       <c r="M47" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 47\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 47</v>
+      </c>
+      <c r="O47" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 47\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N47" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 47</v>
-      </c>
-      <c r="O47" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P47" s="5" t="str">
@@ -5862,20 +5862,20 @@
         <v>47</v>
       </c>
       <c r="T47" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U47" s="4">
+        <v>0</v>
+      </c>
+      <c r="W47" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V47" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W47" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 48</v>
       </c>
       <c r="C48">
@@ -5894,7 +5894,7 @@
         <v>17</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 48</v>
       </c>
       <c r="F48" s="3">
@@ -5915,15 +5915,15 @@
         <v>18</v>
       </c>
       <c r="M48" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 48\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N48" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 48</v>
+      </c>
+      <c r="O48" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 48\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N48" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 48</v>
-      </c>
-      <c r="O48" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P48" s="5" t="str">
@@ -5943,20 +5943,20 @@
         <v>48</v>
       </c>
       <c r="T48" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U48" s="4">
+        <v>1</v>
+      </c>
+      <c r="W48" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V48" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W48" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 49</v>
       </c>
       <c r="C49">
@@ -5975,7 +5975,7 @@
         <v>17</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 49</v>
       </c>
       <c r="F49" s="3">
@@ -5996,15 +5996,15 @@
         <v>18</v>
       </c>
       <c r="M49" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 49\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N49" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 49</v>
+      </c>
+      <c r="O49" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 49\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N49" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 49</v>
-      </c>
-      <c r="O49" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P49" s="5" t="str">
@@ -6024,20 +6024,20 @@
         <v>49</v>
       </c>
       <c r="T49" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V49" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U49" s="4">
+        <v>0</v>
+      </c>
+      <c r="W49" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V49" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W49" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 50</v>
       </c>
       <c r="C50">
@@ -6056,7 +6056,7 @@
         <v>17</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 50</v>
       </c>
       <c r="F50" s="3">
@@ -6077,15 +6077,15 @@
         <v>18</v>
       </c>
       <c r="M50" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 50\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N50" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 50</v>
+      </c>
+      <c r="O50" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 50\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N50" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 50</v>
-      </c>
-      <c r="O50" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P50" s="5" t="str">
@@ -6105,20 +6105,20 @@
         <v>50</v>
       </c>
       <c r="T50" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U50" s="4">
+        <v>1</v>
+      </c>
+      <c r="W50" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V50" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W50" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 51</v>
       </c>
       <c r="C51">
@@ -6137,7 +6137,7 @@
         <v>17</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 51</v>
       </c>
       <c r="F51" s="3">
@@ -6158,15 +6158,15 @@
         <v>18</v>
       </c>
       <c r="M51" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 51\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N51" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 51</v>
+      </c>
+      <c r="O51" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 51\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N51" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 51</v>
-      </c>
-      <c r="O51" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P51" s="5" t="str">
@@ -6186,19 +6186,19 @@
         <v>51</v>
       </c>
       <c r="T51" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V51" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U51" s="4">
+        <v>1</v>
+      </c>
+      <c r="W51" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V51" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W51" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 52</v>
       </c>
       <c r="C52">
@@ -6218,7 +6218,7 @@
         <v>17</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 52</v>
       </c>
       <c r="F52" s="3">
@@ -6239,15 +6239,15 @@
         <v>18</v>
       </c>
       <c r="M52" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 52\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N52" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 52</v>
+      </c>
+      <c r="O52" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 52\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N52" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 52</v>
-      </c>
-      <c r="O52" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P52" s="5" t="str">
@@ -6267,20 +6267,20 @@
         <v>52</v>
       </c>
       <c r="T52" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V52" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U52" s="4">
+        <v>0</v>
+      </c>
+      <c r="W52" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V52" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W52" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 53</v>
       </c>
       <c r="C53">
@@ -6299,7 +6299,7 @@
         <v>17</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 53</v>
       </c>
       <c r="F53" s="3">
@@ -6320,15 +6320,15 @@
         <v>18</v>
       </c>
       <c r="M53" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 53\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N53" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 53</v>
+      </c>
+      <c r="O53" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 53\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N53" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 53</v>
-      </c>
-      <c r="O53" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P53" s="5" t="str">
@@ -6348,20 +6348,20 @@
         <v>53</v>
       </c>
       <c r="T53" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U53" s="4">
+        <v>0</v>
+      </c>
+      <c r="W53" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V53" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W53" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 54</v>
       </c>
       <c r="C54">
@@ -6380,7 +6380,7 @@
         <v>17</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 54</v>
       </c>
       <c r="F54" s="3">
@@ -6401,15 +6401,15 @@
         <v>18</v>
       </c>
       <c r="M54" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 54\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N54" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 54</v>
+      </c>
+      <c r="O54" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 54\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N54" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 54</v>
-      </c>
-      <c r="O54" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P54" s="5" t="str">
@@ -6429,20 +6429,20 @@
         <v>54</v>
       </c>
       <c r="T54" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U54" s="4">
+        <v>0</v>
+      </c>
+      <c r="W54" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V54" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W54" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 55</v>
       </c>
       <c r="C55">
@@ -6461,7 +6461,7 @@
         <v>17</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 55</v>
       </c>
       <c r="F55" s="3">
@@ -6484,15 +6484,15 @@
         <v>18</v>
       </c>
       <c r="M55" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 55\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N55" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 55</v>
+      </c>
+      <c r="O55" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 55\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N55" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 55</v>
-      </c>
-      <c r="O55" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P55" s="5" t="str">
@@ -6512,20 +6512,20 @@
         <v>55</v>
       </c>
       <c r="T55" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U55" s="4">
+        <v>0</v>
+      </c>
+      <c r="W55" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V55" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W55" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 56</v>
       </c>
       <c r="C56">
@@ -6544,7 +6544,7 @@
         <v>17</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 56</v>
       </c>
       <c r="F56" s="3">
@@ -6565,15 +6565,15 @@
         <v>18</v>
       </c>
       <c r="M56" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 56\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N56" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 56</v>
+      </c>
+      <c r="O56" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 56\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N56" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 56</v>
-      </c>
-      <c r="O56" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P56" s="5" t="str">
@@ -6593,20 +6593,20 @@
         <v>56</v>
       </c>
       <c r="T56" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U56" s="4">
+        <v>1</v>
+      </c>
+      <c r="W56" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V56" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W56" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 57</v>
       </c>
       <c r="C57">
@@ -6625,7 +6625,7 @@
         <v>17</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 57</v>
       </c>
       <c r="F57" s="3">
@@ -6646,15 +6646,15 @@
         <v>18</v>
       </c>
       <c r="M57" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 57\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N57" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 57</v>
+      </c>
+      <c r="O57" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 57\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N57" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 57</v>
-      </c>
-      <c r="O57" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P57" s="5" t="str">
@@ -6674,19 +6674,19 @@
         <v>57</v>
       </c>
       <c r="T57" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V57" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U57" s="4">
+        <v>1</v>
+      </c>
+      <c r="W57" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V57" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W57" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 58</v>
       </c>
       <c r="C58">
@@ -6706,7 +6706,7 @@
         <v>17</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 58</v>
       </c>
       <c r="F58" s="3">
@@ -6727,15 +6727,15 @@
         <v>18</v>
       </c>
       <c r="M58" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 58\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N58" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 58</v>
+      </c>
+      <c r="O58" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 58\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N58" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 58</v>
-      </c>
-      <c r="O58" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P58" s="5" t="str">
@@ -6755,19 +6755,19 @@
         <v>58</v>
       </c>
       <c r="T58" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U58" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V58" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U58" s="4">
+        <v>1</v>
+      </c>
+      <c r="W58" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V58" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W58" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 59</v>
       </c>
       <c r="C59">
@@ -6787,7 +6787,7 @@
         <v>17</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 59</v>
       </c>
       <c r="F59" s="3">
@@ -6808,15 +6808,15 @@
         <v>18</v>
       </c>
       <c r="M59" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 59\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N59" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 59</v>
+      </c>
+      <c r="O59" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 59\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N59" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 59</v>
-      </c>
-      <c r="O59" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P59" s="5" t="str">
@@ -6836,20 +6836,20 @@
         <v>59</v>
       </c>
       <c r="T59" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V59" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U59" s="4">
+        <v>0</v>
+      </c>
+      <c r="W59" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V59" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W59" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 60</v>
       </c>
       <c r="C60">
@@ -6868,7 +6868,7 @@
         <v>17</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 60</v>
       </c>
       <c r="F60" s="3">
@@ -6889,15 +6889,15 @@
         <v>18</v>
       </c>
       <c r="M60" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 60\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N60" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 60</v>
+      </c>
+      <c r="O60" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 60\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N60" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 60</v>
-      </c>
-      <c r="O60" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P60" s="5" t="str">
@@ -6917,20 +6917,20 @@
         <v>60</v>
       </c>
       <c r="T60" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U60" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U60" s="4">
+        <v>0</v>
+      </c>
+      <c r="W60" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V60" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W60" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -6939,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 61</v>
       </c>
       <c r="C61">
@@ -6949,7 +6949,7 @@
         <v>17</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 61</v>
       </c>
       <c r="F61" s="3">
@@ -6970,15 +6970,15 @@
         <v>18</v>
       </c>
       <c r="M61" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 61\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N61" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 61</v>
+      </c>
+      <c r="O61" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 61\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N61" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 61</v>
-      </c>
-      <c r="O61" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P61" s="5" t="str">
@@ -6998,20 +6998,20 @@
         <v>61</v>
       </c>
       <c r="T61" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U61" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U61" s="4">
+        <v>0</v>
+      </c>
+      <c r="W61" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V61" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W61" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 62</v>
       </c>
       <c r="C62">
@@ -7030,7 +7030,7 @@
         <v>17</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 62</v>
       </c>
       <c r="F62" s="3">
@@ -7051,15 +7051,15 @@
         <v>18</v>
       </c>
       <c r="M62" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 62\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N62" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 62</v>
+      </c>
+      <c r="O62" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 62\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N62" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 62</v>
-      </c>
-      <c r="O62" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P62" s="5" t="str">
@@ -7079,20 +7079,20 @@
         <v>62</v>
       </c>
       <c r="T62" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U62" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U62" s="4">
+        <v>1</v>
+      </c>
+      <c r="W62" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
-      </c>
-      <c r="V62" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W62" s="4">
-        <f t="shared" si="17"/>
-        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 63</v>
       </c>
       <c r="C63">
@@ -7111,7 +7111,7 @@
         <v>17</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 63</v>
       </c>
       <c r="F63" s="3">
@@ -7132,15 +7132,15 @@
         <v>18</v>
       </c>
       <c r="M63" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 63\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N63" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 63</v>
+      </c>
+      <c r="O63" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 63\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N63" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 63</v>
-      </c>
-      <c r="O63" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P63" s="5" t="str">
@@ -7160,19 +7160,19 @@
         <v>63</v>
       </c>
       <c r="T63" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U63" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V63" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U63" s="4">
+        <v>1</v>
+      </c>
+      <c r="W63" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V63" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W63" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 64</v>
       </c>
       <c r="C64">
@@ -7192,7 +7192,7 @@
         <v>17</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 64</v>
       </c>
       <c r="F64" s="3">
@@ -7213,15 +7213,15 @@
         <v>18</v>
       </c>
       <c r="M64" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 64\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N64" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 64</v>
+      </c>
+      <c r="O64" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 64\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N64" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 64</v>
-      </c>
-      <c r="O64" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P64" s="5" t="str">
@@ -7241,19 +7241,19 @@
         <v>64</v>
       </c>
       <c r="T64" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U64" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V64" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U64" s="4">
+        <v>1</v>
+      </c>
+      <c r="W64" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V64" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W64" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 65</v>
       </c>
       <c r="C65">
@@ -7273,7 +7273,7 @@
         <v>17</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 65</v>
       </c>
       <c r="F65" s="3">
@@ -7294,15 +7294,15 @@
         <v>18</v>
       </c>
       <c r="M65" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 65\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N65" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 65</v>
+      </c>
+      <c r="O65" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 65\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N65" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 65</v>
-      </c>
-      <c r="O65" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P65" s="5" t="str">
@@ -7322,19 +7322,19 @@
         <v>65</v>
       </c>
       <c r="T65" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U65" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V65" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U65" s="4">
+        <v>1</v>
+      </c>
+      <c r="W65" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V65" s="4">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W65" s="4">
-        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Cliente 66</v>
       </c>
       <c r="C66">
@@ -7354,7 +7354,7 @@
         <v>17</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Clave 66</v>
       </c>
       <c r="F66" s="3">
@@ -7375,15 +7375,15 @@
         <v>18</v>
       </c>
       <c r="M66" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 66\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N66" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0  - 202303 - 30000000000 - Cliente 66</v>
+      </c>
+      <c r="O66" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 66\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N66" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0  - 202303 - 30000000000 - Cliente 66</v>
-      </c>
-      <c r="O66" s="2" t="str">
-        <f t="shared" si="10"/>
         <v>202303</v>
       </c>
       <c r="P66" s="5" t="str">
@@ -7395,7 +7395,7 @@
         <v>#N/A</v>
       </c>
       <c r="R66" s="5" t="e">
-        <f t="shared" ref="R66:R69" si="18">IF(EXACT(Q66,E66),"ü","x")</f>
+        <f t="shared" ref="R66:R69" si="16">IF(EXACT(Q66,E66),"ü","x")</f>
         <v>#N/A</v>
       </c>
       <c r="S66" s="4">
@@ -7403,19 +7403,19 @@
         <v>66</v>
       </c>
       <c r="T66" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V66" s="4">
         <f t="shared" si="11"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U66" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V66" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W66" s="4">
-        <f t="shared" ref="W66:W67" si="19">SUM(U66:V66)</f>
+        <f t="shared" ref="W66:W67" si="17">SUM(U66:V66)</f>
         <v>2</v>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B69" si="20">"Cliente "&amp;ROW()</f>
+        <f t="shared" ref="B67:B69" si="18">"Cliente "&amp;ROW()</f>
         <v>Cliente 67</v>
       </c>
       <c r="C67">
@@ -7435,7 +7435,7 @@
         <v>17</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E69" si="21">"Clave "&amp;ROW()</f>
+        <f t="shared" ref="E67:E69" si="19">"Clave "&amp;ROW()</f>
         <v>Clave 67</v>
       </c>
       <c r="F67" s="3">
@@ -7456,15 +7456,15 @@
         <v>18</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f t="shared" ref="M67:M69" si="22">CONCATENATE(L67,"\",B67,"\","COMVEN LID","\",YEAR(F67),"\",TEXT(MONTH(F67),"00"),"\")</f>
+        <f t="shared" ref="M67:M69" si="20">CONCATENATE(L67,"\",B67,"\","COMVEN LID","\",YEAR(F67),"\",TEXT(MONTH(F67),"00"),"\")</f>
         <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 67\COMVEN LID\2023\03\</v>
       </c>
       <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67:N69" si="23">CONCATENATE(TEXT(A67,"0"),"  - ",O67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="N67:N69" si="21">CONCATENATE(TEXT(A67,"0"),"  - ",O67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0  - 202303 - 30000000000 - Cliente 67</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" ref="O67:O69" si="24">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
+        <f t="shared" ref="O67:O69" si="22">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
         <v>202303</v>
       </c>
       <c r="P67" s="5" t="str">
@@ -7476,7 +7476,7 @@
         <v>#N/A</v>
       </c>
       <c r="R67" s="5" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="S67" s="4">
@@ -7484,19 +7484,19 @@
         <v>67</v>
       </c>
       <c r="T67" s="4" t="str">
-        <f t="shared" ref="T67:T69" si="25">TEXT(MONTH(F67),"00")&amp;"/"&amp;YEAR(F67)</f>
+        <f t="shared" ref="T67:T69" si="23">TEXT(MONTH(F67),"00")&amp;"/"&amp;YEAR(F67)</f>
         <v>03/2023</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="U67:U69" si="24">IF(AND(C67=C66,I66=I67),1,0)</f>
         <v>1</v>
       </c>
       <c r="V67" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="V67:V69" si="25">IF(AND(C67=C68,I67=I68),1,0)</f>
         <v>1</v>
       </c>
       <c r="W67" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>Cliente 68</v>
       </c>
       <c r="C68">
@@ -7516,7 +7516,7 @@
         <v>17</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>Clave 68</v>
       </c>
       <c r="F68" s="3">
@@ -7537,15 +7537,15 @@
         <v>18</v>
       </c>
       <c r="M68" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 68\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N68" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>0  - 202303 - 30000000000 - Cliente 68</v>
+      </c>
+      <c r="O68" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 68\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N68" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>0  - 202303 - 30000000000 - Cliente 68</v>
-      </c>
-      <c r="O68" s="2" t="str">
-        <f t="shared" si="24"/>
         <v>202303</v>
       </c>
       <c r="P68" s="5" t="str">
@@ -7557,7 +7557,7 @@
         <v>#N/A</v>
       </c>
       <c r="R68" s="5" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="S68" s="4">
@@ -7565,15 +7565,15 @@
         <v>68</v>
       </c>
       <c r="T68" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U68" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="V68" s="4">
         <f t="shared" si="25"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U68" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V68" s="4">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W68" s="4">
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>Cliente 69</v>
       </c>
       <c r="C69">
@@ -7597,7 +7597,7 @@
         <v>17</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>Clave 69</v>
       </c>
       <c r="F69" s="3">
@@ -7618,15 +7618,15 @@
         <v>18</v>
       </c>
       <c r="M69" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 69\COMVEN LID\2023\03\</v>
+      </c>
+      <c r="N69" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>0  - 202303 - 30000000000 - Cliente 69</v>
+      </c>
+      <c r="O69" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\Cliente 69\COMVEN LID\2023\03\</v>
-      </c>
-      <c r="N69" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>0  - 202303 - 30000000000 - Cliente 69</v>
-      </c>
-      <c r="O69" s="2" t="str">
-        <f t="shared" si="24"/>
         <v>202303</v>
       </c>
       <c r="P69" s="5" t="str">
@@ -7638,7 +7638,7 @@
         <v>#N/A</v>
       </c>
       <c r="R69" s="5" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="S69" s="4">
@@ -7646,15 +7646,15 @@
         <v>69</v>
       </c>
       <c r="T69" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>03/2023</v>
+      </c>
+      <c r="U69" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="V69" s="4">
         <f t="shared" si="25"/>
-        <v>03/2023</v>
-      </c>
-      <c r="U69" s="4">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V69" s="4">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W69" s="4">
